--- a/forms/app/register.xlsx
+++ b/forms/app/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Work/dccms/daily-register/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC66D03-B687-9E4A-9950-26CC49A01284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1470B-9180-3A42-8B2C-A7991559C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -584,6 +584,18 @@
   </si>
   <si>
     <t>Time of observation</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
 </sst>
 </file>
@@ -2432,10 +2444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV1045"/>
+  <dimension ref="A1:IV1046"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2776,37 +2788,41 @@
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="64" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>42</v>
+        <v>181</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="68"/>
       <c r="H3" s="68"/>
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
-      <c r="K3" s="69"/>
+      <c r="K3" s="69" t="s">
+        <v>182</v>
+      </c>
       <c r="L3" s="69"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3"/>
@@ -3040,13 +3056,13 @@
     </row>
     <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="64" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="69"/>
       <c r="E4" s="68"/>
@@ -3307,10 +3323,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="68"/>
@@ -3568,10 +3584,14 @@
     </row>
     <row r="6" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="64" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>51</v>
+      </c>
       <c r="D6" s="69"/>
       <c r="E6" s="68"/>
       <c r="F6" s="68"/>
@@ -4087,58 +4107,278 @@
       <c r="IV7"/>
     </row>
     <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="25"/>
+      <c r="A8" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+      <c r="AO8"/>
+      <c r="AP8"/>
+      <c r="AQ8"/>
+      <c r="AR8"/>
+      <c r="AS8"/>
+      <c r="AT8"/>
+      <c r="AU8"/>
+      <c r="AV8"/>
+      <c r="AW8"/>
+      <c r="AX8"/>
+      <c r="AY8"/>
+      <c r="AZ8"/>
+      <c r="BA8"/>
+      <c r="BB8"/>
+      <c r="BC8"/>
+      <c r="BD8"/>
+      <c r="BE8"/>
+      <c r="BF8"/>
+      <c r="BG8"/>
+      <c r="BH8"/>
+      <c r="BI8"/>
+      <c r="BJ8"/>
+      <c r="BK8"/>
+      <c r="BL8"/>
+      <c r="BM8"/>
+      <c r="BN8"/>
+      <c r="BO8"/>
+      <c r="BP8"/>
+      <c r="BQ8"/>
+      <c r="BR8"/>
+      <c r="BS8"/>
+      <c r="BT8"/>
+      <c r="BU8"/>
+      <c r="BV8"/>
+      <c r="BW8"/>
+      <c r="BX8"/>
+      <c r="BY8"/>
+      <c r="BZ8"/>
+      <c r="CA8"/>
+      <c r="CB8"/>
+      <c r="CC8"/>
+      <c r="CD8"/>
+      <c r="CE8"/>
+      <c r="CF8"/>
+      <c r="CG8"/>
+      <c r="CH8"/>
+      <c r="CI8"/>
+      <c r="CJ8"/>
+      <c r="CK8"/>
+      <c r="CL8"/>
+      <c r="CM8"/>
+      <c r="CN8"/>
+      <c r="CO8"/>
+      <c r="CP8"/>
+      <c r="CQ8"/>
+      <c r="CR8"/>
+      <c r="CS8"/>
+      <c r="CT8"/>
+      <c r="CU8"/>
+      <c r="CV8"/>
+      <c r="CW8"/>
+      <c r="CX8"/>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+      <c r="DP8"/>
+      <c r="DQ8"/>
+      <c r="DR8"/>
+      <c r="DS8"/>
+      <c r="DT8"/>
+      <c r="DU8"/>
+      <c r="DV8"/>
+      <c r="DW8"/>
+      <c r="DX8"/>
+      <c r="DY8"/>
+      <c r="DZ8"/>
+      <c r="EA8"/>
+      <c r="EB8"/>
+      <c r="EC8"/>
+      <c r="ED8"/>
+      <c r="EE8"/>
+      <c r="EF8"/>
+      <c r="EG8"/>
+      <c r="EH8"/>
+      <c r="EI8"/>
+      <c r="EJ8"/>
+      <c r="EK8"/>
+      <c r="EL8"/>
+      <c r="EM8"/>
+      <c r="EN8"/>
+      <c r="EO8"/>
+      <c r="EP8"/>
+      <c r="EQ8"/>
+      <c r="ER8"/>
+      <c r="ES8"/>
+      <c r="ET8"/>
+      <c r="EU8"/>
+      <c r="EV8"/>
+      <c r="EW8"/>
+      <c r="EX8"/>
+      <c r="EY8"/>
+      <c r="EZ8"/>
+      <c r="FA8"/>
+      <c r="FB8"/>
+      <c r="FC8"/>
+      <c r="FD8"/>
+      <c r="FE8"/>
+      <c r="FF8"/>
+      <c r="FG8"/>
+      <c r="FH8"/>
+      <c r="FI8"/>
+      <c r="FJ8"/>
+      <c r="FK8"/>
+      <c r="FL8"/>
+      <c r="FM8"/>
+      <c r="FN8"/>
+      <c r="FO8"/>
+      <c r="FP8"/>
+      <c r="FQ8"/>
+      <c r="FR8"/>
+      <c r="FS8"/>
+      <c r="FT8"/>
+      <c r="FU8"/>
+      <c r="FV8"/>
+      <c r="FW8"/>
+      <c r="FX8"/>
+      <c r="FY8"/>
+      <c r="FZ8"/>
+      <c r="GA8"/>
+      <c r="GB8"/>
+      <c r="GC8"/>
+      <c r="GD8"/>
+      <c r="GE8"/>
+      <c r="GF8"/>
+      <c r="GG8"/>
+      <c r="GH8"/>
+      <c r="GI8"/>
+      <c r="GJ8"/>
+      <c r="GK8"/>
+      <c r="GL8"/>
+      <c r="GM8"/>
+      <c r="GN8"/>
+      <c r="GO8"/>
+      <c r="GP8"/>
+      <c r="GQ8"/>
+      <c r="GR8"/>
+      <c r="GS8"/>
+      <c r="GT8"/>
+      <c r="GU8"/>
+      <c r="GV8"/>
+      <c r="GW8"/>
+      <c r="GX8"/>
+      <c r="GY8"/>
+      <c r="GZ8"/>
+      <c r="HA8"/>
+      <c r="HB8"/>
+      <c r="HC8"/>
+      <c r="HD8"/>
+      <c r="HE8"/>
+      <c r="HF8"/>
+      <c r="HG8"/>
+      <c r="HH8"/>
+      <c r="HI8"/>
+      <c r="HJ8"/>
+      <c r="HK8"/>
+      <c r="HL8"/>
+      <c r="HM8"/>
+      <c r="HN8"/>
+      <c r="HO8"/>
+      <c r="HP8"/>
+      <c r="HQ8"/>
+      <c r="HR8"/>
+      <c r="HS8"/>
+      <c r="HT8"/>
+      <c r="HU8"/>
+      <c r="HV8"/>
+      <c r="HW8"/>
+      <c r="HX8"/>
+      <c r="HY8"/>
+      <c r="HZ8"/>
+      <c r="IA8"/>
+      <c r="IB8"/>
+      <c r="IC8"/>
+      <c r="ID8"/>
+      <c r="IE8"/>
+      <c r="IF8"/>
+      <c r="IG8"/>
+      <c r="IH8"/>
+      <c r="II8"/>
+      <c r="IJ8"/>
+      <c r="IK8"/>
+      <c r="IL8"/>
+      <c r="IM8"/>
+      <c r="IN8"/>
+      <c r="IO8"/>
+      <c r="IP8"/>
+      <c r="IQ8"/>
+      <c r="IR8"/>
+      <c r="IS8"/>
+      <c r="IT8"/>
+      <c r="IU8"/>
+      <c r="IV8"/>
     </row>
     <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>50</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="23" t="s">
-        <v>25</v>
-      </c>
+      <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
@@ -4161,16 +4401,16 @@
         <v>27</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
@@ -4197,18 +4437,28 @@
       <c r="AB10" s="25"/>
     </row>
     <row r="11" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="23" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="L11" s="23" t="s">
+        <v>25</v>
+      </c>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -4227,124 +4477,114 @@
       <c r="AB11" s="25"/>
     </row>
     <row r="12" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="25"/>
     </row>
     <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+    </row>
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B14" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="29" t="s">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="32"/>
-    </row>
-    <row r="14" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="33" t="s">
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="32"/>
+    </row>
+    <row r="15" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="38"/>
-    </row>
-    <row r="15" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>26</v>
-      </c>
+      <c r="D15" s="36"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -4352,7 +4592,9 @@
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
-      <c r="L15" s="34"/>
+      <c r="L15" s="34" t="s">
+        <v>25</v>
+      </c>
       <c r="M15" s="37"/>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
@@ -4370,67 +4612,67 @@
       <c r="AA15" s="37"/>
       <c r="AB15" s="38"/>
     </row>
-    <row r="16" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:256" ht="59" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="38"/>
+    </row>
+    <row r="17" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="30" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="32"/>
-    </row>
-    <row r="17" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="31"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="31"/>
+      <c r="H17" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
@@ -4452,13 +4694,13 @@
     </row>
     <row r="18" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>26</v>
@@ -4466,13 +4708,9 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="29" t="s">
-        <v>58</v>
-      </c>
+      <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="31" t="s">
-        <v>88</v>
-      </c>
+      <c r="J18" s="31"/>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
@@ -4494,25 +4732,29 @@
     </row>
     <row r="19" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31" t="s">
+        <v>88</v>
+      </c>
       <c r="K19" s="31"/>
-      <c r="L19" s="29"/>
+      <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="31"/>
       <c r="O19" s="31"/>
@@ -4534,23 +4776,23 @@
       <c r="A20" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>64</v>
+      <c r="B20" s="29" t="s">
+        <v>63</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
       <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="31"/>
       <c r="N20" s="31"/>
       <c r="O20" s="31"/>
@@ -4570,11 +4812,17 @@
     </row>
     <row r="21" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="31"/>
+      <c r="B21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
@@ -4600,325 +4848,315 @@
       <c r="AA21" s="31"/>
       <c r="AB21" s="32"/>
     </row>
-    <row r="22" spans="1:256" s="81" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="80"/>
-      <c r="AD22" s="80"/>
-      <c r="AE22" s="80"/>
-      <c r="AF22" s="80"/>
-      <c r="AG22" s="80"/>
-      <c r="AH22" s="80"/>
-      <c r="AI22" s="80"/>
-      <c r="AJ22" s="80"/>
-      <c r="AK22" s="80"/>
-      <c r="AL22" s="80"/>
-      <c r="AM22" s="80"/>
-      <c r="AN22" s="80"/>
-      <c r="AO22" s="80"/>
-      <c r="AP22" s="80"/>
-      <c r="AQ22" s="80"/>
-      <c r="AR22" s="80"/>
-      <c r="AS22" s="80"/>
-      <c r="AT22" s="80"/>
-      <c r="AU22" s="80"/>
-      <c r="AV22" s="80"/>
-      <c r="AW22" s="80"/>
-      <c r="AX22" s="80"/>
-      <c r="AY22" s="80"/>
-      <c r="AZ22" s="80"/>
-      <c r="BA22" s="80"/>
-      <c r="BB22" s="80"/>
-      <c r="BC22" s="80"/>
-      <c r="BD22" s="80"/>
-      <c r="BE22" s="80"/>
-      <c r="BF22" s="80"/>
-      <c r="BG22" s="80"/>
-      <c r="BH22" s="80"/>
-      <c r="BI22" s="80"/>
-      <c r="BJ22" s="80"/>
-      <c r="BK22" s="80"/>
-      <c r="BL22" s="80"/>
-      <c r="BM22" s="80"/>
-      <c r="BN22" s="80"/>
-      <c r="BO22" s="80"/>
-      <c r="BP22" s="80"/>
-      <c r="BQ22" s="80"/>
-      <c r="BR22" s="80"/>
-      <c r="BS22" s="80"/>
-      <c r="BT22" s="80"/>
-      <c r="BU22" s="80"/>
-      <c r="BV22" s="80"/>
-      <c r="BW22" s="80"/>
-      <c r="BX22" s="80"/>
-      <c r="BY22" s="80"/>
-      <c r="BZ22" s="80"/>
-      <c r="CA22" s="80"/>
-      <c r="CB22" s="80"/>
-      <c r="CC22" s="80"/>
-      <c r="CD22" s="80"/>
-      <c r="CE22" s="80"/>
-      <c r="CF22" s="80"/>
-      <c r="CG22" s="80"/>
-      <c r="CH22" s="80"/>
-      <c r="CI22" s="80"/>
-      <c r="CJ22" s="80"/>
-      <c r="CK22" s="80"/>
-      <c r="CL22" s="80"/>
-      <c r="CM22" s="80"/>
-      <c r="CN22" s="80"/>
-      <c r="CO22" s="80"/>
-      <c r="CP22" s="80"/>
-      <c r="CQ22" s="80"/>
-      <c r="CR22" s="80"/>
-      <c r="CS22" s="80"/>
-      <c r="CT22" s="80"/>
-      <c r="CU22" s="80"/>
-      <c r="CV22" s="80"/>
-      <c r="CW22" s="80"/>
-      <c r="CX22" s="80"/>
-      <c r="CY22" s="80"/>
-      <c r="CZ22" s="80"/>
-      <c r="DA22" s="80"/>
-      <c r="DB22" s="80"/>
-      <c r="DC22" s="80"/>
-      <c r="DD22" s="80"/>
-      <c r="DE22" s="80"/>
-      <c r="DF22" s="80"/>
-      <c r="DG22" s="80"/>
-      <c r="DH22" s="80"/>
-      <c r="DI22" s="80"/>
-      <c r="DJ22" s="80"/>
-      <c r="DK22" s="80"/>
-      <c r="DL22" s="80"/>
-      <c r="DM22" s="80"/>
-      <c r="DN22" s="80"/>
-      <c r="DO22" s="80"/>
-      <c r="DP22" s="80"/>
-      <c r="DQ22" s="80"/>
-      <c r="DR22" s="80"/>
-      <c r="DS22" s="80"/>
-      <c r="DT22" s="80"/>
-      <c r="DU22" s="80"/>
-      <c r="DV22" s="80"/>
-      <c r="DW22" s="80"/>
-      <c r="DX22" s="80"/>
-      <c r="DY22" s="80"/>
-      <c r="DZ22" s="80"/>
-      <c r="EA22" s="80"/>
-      <c r="EB22" s="80"/>
-      <c r="EC22" s="80"/>
-      <c r="ED22" s="80"/>
-      <c r="EE22" s="80"/>
-      <c r="EF22" s="80"/>
-      <c r="EG22" s="80"/>
-      <c r="EH22" s="80"/>
-      <c r="EI22" s="80"/>
-      <c r="EJ22" s="80"/>
-      <c r="EK22" s="80"/>
-      <c r="EL22" s="80"/>
-      <c r="EM22" s="80"/>
-      <c r="EN22" s="80"/>
-      <c r="EO22" s="80"/>
-      <c r="EP22" s="80"/>
-      <c r="EQ22" s="80"/>
-      <c r="ER22" s="80"/>
-      <c r="ES22" s="80"/>
-      <c r="ET22" s="80"/>
-      <c r="EU22" s="80"/>
-      <c r="EV22" s="80"/>
-      <c r="EW22" s="80"/>
-      <c r="EX22" s="80"/>
-      <c r="EY22" s="80"/>
-      <c r="EZ22" s="80"/>
-      <c r="FA22" s="80"/>
-      <c r="FB22" s="80"/>
-      <c r="FC22" s="80"/>
-      <c r="FD22" s="80"/>
-      <c r="FE22" s="80"/>
-      <c r="FF22" s="80"/>
-      <c r="FG22" s="80"/>
-      <c r="FH22" s="80"/>
-      <c r="FI22" s="80"/>
-      <c r="FJ22" s="80"/>
-      <c r="FK22" s="80"/>
-      <c r="FL22" s="80"/>
-      <c r="FM22" s="80"/>
-      <c r="FN22" s="80"/>
-      <c r="FO22" s="80"/>
-      <c r="FP22" s="80"/>
-      <c r="FQ22" s="80"/>
-      <c r="FR22" s="80"/>
-      <c r="FS22" s="80"/>
-      <c r="FT22" s="80"/>
-      <c r="FU22" s="80"/>
-      <c r="FV22" s="80"/>
-      <c r="FW22" s="80"/>
-      <c r="FX22" s="80"/>
-      <c r="FY22" s="80"/>
-      <c r="FZ22" s="80"/>
-      <c r="GA22" s="80"/>
-      <c r="GB22" s="80"/>
-      <c r="GC22" s="80"/>
-      <c r="GD22" s="80"/>
-      <c r="GE22" s="80"/>
-      <c r="GF22" s="80"/>
-      <c r="GG22" s="80"/>
-      <c r="GH22" s="80"/>
-      <c r="GI22" s="80"/>
-      <c r="GJ22" s="80"/>
-      <c r="GK22" s="80"/>
-      <c r="GL22" s="80"/>
-      <c r="GM22" s="80"/>
-      <c r="GN22" s="80"/>
-      <c r="GO22" s="80"/>
-      <c r="GP22" s="80"/>
-      <c r="GQ22" s="80"/>
-      <c r="GR22" s="80"/>
-      <c r="GS22" s="80"/>
-      <c r="GT22" s="80"/>
-      <c r="GU22" s="80"/>
-      <c r="GV22" s="80"/>
-      <c r="GW22" s="80"/>
-      <c r="GX22" s="80"/>
-      <c r="GY22" s="80"/>
-      <c r="GZ22" s="80"/>
-      <c r="HA22" s="80"/>
-      <c r="HB22" s="80"/>
-      <c r="HC22" s="80"/>
-      <c r="HD22" s="80"/>
-      <c r="HE22" s="80"/>
-      <c r="HF22" s="80"/>
-      <c r="HG22" s="80"/>
-      <c r="HH22" s="80"/>
-      <c r="HI22" s="80"/>
-      <c r="HJ22" s="80"/>
-      <c r="HK22" s="80"/>
-      <c r="HL22" s="80"/>
-      <c r="HM22" s="80"/>
-      <c r="HN22" s="80"/>
-      <c r="HO22" s="80"/>
-      <c r="HP22" s="80"/>
-      <c r="HQ22" s="80"/>
-      <c r="HR22" s="80"/>
-      <c r="HS22" s="80"/>
-      <c r="HT22" s="80"/>
-      <c r="HU22" s="80"/>
-      <c r="HV22" s="80"/>
-      <c r="HW22" s="80"/>
-      <c r="HX22" s="80"/>
-      <c r="HY22" s="80"/>
-      <c r="HZ22" s="80"/>
-      <c r="IA22" s="80"/>
-      <c r="IB22" s="80"/>
-      <c r="IC22" s="80"/>
-      <c r="ID22" s="80"/>
-      <c r="IE22" s="80"/>
-      <c r="IF22" s="80"/>
-      <c r="IG22" s="80"/>
-      <c r="IH22" s="80"/>
-      <c r="II22" s="80"/>
-      <c r="IJ22" s="80"/>
-      <c r="IK22" s="80"/>
-      <c r="IL22" s="80"/>
-      <c r="IM22" s="80"/>
-      <c r="IN22" s="80"/>
-      <c r="IO22" s="80"/>
-      <c r="IP22" s="80"/>
-      <c r="IQ22" s="80"/>
-      <c r="IR22" s="80"/>
-      <c r="IS22" s="80"/>
-      <c r="IT22" s="80"/>
-      <c r="IU22" s="80"/>
-      <c r="IV22" s="80"/>
-    </row>
-    <row r="23" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="33" t="s">
+    <row r="22" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="31"/>
+      <c r="Y22" s="31"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="32"/>
+    </row>
+    <row r="23" spans="1:256" s="81" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="80"/>
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+      <c r="AK23" s="80"/>
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="80"/>
+      <c r="AN23" s="80"/>
+      <c r="AO23" s="80"/>
+      <c r="AP23" s="80"/>
+      <c r="AQ23" s="80"/>
+      <c r="AR23" s="80"/>
+      <c r="AS23" s="80"/>
+      <c r="AT23" s="80"/>
+      <c r="AU23" s="80"/>
+      <c r="AV23" s="80"/>
+      <c r="AW23" s="80"/>
+      <c r="AX23" s="80"/>
+      <c r="AY23" s="80"/>
+      <c r="AZ23" s="80"/>
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="80"/>
+      <c r="BC23" s="80"/>
+      <c r="BD23" s="80"/>
+      <c r="BE23" s="80"/>
+      <c r="BF23" s="80"/>
+      <c r="BG23" s="80"/>
+      <c r="BH23" s="80"/>
+      <c r="BI23" s="80"/>
+      <c r="BJ23" s="80"/>
+      <c r="BK23" s="80"/>
+      <c r="BL23" s="80"/>
+      <c r="BM23" s="80"/>
+      <c r="BN23" s="80"/>
+      <c r="BO23" s="80"/>
+      <c r="BP23" s="80"/>
+      <c r="BQ23" s="80"/>
+      <c r="BR23" s="80"/>
+      <c r="BS23" s="80"/>
+      <c r="BT23" s="80"/>
+      <c r="BU23" s="80"/>
+      <c r="BV23" s="80"/>
+      <c r="BW23" s="80"/>
+      <c r="BX23" s="80"/>
+      <c r="BY23" s="80"/>
+      <c r="BZ23" s="80"/>
+      <c r="CA23" s="80"/>
+      <c r="CB23" s="80"/>
+      <c r="CC23" s="80"/>
+      <c r="CD23" s="80"/>
+      <c r="CE23" s="80"/>
+      <c r="CF23" s="80"/>
+      <c r="CG23" s="80"/>
+      <c r="CH23" s="80"/>
+      <c r="CI23" s="80"/>
+      <c r="CJ23" s="80"/>
+      <c r="CK23" s="80"/>
+      <c r="CL23" s="80"/>
+      <c r="CM23" s="80"/>
+      <c r="CN23" s="80"/>
+      <c r="CO23" s="80"/>
+      <c r="CP23" s="80"/>
+      <c r="CQ23" s="80"/>
+      <c r="CR23" s="80"/>
+      <c r="CS23" s="80"/>
+      <c r="CT23" s="80"/>
+      <c r="CU23" s="80"/>
+      <c r="CV23" s="80"/>
+      <c r="CW23" s="80"/>
+      <c r="CX23" s="80"/>
+      <c r="CY23" s="80"/>
+      <c r="CZ23" s="80"/>
+      <c r="DA23" s="80"/>
+      <c r="DB23" s="80"/>
+      <c r="DC23" s="80"/>
+      <c r="DD23" s="80"/>
+      <c r="DE23" s="80"/>
+      <c r="DF23" s="80"/>
+      <c r="DG23" s="80"/>
+      <c r="DH23" s="80"/>
+      <c r="DI23" s="80"/>
+      <c r="DJ23" s="80"/>
+      <c r="DK23" s="80"/>
+      <c r="DL23" s="80"/>
+      <c r="DM23" s="80"/>
+      <c r="DN23" s="80"/>
+      <c r="DO23" s="80"/>
+      <c r="DP23" s="80"/>
+      <c r="DQ23" s="80"/>
+      <c r="DR23" s="80"/>
+      <c r="DS23" s="80"/>
+      <c r="DT23" s="80"/>
+      <c r="DU23" s="80"/>
+      <c r="DV23" s="80"/>
+      <c r="DW23" s="80"/>
+      <c r="DX23" s="80"/>
+      <c r="DY23" s="80"/>
+      <c r="DZ23" s="80"/>
+      <c r="EA23" s="80"/>
+      <c r="EB23" s="80"/>
+      <c r="EC23" s="80"/>
+      <c r="ED23" s="80"/>
+      <c r="EE23" s="80"/>
+      <c r="EF23" s="80"/>
+      <c r="EG23" s="80"/>
+      <c r="EH23" s="80"/>
+      <c r="EI23" s="80"/>
+      <c r="EJ23" s="80"/>
+      <c r="EK23" s="80"/>
+      <c r="EL23" s="80"/>
+      <c r="EM23" s="80"/>
+      <c r="EN23" s="80"/>
+      <c r="EO23" s="80"/>
+      <c r="EP23" s="80"/>
+      <c r="EQ23" s="80"/>
+      <c r="ER23" s="80"/>
+      <c r="ES23" s="80"/>
+      <c r="ET23" s="80"/>
+      <c r="EU23" s="80"/>
+      <c r="EV23" s="80"/>
+      <c r="EW23" s="80"/>
+      <c r="EX23" s="80"/>
+      <c r="EY23" s="80"/>
+      <c r="EZ23" s="80"/>
+      <c r="FA23" s="80"/>
+      <c r="FB23" s="80"/>
+      <c r="FC23" s="80"/>
+      <c r="FD23" s="80"/>
+      <c r="FE23" s="80"/>
+      <c r="FF23" s="80"/>
+      <c r="FG23" s="80"/>
+      <c r="FH23" s="80"/>
+      <c r="FI23" s="80"/>
+      <c r="FJ23" s="80"/>
+      <c r="FK23" s="80"/>
+      <c r="FL23" s="80"/>
+      <c r="FM23" s="80"/>
+      <c r="FN23" s="80"/>
+      <c r="FO23" s="80"/>
+      <c r="FP23" s="80"/>
+      <c r="FQ23" s="80"/>
+      <c r="FR23" s="80"/>
+      <c r="FS23" s="80"/>
+      <c r="FT23" s="80"/>
+      <c r="FU23" s="80"/>
+      <c r="FV23" s="80"/>
+      <c r="FW23" s="80"/>
+      <c r="FX23" s="80"/>
+      <c r="FY23" s="80"/>
+      <c r="FZ23" s="80"/>
+      <c r="GA23" s="80"/>
+      <c r="GB23" s="80"/>
+      <c r="GC23" s="80"/>
+      <c r="GD23" s="80"/>
+      <c r="GE23" s="80"/>
+      <c r="GF23" s="80"/>
+      <c r="GG23" s="80"/>
+      <c r="GH23" s="80"/>
+      <c r="GI23" s="80"/>
+      <c r="GJ23" s="80"/>
+      <c r="GK23" s="80"/>
+      <c r="GL23" s="80"/>
+      <c r="GM23" s="80"/>
+      <c r="GN23" s="80"/>
+      <c r="GO23" s="80"/>
+      <c r="GP23" s="80"/>
+      <c r="GQ23" s="80"/>
+      <c r="GR23" s="80"/>
+      <c r="GS23" s="80"/>
+      <c r="GT23" s="80"/>
+      <c r="GU23" s="80"/>
+      <c r="GV23" s="80"/>
+      <c r="GW23" s="80"/>
+      <c r="GX23" s="80"/>
+      <c r="GY23" s="80"/>
+      <c r="GZ23" s="80"/>
+      <c r="HA23" s="80"/>
+      <c r="HB23" s="80"/>
+      <c r="HC23" s="80"/>
+      <c r="HD23" s="80"/>
+      <c r="HE23" s="80"/>
+      <c r="HF23" s="80"/>
+      <c r="HG23" s="80"/>
+      <c r="HH23" s="80"/>
+      <c r="HI23" s="80"/>
+      <c r="HJ23" s="80"/>
+      <c r="HK23" s="80"/>
+      <c r="HL23" s="80"/>
+      <c r="HM23" s="80"/>
+      <c r="HN23" s="80"/>
+      <c r="HO23" s="80"/>
+      <c r="HP23" s="80"/>
+      <c r="HQ23" s="80"/>
+      <c r="HR23" s="80"/>
+      <c r="HS23" s="80"/>
+      <c r="HT23" s="80"/>
+      <c r="HU23" s="80"/>
+      <c r="HV23" s="80"/>
+      <c r="HW23" s="80"/>
+      <c r="HX23" s="80"/>
+      <c r="HY23" s="80"/>
+      <c r="HZ23" s="80"/>
+      <c r="IA23" s="80"/>
+      <c r="IB23" s="80"/>
+      <c r="IC23" s="80"/>
+      <c r="ID23" s="80"/>
+      <c r="IE23" s="80"/>
+      <c r="IF23" s="80"/>
+      <c r="IG23" s="80"/>
+      <c r="IH23" s="80"/>
+      <c r="II23" s="80"/>
+      <c r="IJ23" s="80"/>
+      <c r="IK23" s="80"/>
+      <c r="IL23" s="80"/>
+      <c r="IM23" s="80"/>
+      <c r="IN23" s="80"/>
+      <c r="IO23" s="80"/>
+      <c r="IP23" s="80"/>
+      <c r="IQ23" s="80"/>
+      <c r="IR23" s="80"/>
+      <c r="IS23" s="80"/>
+      <c r="IT23" s="80"/>
+      <c r="IU23" s="80"/>
+      <c r="IV23" s="80"/>
+    </row>
+    <row r="24" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29" t="s">
+      <c r="D24" s="37"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="32"/>
-    </row>
-    <row r="24" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
-        <v>85</v>
-      </c>
+      <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="34" t="s">
-        <v>86</v>
-      </c>
+      <c r="J24" s="31"/>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
@@ -4940,13 +5178,13 @@
     </row>
     <row r="25" spans="1:256" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>26</v>
@@ -4955,11 +5193,11 @@
       <c r="F25" s="29"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="I25" s="31"/>
       <c r="J25" s="34" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
@@ -4985,10 +5223,10 @@
         <v>55</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>26</v>
@@ -5027,10 +5265,10 @@
         <v>55</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>26</v>
@@ -5038,10 +5276,12 @@
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="H27" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="I27" s="31"/>
       <c r="J27" s="34" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
@@ -5067,10 +5307,10 @@
         <v>55</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>26</v>
@@ -5107,10 +5347,10 @@
         <v>55</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>26</v>
@@ -5147,10 +5387,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>26</v>
@@ -5187,10 +5427,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D31" s="37" t="s">
         <v>26</v>
@@ -5198,12 +5438,10 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="31" t="s">
-        <v>58</v>
-      </c>
+      <c r="H31" s="31"/>
       <c r="I31" s="31"/>
       <c r="J31" s="34" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
@@ -5229,10 +5467,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>26</v>
@@ -5240,10 +5478,12 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+      <c r="H32" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="I32" s="31"/>
       <c r="J32" s="34" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
@@ -5269,10 +5509,10 @@
         <v>55</v>
       </c>
       <c r="B33" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>26</v>
@@ -5309,10 +5549,10 @@
         <v>55</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>26</v>
@@ -5349,10 +5589,10 @@
         <v>55</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>26</v>
@@ -5389,10 +5629,10 @@
         <v>55</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>26</v>
@@ -5429,10 +5669,10 @@
         <v>55</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>26</v>
@@ -5469,10 +5709,10 @@
         <v>55</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>26</v>
@@ -5483,7 +5723,7 @@
       <c r="H38" s="31"/>
       <c r="I38" s="31"/>
       <c r="J38" s="34" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K38" s="31"/>
       <c r="L38" s="31"/>
@@ -5506,17 +5746,25 @@
     </row>
     <row r="39" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
+      <c r="B39" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="31"/>
       <c r="H39" s="31"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="J39" s="34" t="s">
+        <v>117</v>
+      </c>
       <c r="K39" s="31"/>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
@@ -5537,7 +5785,9 @@
       <c r="AB39" s="32"/>
     </row>
     <row r="40" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="40"/>
+      <c r="A40" s="33" t="s">
+        <v>28</v>
+      </c>
       <c r="B40" s="37"/>
       <c r="C40" s="36"/>
       <c r="D40" s="37"/>
@@ -5567,153 +5817,147 @@
       <c r="AB40" s="32"/>
     </row>
     <row r="41" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
-      <c r="X41" s="26"/>
-      <c r="Y41" s="26"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="26"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="31"/>
+      <c r="X41" s="31"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="31"/>
+      <c r="AA41" s="31"/>
+      <c r="AB41" s="32"/>
     </row>
     <row r="42" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+    </row>
+    <row r="43" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B43" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="43" t="s">
+      <c r="C43" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="42" t="s">
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="42" t="s">
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="44"/>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44"/>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44"/>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44"/>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44"/>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="45"/>
-    </row>
-    <row r="43" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="46" t="s">
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
+      <c r="AA43" s="44"/>
+      <c r="AB43" s="45"/>
+    </row>
+    <row r="44" spans="1:28" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B44" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C44" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="49"/>
-    </row>
-    <row r="44" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="45"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="49"/>
     </row>
     <row r="45" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>122</v>
-      </c>
+      <c r="A45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="51"/>
       <c r="D45" s="44"/>
-      <c r="E45" s="42"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="44"/>
       <c r="G45" s="44"/>
       <c r="H45" s="44"/>
@@ -5740,16 +5984,16 @@
     </row>
     <row r="46" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
-      <c r="C46" s="43" t="s">
-        <v>131</v>
+      <c r="C46" s="51" t="s">
+        <v>122</v>
       </c>
       <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
+      <c r="E46" s="42"/>
       <c r="F46" s="44"/>
       <c r="G46" s="44"/>
       <c r="H46" s="44"/>
@@ -5779,10 +6023,10 @@
         <v>23</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D47" s="44"/>
       <c r="E47" s="44"/>
@@ -5815,10 +6059,10 @@
         <v>23</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
@@ -5851,10 +6095,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D49" s="44"/>
       <c r="E49" s="44"/>
@@ -5887,10 +6131,10 @@
         <v>23</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="44"/>
       <c r="E50" s="44"/>
@@ -5920,10 +6164,14 @@
     </row>
     <row r="51" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="B51" s="44"/>
-      <c r="C51" s="51"/>
+      <c r="B51" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>130</v>
+      </c>
       <c r="D51" s="44"/>
       <c r="E51" s="44"/>
       <c r="F51" s="44"/>
@@ -5951,7 +6199,9 @@
       <c r="AB51" s="45"/>
     </row>
     <row r="52" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="50"/>
+      <c r="A52" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="B52" s="44"/>
       <c r="C52" s="51"/>
       <c r="D52" s="44"/>
@@ -5981,17 +6231,11 @@
       <c r="AB52" s="45"/>
     </row>
     <row r="53" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>82</v>
-      </c>
+      <c r="A53" s="50"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="44"/>
-      <c r="E53" s="42"/>
+      <c r="E53" s="44"/>
       <c r="F53" s="44"/>
       <c r="G53" s="44"/>
       <c r="H53" s="44"/>
@@ -6018,16 +6262,16 @@
     </row>
     <row r="54" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
-      <c r="C54" s="43" t="s">
-        <v>134</v>
+      <c r="C54" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
+      <c r="E54" s="42"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
@@ -6057,10 +6301,10 @@
         <v>23</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="D55" s="44"/>
       <c r="E55" s="44"/>
@@ -6093,10 +6337,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
@@ -6129,10 +6373,10 @@
         <v>23</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
@@ -6165,10 +6409,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
@@ -6201,10 +6445,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D59" s="44"/>
       <c r="E59" s="44"/>
@@ -6237,10 +6481,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D60" s="44"/>
       <c r="E60" s="44"/>
@@ -6273,10 +6517,10 @@
         <v>23</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D61" s="44"/>
       <c r="E61" s="44"/>
@@ -6309,10 +6553,10 @@
         <v>23</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D62" s="44"/>
       <c r="E62" s="44"/>
@@ -6345,10 +6589,10 @@
         <v>23</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D63" s="44"/>
       <c r="E63" s="44"/>
@@ -6381,10 +6625,10 @@
         <v>23</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D64" s="44"/>
       <c r="E64" s="44"/>
@@ -6417,10 +6661,10 @@
         <v>23</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D65" s="44"/>
       <c r="E65" s="44"/>
@@ -6453,10 +6697,10 @@
         <v>23</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D66" s="44"/>
       <c r="E66" s="44"/>
@@ -6489,10 +6733,10 @@
         <v>23</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="44"/>
       <c r="E67" s="44"/>
@@ -6525,10 +6769,10 @@
         <v>23</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="44"/>
       <c r="E68" s="44"/>
@@ -6558,10 +6802,14 @@
     </row>
     <row r="69" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="51"/>
+      <c r="B69" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>163</v>
+      </c>
       <c r="D69" s="44"/>
       <c r="E69" s="44"/>
       <c r="F69" s="44"/>
@@ -6589,7 +6837,9 @@
       <c r="AB69" s="45"/>
     </row>
     <row r="70" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="50"/>
+      <c r="A70" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="B70" s="44"/>
       <c r="C70" s="51"/>
       <c r="D70" s="44"/>
@@ -6618,133 +6868,133 @@
       <c r="AA70" s="44"/>
       <c r="AB70" s="45"/>
     </row>
-    <row r="71" spans="1:28" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="52" t="s">
+    <row r="71" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="50"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="45"/>
+    </row>
+    <row r="72" spans="1:28" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B72" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C72" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
-      <c r="V71" s="54"/>
-      <c r="W71" s="54"/>
-      <c r="X71" s="54"/>
-      <c r="Y71" s="54"/>
-      <c r="Z71" s="54"/>
-      <c r="AA71" s="54"/>
-      <c r="AB71" s="55"/>
-    </row>
-    <row r="72" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="41" t="s">
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="54"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="54"/>
+      <c r="AB72" s="55"/>
+    </row>
+    <row r="73" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="44"/>
-      <c r="X72" s="44"/>
-      <c r="Y72" s="44"/>
-      <c r="Z72" s="44"/>
-      <c r="AA72" s="44"/>
-      <c r="AB72" s="45"/>
-    </row>
-    <row r="73" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="56"/>
-      <c r="K73" s="56"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="56"/>
-      <c r="P73" s="56"/>
-      <c r="Q73" s="56"/>
-      <c r="R73" s="56"/>
-      <c r="S73" s="56"/>
-      <c r="T73" s="56"/>
-      <c r="U73" s="56"/>
-      <c r="V73" s="56"/>
-      <c r="W73" s="56"/>
-      <c r="X73" s="56"/>
-      <c r="Y73" s="56"/>
-      <c r="Z73" s="56"/>
-      <c r="AA73" s="56"/>
-      <c r="AB73" s="56"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="44"/>
+      <c r="AA73" s="44"/>
+      <c r="AB73" s="45"/>
     </row>
     <row r="74" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="58"/>
-      <c r="T74" s="58"/>
-      <c r="U74" s="58"/>
-      <c r="V74" s="58"/>
-      <c r="W74" s="58"/>
-      <c r="X74" s="58"/>
-      <c r="Y74" s="58"/>
-      <c r="Z74" s="58"/>
-      <c r="AA74" s="58"/>
-      <c r="AB74" s="58"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="56"/>
+      <c r="P74" s="56"/>
+      <c r="Q74" s="56"/>
+      <c r="R74" s="56"/>
+      <c r="S74" s="56"/>
+      <c r="T74" s="56"/>
+      <c r="U74" s="56"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="56"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="56"/>
+      <c r="Z74" s="56"/>
+      <c r="AA74" s="56"/>
+      <c r="AB74" s="56"/>
     </row>
     <row r="75" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="58"/>
@@ -35875,6 +36125,36 @@
       <c r="Z1045" s="58"/>
       <c r="AA1045" s="58"/>
       <c r="AB1045" s="58"/>
+    </row>
+    <row r="1046" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1046" s="58"/>
+      <c r="B1046" s="58"/>
+      <c r="C1046" s="59"/>
+      <c r="D1046" s="58"/>
+      <c r="E1046" s="58"/>
+      <c r="F1046" s="58"/>
+      <c r="G1046" s="58"/>
+      <c r="H1046" s="58"/>
+      <c r="I1046" s="58"/>
+      <c r="J1046" s="58"/>
+      <c r="K1046" s="58"/>
+      <c r="L1046" s="58"/>
+      <c r="M1046" s="58"/>
+      <c r="N1046" s="58"/>
+      <c r="O1046" s="58"/>
+      <c r="P1046" s="58"/>
+      <c r="Q1046" s="58"/>
+      <c r="R1046" s="58"/>
+      <c r="S1046" s="58"/>
+      <c r="T1046" s="58"/>
+      <c r="U1046" s="58"/>
+      <c r="V1046" s="58"/>
+      <c r="W1046" s="58"/>
+      <c r="X1046" s="58"/>
+      <c r="Y1046" s="58"/>
+      <c r="Z1046" s="58"/>
+      <c r="AA1046" s="58"/>
+      <c r="AB1046" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/forms/app/register.xlsx
+++ b/forms/app/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Work/dccms/daily-register/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1470B-9180-3A42-8B2C-A7991559C697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE828D73-1EC1-5C43-B2F4-ADC970AE7A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="186">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -597,6 +597,12 @@
   <si>
     <t>string</t>
   </si>
+  <si>
+    <t>n_x</t>
+  </si>
+  <si>
+    <t>Time of observation: ${datetime_of_observation}</t>
+  </si>
 </sst>
 </file>
 
@@ -926,7 +932,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1106,6 +1112,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2444,10 +2455,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV1046"/>
+  <dimension ref="A1:IV1047"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6019,17 +6030,17 @@
       <c r="AB46" s="45"/>
     </row>
     <row r="47" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>123</v>
+      <c r="B47" s="89" t="s">
+        <v>184</v>
       </c>
-      <c r="C47" s="43" t="s">
-        <v>131</v>
+      <c r="C47" s="90" t="s">
+        <v>185</v>
       </c>
       <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
+      <c r="E47" s="42"/>
       <c r="F47" s="44"/>
       <c r="G47" s="44"/>
       <c r="H47" s="44"/>
@@ -6059,10 +6070,10 @@
         <v>23</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D48" s="44"/>
       <c r="E48" s="44"/>
@@ -6095,10 +6106,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D49" s="44"/>
       <c r="E49" s="44"/>
@@ -6131,10 +6142,10 @@
         <v>23</v>
       </c>
       <c r="B50" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D50" s="44"/>
       <c r="E50" s="44"/>
@@ -6167,10 +6178,10 @@
         <v>23</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D51" s="44"/>
       <c r="E51" s="44"/>
@@ -6200,10 +6211,14 @@
     </row>
     <row r="52" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="51"/>
+      <c r="B52" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>130</v>
+      </c>
       <c r="D52" s="44"/>
       <c r="E52" s="44"/>
       <c r="F52" s="44"/>
@@ -6231,7 +6246,9 @@
       <c r="AB52" s="45"/>
     </row>
     <row r="53" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="50"/>
+      <c r="A53" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="B53" s="44"/>
       <c r="C53" s="51"/>
       <c r="D53" s="44"/>
@@ -6261,17 +6278,11 @@
       <c r="AB53" s="45"/>
     </row>
     <row r="54" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>82</v>
-      </c>
+      <c r="A54" s="50"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="44"/>
-      <c r="E54" s="42"/>
+      <c r="E54" s="44"/>
       <c r="F54" s="44"/>
       <c r="G54" s="44"/>
       <c r="H54" s="44"/>
@@ -6298,16 +6309,16 @@
     </row>
     <row r="55" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B55" s="42" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>134</v>
+      <c r="C55" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="D55" s="44"/>
-      <c r="E55" s="44"/>
+      <c r="E55" s="42"/>
       <c r="F55" s="44"/>
       <c r="G55" s="44"/>
       <c r="H55" s="44"/>
@@ -6337,10 +6348,10 @@
         <v>23</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="D56" s="44"/>
       <c r="E56" s="44"/>
@@ -6373,10 +6384,10 @@
         <v>23</v>
       </c>
       <c r="B57" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="44"/>
       <c r="E57" s="44"/>
@@ -6409,10 +6420,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="D58" s="44"/>
       <c r="E58" s="44"/>
@@ -6445,10 +6456,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D59" s="44"/>
       <c r="E59" s="44"/>
@@ -6481,10 +6492,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D60" s="44"/>
       <c r="E60" s="44"/>
@@ -6517,10 +6528,10 @@
         <v>23</v>
       </c>
       <c r="B61" s="42" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D61" s="44"/>
       <c r="E61" s="44"/>
@@ -6553,10 +6564,10 @@
         <v>23</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="D62" s="44"/>
       <c r="E62" s="44"/>
@@ -6589,10 +6600,10 @@
         <v>23</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D63" s="44"/>
       <c r="E63" s="44"/>
@@ -6625,10 +6636,10 @@
         <v>23</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D64" s="44"/>
       <c r="E64" s="44"/>
@@ -6661,10 +6672,10 @@
         <v>23</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="44"/>
       <c r="E65" s="44"/>
@@ -6697,10 +6708,10 @@
         <v>23</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D66" s="44"/>
       <c r="E66" s="44"/>
@@ -6733,10 +6744,10 @@
         <v>23</v>
       </c>
       <c r="B67" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D67" s="44"/>
       <c r="E67" s="44"/>
@@ -6769,10 +6780,10 @@
         <v>23</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="44"/>
       <c r="E68" s="44"/>
@@ -6805,10 +6816,10 @@
         <v>23</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="44"/>
       <c r="E69" s="44"/>
@@ -6838,10 +6849,14 @@
     </row>
     <row r="70" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="51"/>
+      <c r="B70" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>163</v>
+      </c>
       <c r="D70" s="44"/>
       <c r="E70" s="44"/>
       <c r="F70" s="44"/>
@@ -6869,7 +6884,9 @@
       <c r="AB70" s="45"/>
     </row>
     <row r="71" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50"/>
+      <c r="A71" s="41" t="s">
+        <v>28</v>
+      </c>
       <c r="B71" s="44"/>
       <c r="C71" s="51"/>
       <c r="D71" s="44"/>
@@ -6898,133 +6915,133 @@
       <c r="AA71" s="44"/>
       <c r="AB71" s="45"/>
     </row>
-    <row r="72" spans="1:28" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="52" t="s">
+    <row r="72" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="50"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+      <c r="Y72" s="44"/>
+      <c r="Z72" s="44"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="45"/>
+    </row>
+    <row r="73" spans="1:28" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B73" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C73" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="54"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
-      <c r="W72" s="54"/>
-      <c r="X72" s="54"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="54"/>
-      <c r="AA72" s="54"/>
-      <c r="AB72" s="55"/>
-    </row>
-    <row r="73" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="41" t="s">
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="X73" s="54"/>
+      <c r="Y73" s="54"/>
+      <c r="Z73" s="54"/>
+      <c r="AA73" s="54"/>
+      <c r="AB73" s="55"/>
+    </row>
+    <row r="74" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B73" s="44"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="44"/>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-      <c r="G73" s="44"/>
-      <c r="H73" s="44"/>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="44"/>
-      <c r="L73" s="44"/>
-      <c r="M73" s="44"/>
-      <c r="N73" s="44"/>
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
-      <c r="Q73" s="44"/>
-      <c r="R73" s="44"/>
-      <c r="S73" s="44"/>
-      <c r="T73" s="44"/>
-      <c r="U73" s="44"/>
-      <c r="V73" s="44"/>
-      <c r="W73" s="44"/>
-      <c r="X73" s="44"/>
-      <c r="Y73" s="44"/>
-      <c r="Z73" s="44"/>
-      <c r="AA73" s="44"/>
-      <c r="AB73" s="45"/>
-    </row>
-    <row r="74" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="56"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="56"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="56"/>
-      <c r="T74" s="56"/>
-      <c r="U74" s="56"/>
-      <c r="V74" s="56"/>
-      <c r="W74" s="56"/>
-      <c r="X74" s="56"/>
-      <c r="Y74" s="56"/>
-      <c r="Z74" s="56"/>
-      <c r="AA74" s="56"/>
-      <c r="AB74" s="56"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
+      <c r="X74" s="44"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="44"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="45"/>
     </row>
     <row r="75" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="58"/>
-      <c r="S75" s="58"/>
-      <c r="T75" s="58"/>
-      <c r="U75" s="58"/>
-      <c r="V75" s="58"/>
-      <c r="W75" s="58"/>
-      <c r="X75" s="58"/>
-      <c r="Y75" s="58"/>
-      <c r="Z75" s="58"/>
-      <c r="AA75" s="58"/>
-      <c r="AB75" s="58"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="56"/>
+      <c r="P75" s="56"/>
+      <c r="Q75" s="56"/>
+      <c r="R75" s="56"/>
+      <c r="S75" s="56"/>
+      <c r="T75" s="56"/>
+      <c r="U75" s="56"/>
+      <c r="V75" s="56"/>
+      <c r="W75" s="56"/>
+      <c r="X75" s="56"/>
+      <c r="Y75" s="56"/>
+      <c r="Z75" s="56"/>
+      <c r="AA75" s="56"/>
+      <c r="AB75" s="56"/>
     </row>
     <row r="76" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="58"/>
@@ -36155,6 +36172,36 @@
       <c r="Z1046" s="58"/>
       <c r="AA1046" s="58"/>
       <c r="AB1046" s="58"/>
+    </row>
+    <row r="1047" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1047" s="58"/>
+      <c r="B1047" s="58"/>
+      <c r="C1047" s="59"/>
+      <c r="D1047" s="58"/>
+      <c r="E1047" s="58"/>
+      <c r="F1047" s="58"/>
+      <c r="G1047" s="58"/>
+      <c r="H1047" s="58"/>
+      <c r="I1047" s="58"/>
+      <c r="J1047" s="58"/>
+      <c r="K1047" s="58"/>
+      <c r="L1047" s="58"/>
+      <c r="M1047" s="58"/>
+      <c r="N1047" s="58"/>
+      <c r="O1047" s="58"/>
+      <c r="P1047" s="58"/>
+      <c r="Q1047" s="58"/>
+      <c r="R1047" s="58"/>
+      <c r="S1047" s="58"/>
+      <c r="T1047" s="58"/>
+      <c r="U1047" s="58"/>
+      <c r="V1047" s="58"/>
+      <c r="W1047" s="58"/>
+      <c r="X1047" s="58"/>
+      <c r="Y1047" s="58"/>
+      <c r="Z1047" s="58"/>
+      <c r="AA1047" s="58"/>
+      <c r="AB1047" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/forms/app/register.xlsx
+++ b/forms/app/register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Work/dccms/daily-register/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9991FBE0-2BED-1546-9374-295FCF39B9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F0B50B-D4AC-3B47-A168-7D4E4AB6739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="226">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -62,6 +62,7 @@
         <sz val="12"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>survey</t>
     </r>
@@ -239,9 +240,6 @@
   </si>
   <si>
     <t>past_weather</t>
-  </si>
-  <si>
-    <t>select one weather_types</t>
   </si>
   <si>
     <t>Present weather</t>
@@ -714,6 +712,18 @@
   <si>
     <t>selected(${reporting_on}, 'earth_temperature_at_1_2')</t>
   </si>
+  <si>
+    <t>. &gt;= 1 and . &lt;= 99</t>
+  </si>
+  <si>
+    <t>. &gt;= 1 and . &lt;= 9</t>
+  </si>
+  <si>
+    <t>Present weather can only be between 1 and 99</t>
+  </si>
+  <si>
+    <t>Past weather can only be between 1 and 9</t>
+  </si>
 </sst>
 </file>
 
@@ -729,23 +739,27 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1088,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1303,10 +1317,6 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1315,10 +1325,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1329,6 +1338,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2519,11 +2532,11 @@
     </row>
     <row r="3" spans="1:5" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2668,8 +2681,8 @@
   </sheetPr>
   <dimension ref="A1:IV1043"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3009,13 +3022,13 @@
     </row>
     <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="65" t="s">
         <v>173</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>174</v>
       </c>
       <c r="D3" s="65"/>
       <c r="E3" s="66"/>
@@ -3025,7 +3038,7 @@
       <c r="I3" s="74"/>
       <c r="J3" s="67"/>
       <c r="K3" s="68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L3" s="68"/>
       <c r="M3" s="69"/>
@@ -4760,10 +4773,10 @@
         <v>21</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="100" t="s">
         <v>193</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>192</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -4833,13 +4846,13 @@
     </row>
     <row r="16" spans="1:256" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="C16" s="77" t="s">
         <v>171</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>172</v>
       </c>
       <c r="D16" s="78" t="s">
         <v>26</v>
@@ -4870,21 +4883,21 @@
       <c r="AB16" s="38"/>
     </row>
     <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="101" t="s">
-        <v>198</v>
+      <c r="A17" s="99" t="s">
+        <v>197</v>
       </c>
       <c r="B17" s="96" t="s">
+        <v>194</v>
+      </c>
+      <c r="C17" s="98" t="s">
         <v>195</v>
-      </c>
-      <c r="C17" s="100" t="s">
-        <v>196</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -4925,7 +4938,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="31"/>
@@ -4934,7 +4947,7 @@
       </c>
       <c r="I18" s="87"/>
       <c r="J18" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
@@ -4969,7 +4982,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
@@ -5003,13 +5016,13 @@
         <v>62</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
@@ -5018,7 +5031,7 @@
       </c>
       <c r="I20" s="89"/>
       <c r="J20" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
@@ -5040,25 +5053,29 @@
       <c r="AB20" s="32"/>
     </row>
     <row r="21" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28" t="s">
-        <v>65</v>
+      <c r="A21" s="99" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="87"/>
+      <c r="H21" s="82" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>224</v>
+      </c>
       <c r="J21" s="31"/>
       <c r="K21" s="31"/>
       <c r="L21" s="29"/>
@@ -5080,25 +5097,29 @@
       <c r="AB21" s="32"/>
     </row>
     <row r="22" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="101" t="s">
+      <c r="A22" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="99" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="87"/>
+      <c r="H22" s="82" t="s">
+        <v>223</v>
+      </c>
+      <c r="I22" s="90" t="s">
+        <v>225</v>
+      </c>
       <c r="J22" s="31"/>
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
@@ -5124,25 +5145,25 @@
         <v>29</v>
       </c>
       <c r="B23" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>80</v>
       </c>
       <c r="D23" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I23" s="87"/>
       <c r="J23" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
@@ -5168,16 +5189,16 @@
         <v>55</v>
       </c>
       <c r="B24" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>86</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>87</v>
       </c>
       <c r="D24" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="31"/>
@@ -5186,7 +5207,7 @@
       </c>
       <c r="I24" s="87"/>
       <c r="J24" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
@@ -5212,27 +5233,27 @@
         <v>55</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D25" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="31"/>
       <c r="H25" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="I25" s="90" t="s">
-        <v>180</v>
-      </c>
       <c r="J25" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
@@ -5258,27 +5279,27 @@
         <v>55</v>
       </c>
       <c r="B26" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="35" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>91</v>
       </c>
       <c r="D26" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F26" s="29"/>
       <c r="G26" s="31"/>
       <c r="H26" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I26" s="90" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J26" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
@@ -5304,27 +5325,27 @@
         <v>55</v>
       </c>
       <c r="B27" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>93</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>94</v>
       </c>
       <c r="D27" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="31"/>
       <c r="H27" s="82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27" s="90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J27" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
@@ -5350,27 +5371,27 @@
         <v>55</v>
       </c>
       <c r="B28" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>96</v>
       </c>
       <c r="D28" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" s="29"/>
       <c r="G28" s="31"/>
       <c r="H28" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I28" s="90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J28" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
@@ -5396,27 +5417,27 @@
         <v>55</v>
       </c>
       <c r="B29" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>97</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>98</v>
       </c>
       <c r="D29" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F29" s="29"/>
       <c r="G29" s="31"/>
       <c r="H29" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="90" t="s">
-        <v>191</v>
-      </c>
       <c r="J29" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
@@ -5442,16 +5463,16 @@
         <v>55</v>
       </c>
       <c r="B30" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>99</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>100</v>
       </c>
       <c r="D30" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" s="29"/>
       <c r="G30" s="31"/>
@@ -5460,7 +5481,7 @@
       </c>
       <c r="I30" s="87"/>
       <c r="J30" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
@@ -5483,19 +5504,19 @@
     </row>
     <row r="31" spans="1:28" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="C31" s="77" t="s">
         <v>182</v>
-      </c>
-      <c r="C31" s="77" t="s">
-        <v>183</v>
       </c>
       <c r="D31" s="95" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="31"/>
@@ -5526,27 +5547,27 @@
         <v>55</v>
       </c>
       <c r="B32" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>102</v>
       </c>
       <c r="D32" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F32" s="29"/>
       <c r="G32" s="31"/>
       <c r="H32" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I32" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
@@ -5572,27 +5593,27 @@
         <v>55</v>
       </c>
       <c r="B33" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>103</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>104</v>
       </c>
       <c r="D33" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F33" s="29"/>
       <c r="G33" s="31"/>
       <c r="H33" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I33" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J33" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
@@ -5618,27 +5639,27 @@
         <v>55</v>
       </c>
       <c r="B34" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="35" t="s">
         <v>105</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>106</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F34" s="29"/>
       <c r="G34" s="31"/>
       <c r="H34" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I34" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J34" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
@@ -5664,27 +5685,27 @@
         <v>55</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F35" s="29"/>
       <c r="G35" s="31"/>
       <c r="H35" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I35" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
@@ -5710,27 +5731,27 @@
         <v>55</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="31"/>
       <c r="H36" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I36" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
@@ -5756,27 +5777,27 @@
         <v>55</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F37" s="29"/>
       <c r="G37" s="31"/>
       <c r="H37" s="82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I37" s="97" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
@@ -5802,23 +5823,23 @@
         <v>55</v>
       </c>
       <c r="B38" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>110</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>111</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="31"/>
       <c r="H38" s="31"/>
       <c r="I38" s="87"/>
       <c r="J38" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K38" s="31"/>
       <c r="L38" s="31"/>
@@ -6042,10 +6063,10 @@
         <v>21</v>
       </c>
       <c r="B45" s="80" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="43"/>
       <c r="E45" s="41"/>
@@ -6078,10 +6099,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="81" t="s">
         <v>177</v>
-      </c>
-      <c r="C46" s="81" t="s">
-        <v>178</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="41"/>
@@ -6114,14 +6135,14 @@
         <v>23</v>
       </c>
       <c r="B47" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="82" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F47" s="43"/>
       <c r="G47" s="43"/>
@@ -6152,14 +6173,14 @@
         <v>23</v>
       </c>
       <c r="B48" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>118</v>
       </c>
       <c r="D48" s="43"/>
       <c r="E48" s="82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="43"/>
       <c r="G48" s="43"/>
@@ -6190,14 +6211,14 @@
         <v>23</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
@@ -6228,14 +6249,14 @@
         <v>23</v>
       </c>
       <c r="B50" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="42" t="s">
         <v>120</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>121</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F50" s="43"/>
       <c r="G50" s="43"/>
@@ -6266,14 +6287,14 @@
         <v>23</v>
       </c>
       <c r="B51" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="C51" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="D51" s="43"/>
       <c r="E51" s="82" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
@@ -6304,14 +6325,14 @@
         <v>23</v>
       </c>
       <c r="B52" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>127</v>
       </c>
       <c r="D52" s="43"/>
       <c r="E52" s="82" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
@@ -6342,14 +6363,14 @@
         <v>23</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="82" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
@@ -6380,14 +6401,14 @@
         <v>23</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="43"/>
       <c r="E54" s="82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F54" s="43"/>
       <c r="G54" s="43"/>
@@ -6418,14 +6439,14 @@
         <v>23</v>
       </c>
       <c r="B55" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="42" t="s">
         <v>130</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>131</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
@@ -6456,14 +6477,14 @@
         <v>23</v>
       </c>
       <c r="B56" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="42" t="s">
         <v>132</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>133</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F56" s="43"/>
       <c r="G56" s="43"/>
@@ -6494,14 +6515,14 @@
         <v>23</v>
       </c>
       <c r="B57" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="42" t="s">
         <v>134</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>135</v>
       </c>
       <c r="D57" s="43"/>
       <c r="E57" s="82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F57" s="43"/>
       <c r="G57" s="43"/>
@@ -6532,14 +6553,14 @@
         <v>23</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D58" s="43"/>
       <c r="E58" s="82" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F58" s="43"/>
       <c r="G58" s="43"/>
@@ -6570,14 +6591,14 @@
         <v>23</v>
       </c>
       <c r="B59" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59" s="42" t="s">
         <v>137</v>
-      </c>
-      <c r="C59" s="42" t="s">
-        <v>138</v>
       </c>
       <c r="D59" s="43"/>
       <c r="E59" s="82" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F59" s="43"/>
       <c r="G59" s="43"/>
@@ -6608,14 +6629,14 @@
         <v>23</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D60" s="43"/>
       <c r="E60" s="82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F60" s="43"/>
       <c r="G60" s="43"/>
@@ -6646,14 +6667,14 @@
         <v>23</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="43"/>
       <c r="E61" s="82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F61" s="43"/>
       <c r="G61" s="43"/>
@@ -6684,14 +6705,14 @@
         <v>23</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="82" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F62" s="43"/>
       <c r="G62" s="43"/>
@@ -6722,14 +6743,14 @@
         <v>23</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="82" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F63" s="43"/>
       <c r="G63" s="43"/>
@@ -6760,14 +6781,14 @@
         <v>23</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F64" s="43"/>
       <c r="G64" s="43"/>
@@ -6798,14 +6819,14 @@
         <v>23</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="82" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F65" s="43"/>
       <c r="G65" s="43"/>
@@ -6836,14 +6857,14 @@
         <v>23</v>
       </c>
       <c r="B66" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="42" t="s">
         <v>155</v>
-      </c>
-      <c r="C66" s="42" t="s">
-        <v>156</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="82" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F66" s="43"/>
       <c r="G66" s="43"/>
@@ -6936,10 +6957,10 @@
         <v>23</v>
       </c>
       <c r="B69" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D69" s="53"/>
       <c r="E69" s="53"/>
@@ -36257,10 +36278,10 @@
         <v>59</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>157</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>158</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="57"/>
@@ -36291,10 +36312,10 @@
         <v>59</v>
       </c>
       <c r="B3" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="57" t="s">
         <v>159</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>160</v>
       </c>
       <c r="D3" s="57"/>
       <c r="E3" s="57"/>
@@ -36325,10 +36346,10 @@
         <v>59</v>
       </c>
       <c r="B4" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>162</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -36359,10 +36380,10 @@
         <v>59</v>
       </c>
       <c r="B5" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>163</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>164</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
@@ -36393,10 +36414,10 @@
         <v>59</v>
       </c>
       <c r="B6" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>165</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>166</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -36452,13 +36473,13 @@
     </row>
     <row r="8" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="C8" s="61" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>70</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -36486,13 +36507,13 @@
     </row>
     <row r="9" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>72</v>
       </c>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
@@ -36520,13 +36541,13 @@
     </row>
     <row r="10" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="61" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>74</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -36554,13 +36575,13 @@
     </row>
     <row r="11" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>75</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>76</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
@@ -36587,746 +36608,746 @@
       <c r="Z11" s="57"/>
     </row>
     <row r="12" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="102" t="s">
+      <c r="A12" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
+      <c r="V12" s="101"/>
+      <c r="W12" s="101"/>
+      <c r="X12" s="101"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+    </row>
+    <row r="13" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="103"/>
+      <c r="R13" s="103"/>
+      <c r="S13" s="103"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="103"/>
+      <c r="V13" s="103"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="103"/>
+      <c r="Y13" s="103"/>
+      <c r="Z13" s="103"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="104"/>
+      <c r="W14" s="104"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="104"/>
+      <c r="W15" s="104"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="105" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="104"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="104"/>
+      <c r="W16" s="104"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="104"/>
+      <c r="W17" s="104"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
-      <c r="S12" s="103"/>
-      <c r="T12" s="103"/>
-      <c r="U12" s="103"/>
-      <c r="V12" s="103"/>
-      <c r="W12" s="103"/>
-      <c r="X12" s="103"/>
-      <c r="Y12" s="103"/>
-      <c r="Z12" s="103"/>
-    </row>
-    <row r="13" spans="1:26" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="104"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="105"/>
-      <c r="Q13" s="105"/>
-      <c r="R13" s="105"/>
-      <c r="S13" s="105"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="105"/>
-      <c r="V13" s="105"/>
-      <c r="W13" s="105"/>
-      <c r="X13" s="105"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="107"/>
-      <c r="W14" s="107"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="108" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="107"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="107"/>
-      <c r="R15" s="107"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="107"/>
-      <c r="W15" s="107"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="108" t="s">
+      <c r="C19" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="104"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="104"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="104"/>
+      <c r="V19" s="104"/>
+      <c r="W19" s="104"/>
+      <c r="X19" s="104"/>
+      <c r="Y19" s="104"/>
+      <c r="Z19" s="104"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="107"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="107"/>
-      <c r="W16" s="107"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B17" s="112" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="107"/>
-      <c r="W17" s="107"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="112" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="113" t="s">
+      <c r="C20" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="107"/>
-      <c r="K20" s="107"/>
-      <c r="L20" s="107"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="107"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="107"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="107"/>
-      <c r="U20" s="107"/>
-      <c r="V20" s="107"/>
-      <c r="W20" s="107"/>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="107"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="104"/>
+      <c r="X20" s="104"/>
+      <c r="Y20" s="104"/>
+      <c r="Z20" s="104"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="111" t="s">
+      <c r="A21" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="S21" s="104"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="104"/>
+      <c r="V21" s="104"/>
+      <c r="W21" s="104"/>
+      <c r="X21" s="104"/>
+      <c r="Y21" s="104"/>
+      <c r="Z21" s="104"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="C21" s="108" t="s">
-        <v>192</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="107"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B22" s="113" t="s">
+      <c r="C22" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="108" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="107"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="104"/>
+      <c r="W22" s="104"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="111" t="s">
+      <c r="A23" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="104"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="104"/>
+      <c r="W23" s="104"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="104"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
-      <c r="Z23" s="107"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B24" s="113" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="104"/>
+      <c r="Y24" s="104"/>
+      <c r="Z24" s="104"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="107"/>
-      <c r="Q24" s="107"/>
-      <c r="R24" s="107"/>
-      <c r="S24" s="107"/>
-      <c r="T24" s="107"/>
-      <c r="U24" s="107"/>
-      <c r="V24" s="107"/>
-      <c r="W24" s="107"/>
-      <c r="X24" s="107"/>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="107"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="107"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="107"/>
-      <c r="W25" s="107"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="104"/>
+      <c r="X25" s="104"/>
+      <c r="Y25" s="104"/>
+      <c r="Z25" s="104"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B26" s="111" t="s">
+      <c r="A26" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="108" t="s">
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27" s="111" t="s">
+      <c r="C27" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="104"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="107"/>
-      <c r="Q27" s="107"/>
-      <c r="R27" s="107"/>
-      <c r="S27" s="107"/>
-      <c r="T27" s="107"/>
-      <c r="U27" s="107"/>
-      <c r="V27" s="107"/>
-      <c r="W27" s="107"/>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="107"/>
-      <c r="Z27" s="107"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="111" t="s">
+      <c r="C28" s="105" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="108" t="s">
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="104"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="108" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="107"/>
-      <c r="Q28" s="107"/>
-      <c r="R28" s="107"/>
-      <c r="S28" s="107"/>
-      <c r="T28" s="107"/>
-      <c r="U28" s="107"/>
-      <c r="V28" s="107"/>
-      <c r="W28" s="107"/>
-      <c r="X28" s="107"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="107"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="111" t="s">
+      <c r="C29" s="111" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="104"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="104"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="104"/>
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="107"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="109" t="s">
-        <v>197</v>
-      </c>
-      <c r="B30" s="111" t="s">
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="107"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="115" t="s">
+      <c r="C31" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="110"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="110"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="110"/>
-      <c r="Q30" s="110"/>
-      <c r="R30" s="110"/>
-      <c r="S30" s="110"/>
-      <c r="T30" s="110"/>
-      <c r="U30" s="110"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="110"/>
-      <c r="X30" s="110"/>
-      <c r="Y30" s="110"/>
-      <c r="Z30" s="110"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="111" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="108" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C32" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="107"/>
-      <c r="P31" s="107"/>
-      <c r="Q31" s="107"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="107"/>
-      <c r="T31" s="107"/>
-      <c r="U31" s="107"/>
-      <c r="V31" s="107"/>
-      <c r="W31" s="107"/>
-      <c r="X31" s="107"/>
-      <c r="Y31" s="107"/>
-      <c r="Z31" s="107"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B32" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="115" t="s">
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="107"/>
-      <c r="P32" s="107"/>
-      <c r="Q32" s="107"/>
-      <c r="R32" s="107"/>
-      <c r="S32" s="107"/>
-      <c r="T32" s="107"/>
-      <c r="U32" s="107"/>
-      <c r="V32" s="107"/>
-      <c r="W32" s="107"/>
-      <c r="X32" s="107"/>
-      <c r="Y32" s="107"/>
-      <c r="Z32" s="107"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="106" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="111" t="s">
+      <c r="C33" s="105" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="108" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="107"/>
-      <c r="P33" s="107"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="107"/>
-      <c r="W33" s="107"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
+      <c r="O33" s="104"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/forms/app/register.xlsx
+++ b/forms/app/register.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/Work/dccms/daily-register/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A7199-4B3B-6347-B567-470144FABE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F64F86-5345-3D46-B164-9DC5196DFBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="17920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
@@ -1375,10 +1375,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1388,6 +1384,10 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2578,11 +2578,11 @@
     </row>
     <row r="3" spans="1:5" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2727,8 +2727,8 @@
   </sheetPr>
   <dimension ref="A1:IW1056"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2756,7 +2756,7 @@
       <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="112" t="s">
         <v>211</v>
       </c>
       <c r="E1" s="19" t="s">
@@ -5086,7 +5086,7 @@
       <c r="C20" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="116"/>
+      <c r="D20" s="114"/>
       <c r="E20" s="95"/>
       <c r="F20" s="82"/>
       <c r="G20" s="29"/>
@@ -5287,7 +5287,7 @@
       <c r="C25" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="116"/>
+      <c r="D25" s="114"/>
       <c r="E25" s="95"/>
       <c r="F25" s="82"/>
       <c r="G25" s="29"/>
@@ -5488,7 +5488,7 @@
       <c r="C30" s="97" t="s">
         <v>224</v>
       </c>
-      <c r="D30" s="116"/>
+      <c r="D30" s="114"/>
       <c r="E30" s="95"/>
       <c r="F30" s="82"/>
       <c r="G30" s="29"/>
@@ -7687,7 +7687,7 @@
       <c r="A85" s="57"/>
       <c r="B85" s="57"/>
       <c r="C85" s="58"/>
-      <c r="D85" s="115"/>
+      <c r="D85" s="113"/>
       <c r="E85" s="57"/>
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
@@ -7718,7 +7718,7 @@
       <c r="A86" s="57"/>
       <c r="B86" s="57"/>
       <c r="C86" s="58"/>
-      <c r="D86" s="115"/>
+      <c r="D86" s="113"/>
       <c r="E86" s="57"/>
       <c r="F86" s="57"/>
       <c r="G86" s="57"/>
@@ -7749,7 +7749,7 @@
       <c r="A87" s="57"/>
       <c r="B87" s="57"/>
       <c r="C87" s="58"/>
-      <c r="D87" s="115"/>
+      <c r="D87" s="113"/>
       <c r="E87" s="57"/>
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
@@ -7780,7 +7780,7 @@
       <c r="A88" s="57"/>
       <c r="B88" s="57"/>
       <c r="C88" s="58"/>
-      <c r="D88" s="115"/>
+      <c r="D88" s="113"/>
       <c r="E88" s="57"/>
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
@@ -7811,7 +7811,7 @@
       <c r="A89" s="57"/>
       <c r="B89" s="57"/>
       <c r="C89" s="58"/>
-      <c r="D89" s="115"/>
+      <c r="D89" s="113"/>
       <c r="E89" s="57"/>
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
@@ -7842,7 +7842,7 @@
       <c r="A90" s="57"/>
       <c r="B90" s="57"/>
       <c r="C90" s="58"/>
-      <c r="D90" s="115"/>
+      <c r="D90" s="113"/>
       <c r="E90" s="57"/>
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
@@ -7873,7 +7873,7 @@
       <c r="A91" s="57"/>
       <c r="B91" s="57"/>
       <c r="C91" s="58"/>
-      <c r="D91" s="115"/>
+      <c r="D91" s="113"/>
       <c r="E91" s="57"/>
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
@@ -7904,7 +7904,7 @@
       <c r="A92" s="57"/>
       <c r="B92" s="57"/>
       <c r="C92" s="58"/>
-      <c r="D92" s="115"/>
+      <c r="D92" s="113"/>
       <c r="E92" s="57"/>
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
@@ -7935,7 +7935,7 @@
       <c r="A93" s="57"/>
       <c r="B93" s="57"/>
       <c r="C93" s="58"/>
-      <c r="D93" s="115"/>
+      <c r="D93" s="113"/>
       <c r="E93" s="57"/>
       <c r="F93" s="57"/>
       <c r="G93" s="57"/>
@@ -7966,7 +7966,7 @@
       <c r="A94" s="57"/>
       <c r="B94" s="57"/>
       <c r="C94" s="58"/>
-      <c r="D94" s="115"/>
+      <c r="D94" s="113"/>
       <c r="E94" s="57"/>
       <c r="F94" s="57"/>
       <c r="G94" s="57"/>
@@ -7997,7 +7997,7 @@
       <c r="A95" s="57"/>
       <c r="B95" s="57"/>
       <c r="C95" s="58"/>
-      <c r="D95" s="115"/>
+      <c r="D95" s="113"/>
       <c r="E95" s="57"/>
       <c r="F95" s="57"/>
       <c r="G95" s="57"/>
@@ -8028,7 +8028,7 @@
       <c r="A96" s="57"/>
       <c r="B96" s="57"/>
       <c r="C96" s="58"/>
-      <c r="D96" s="115"/>
+      <c r="D96" s="113"/>
       <c r="E96" s="57"/>
       <c r="F96" s="57"/>
       <c r="G96" s="57"/>
@@ -8059,7 +8059,7 @@
       <c r="A97" s="57"/>
       <c r="B97" s="57"/>
       <c r="C97" s="58"/>
-      <c r="D97" s="115"/>
+      <c r="D97" s="113"/>
       <c r="E97" s="57"/>
       <c r="F97" s="57"/>
       <c r="G97" s="57"/>
@@ -8090,7 +8090,7 @@
       <c r="A98" s="57"/>
       <c r="B98" s="57"/>
       <c r="C98" s="58"/>
-      <c r="D98" s="115"/>
+      <c r="D98" s="113"/>
       <c r="E98" s="57"/>
       <c r="F98" s="57"/>
       <c r="G98" s="57"/>
@@ -8121,7 +8121,7 @@
       <c r="A99" s="57"/>
       <c r="B99" s="57"/>
       <c r="C99" s="58"/>
-      <c r="D99" s="115"/>
+      <c r="D99" s="113"/>
       <c r="E99" s="57"/>
       <c r="F99" s="57"/>
       <c r="G99" s="57"/>
@@ -8152,7 +8152,7 @@
       <c r="A100" s="57"/>
       <c r="B100" s="57"/>
       <c r="C100" s="58"/>
-      <c r="D100" s="115"/>
+      <c r="D100" s="113"/>
       <c r="E100" s="57"/>
       <c r="F100" s="57"/>
       <c r="G100" s="57"/>
@@ -8183,7 +8183,7 @@
       <c r="A101" s="57"/>
       <c r="B101" s="57"/>
       <c r="C101" s="58"/>
-      <c r="D101" s="115"/>
+      <c r="D101" s="113"/>
       <c r="E101" s="57"/>
       <c r="F101" s="57"/>
       <c r="G101" s="57"/>
@@ -8214,7 +8214,7 @@
       <c r="A102" s="57"/>
       <c r="B102" s="57"/>
       <c r="C102" s="58"/>
-      <c r="D102" s="115"/>
+      <c r="D102" s="113"/>
       <c r="E102" s="57"/>
       <c r="F102" s="57"/>
       <c r="G102" s="57"/>
@@ -8245,7 +8245,7 @@
       <c r="A103" s="57"/>
       <c r="B103" s="57"/>
       <c r="C103" s="58"/>
-      <c r="D103" s="115"/>
+      <c r="D103" s="113"/>
       <c r="E103" s="57"/>
       <c r="F103" s="57"/>
       <c r="G103" s="57"/>
@@ -8276,7 +8276,7 @@
       <c r="A104" s="57"/>
       <c r="B104" s="57"/>
       <c r="C104" s="58"/>
-      <c r="D104" s="115"/>
+      <c r="D104" s="113"/>
       <c r="E104" s="57"/>
       <c r="F104" s="57"/>
       <c r="G104" s="57"/>
@@ -8307,7 +8307,7 @@
       <c r="A105" s="57"/>
       <c r="B105" s="57"/>
       <c r="C105" s="58"/>
-      <c r="D105" s="115"/>
+      <c r="D105" s="113"/>
       <c r="E105" s="57"/>
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
@@ -8338,7 +8338,7 @@
       <c r="A106" s="57"/>
       <c r="B106" s="57"/>
       <c r="C106" s="58"/>
-      <c r="D106" s="115"/>
+      <c r="D106" s="113"/>
       <c r="E106" s="57"/>
       <c r="F106" s="57"/>
       <c r="G106" s="57"/>
@@ -8369,7 +8369,7 @@
       <c r="A107" s="57"/>
       <c r="B107" s="57"/>
       <c r="C107" s="58"/>
-      <c r="D107" s="115"/>
+      <c r="D107" s="113"/>
       <c r="E107" s="57"/>
       <c r="F107" s="57"/>
       <c r="G107" s="57"/>
@@ -8400,7 +8400,7 @@
       <c r="A108" s="57"/>
       <c r="B108" s="57"/>
       <c r="C108" s="58"/>
-      <c r="D108" s="115"/>
+      <c r="D108" s="113"/>
       <c r="E108" s="57"/>
       <c r="F108" s="57"/>
       <c r="G108" s="57"/>
@@ -8431,7 +8431,7 @@
       <c r="A109" s="57"/>
       <c r="B109" s="57"/>
       <c r="C109" s="58"/>
-      <c r="D109" s="115"/>
+      <c r="D109" s="113"/>
       <c r="E109" s="57"/>
       <c r="F109" s="57"/>
       <c r="G109" s="57"/>
@@ -8462,7 +8462,7 @@
       <c r="A110" s="57"/>
       <c r="B110" s="57"/>
       <c r="C110" s="58"/>
-      <c r="D110" s="115"/>
+      <c r="D110" s="113"/>
       <c r="E110" s="57"/>
       <c r="F110" s="57"/>
       <c r="G110" s="57"/>
@@ -8493,7 +8493,7 @@
       <c r="A111" s="57"/>
       <c r="B111" s="57"/>
       <c r="C111" s="58"/>
-      <c r="D111" s="115"/>
+      <c r="D111" s="113"/>
       <c r="E111" s="57"/>
       <c r="F111" s="57"/>
       <c r="G111" s="57"/>
@@ -8524,7 +8524,7 @@
       <c r="A112" s="57"/>
       <c r="B112" s="57"/>
       <c r="C112" s="58"/>
-      <c r="D112" s="115"/>
+      <c r="D112" s="113"/>
       <c r="E112" s="57"/>
       <c r="F112" s="57"/>
       <c r="G112" s="57"/>
@@ -8555,7 +8555,7 @@
       <c r="A113" s="57"/>
       <c r="B113" s="57"/>
       <c r="C113" s="58"/>
-      <c r="D113" s="115"/>
+      <c r="D113" s="113"/>
       <c r="E113" s="57"/>
       <c r="F113" s="57"/>
       <c r="G113" s="57"/>
@@ -8586,7 +8586,7 @@
       <c r="A114" s="57"/>
       <c r="B114" s="57"/>
       <c r="C114" s="58"/>
-      <c r="D114" s="115"/>
+      <c r="D114" s="113"/>
       <c r="E114" s="57"/>
       <c r="F114" s="57"/>
       <c r="G114" s="57"/>
@@ -8617,7 +8617,7 @@
       <c r="A115" s="57"/>
       <c r="B115" s="57"/>
       <c r="C115" s="58"/>
-      <c r="D115" s="115"/>
+      <c r="D115" s="113"/>
       <c r="E115" s="57"/>
       <c r="F115" s="57"/>
       <c r="G115" s="57"/>
@@ -8648,7 +8648,7 @@
       <c r="A116" s="57"/>
       <c r="B116" s="57"/>
       <c r="C116" s="58"/>
-      <c r="D116" s="115"/>
+      <c r="D116" s="113"/>
       <c r="E116" s="57"/>
       <c r="F116" s="57"/>
       <c r="G116" s="57"/>
@@ -8679,7 +8679,7 @@
       <c r="A117" s="57"/>
       <c r="B117" s="57"/>
       <c r="C117" s="58"/>
-      <c r="D117" s="115"/>
+      <c r="D117" s="113"/>
       <c r="E117" s="57"/>
       <c r="F117" s="57"/>
       <c r="G117" s="57"/>
@@ -8710,7 +8710,7 @@
       <c r="A118" s="57"/>
       <c r="B118" s="57"/>
       <c r="C118" s="58"/>
-      <c r="D118" s="115"/>
+      <c r="D118" s="113"/>
       <c r="E118" s="57"/>
       <c r="F118" s="57"/>
       <c r="G118" s="57"/>
@@ -8741,7 +8741,7 @@
       <c r="A119" s="57"/>
       <c r="B119" s="57"/>
       <c r="C119" s="58"/>
-      <c r="D119" s="115"/>
+      <c r="D119" s="113"/>
       <c r="E119" s="57"/>
       <c r="F119" s="57"/>
       <c r="G119" s="57"/>
@@ -8772,7 +8772,7 @@
       <c r="A120" s="57"/>
       <c r="B120" s="57"/>
       <c r="C120" s="58"/>
-      <c r="D120" s="115"/>
+      <c r="D120" s="113"/>
       <c r="E120" s="57"/>
       <c r="F120" s="57"/>
       <c r="G120" s="57"/>
@@ -8803,7 +8803,7 @@
       <c r="A121" s="57"/>
       <c r="B121" s="57"/>
       <c r="C121" s="58"/>
-      <c r="D121" s="115"/>
+      <c r="D121" s="113"/>
       <c r="E121" s="57"/>
       <c r="F121" s="57"/>
       <c r="G121" s="57"/>
@@ -8834,7 +8834,7 @@
       <c r="A122" s="57"/>
       <c r="B122" s="57"/>
       <c r="C122" s="58"/>
-      <c r="D122" s="115"/>
+      <c r="D122" s="113"/>
       <c r="E122" s="57"/>
       <c r="F122" s="57"/>
       <c r="G122" s="57"/>
@@ -8865,7 +8865,7 @@
       <c r="A123" s="57"/>
       <c r="B123" s="57"/>
       <c r="C123" s="58"/>
-      <c r="D123" s="115"/>
+      <c r="D123" s="113"/>
       <c r="E123" s="57"/>
       <c r="F123" s="57"/>
       <c r="G123" s="57"/>
@@ -8896,7 +8896,7 @@
       <c r="A124" s="57"/>
       <c r="B124" s="57"/>
       <c r="C124" s="58"/>
-      <c r="D124" s="115"/>
+      <c r="D124" s="113"/>
       <c r="E124" s="57"/>
       <c r="F124" s="57"/>
       <c r="G124" s="57"/>
@@ -8927,7 +8927,7 @@
       <c r="A125" s="57"/>
       <c r="B125" s="57"/>
       <c r="C125" s="58"/>
-      <c r="D125" s="115"/>
+      <c r="D125" s="113"/>
       <c r="E125" s="57"/>
       <c r="F125" s="57"/>
       <c r="G125" s="57"/>
@@ -8958,7 +8958,7 @@
       <c r="A126" s="57"/>
       <c r="B126" s="57"/>
       <c r="C126" s="58"/>
-      <c r="D126" s="115"/>
+      <c r="D126" s="113"/>
       <c r="E126" s="57"/>
       <c r="F126" s="57"/>
       <c r="G126" s="57"/>
@@ -8989,7 +8989,7 @@
       <c r="A127" s="57"/>
       <c r="B127" s="57"/>
       <c r="C127" s="58"/>
-      <c r="D127" s="115"/>
+      <c r="D127" s="113"/>
       <c r="E127" s="57"/>
       <c r="F127" s="57"/>
       <c r="G127" s="57"/>
@@ -9020,7 +9020,7 @@
       <c r="A128" s="57"/>
       <c r="B128" s="57"/>
       <c r="C128" s="58"/>
-      <c r="D128" s="115"/>
+      <c r="D128" s="113"/>
       <c r="E128" s="57"/>
       <c r="F128" s="57"/>
       <c r="G128" s="57"/>
@@ -9051,7 +9051,7 @@
       <c r="A129" s="57"/>
       <c r="B129" s="57"/>
       <c r="C129" s="58"/>
-      <c r="D129" s="115"/>
+      <c r="D129" s="113"/>
       <c r="E129" s="57"/>
       <c r="F129" s="57"/>
       <c r="G129" s="57"/>
@@ -9082,7 +9082,7 @@
       <c r="A130" s="57"/>
       <c r="B130" s="57"/>
       <c r="C130" s="58"/>
-      <c r="D130" s="115"/>
+      <c r="D130" s="113"/>
       <c r="E130" s="57"/>
       <c r="F130" s="57"/>
       <c r="G130" s="57"/>
@@ -9113,7 +9113,7 @@
       <c r="A131" s="57"/>
       <c r="B131" s="57"/>
       <c r="C131" s="58"/>
-      <c r="D131" s="115"/>
+      <c r="D131" s="113"/>
       <c r="E131" s="57"/>
       <c r="F131" s="57"/>
       <c r="G131" s="57"/>
@@ -9144,7 +9144,7 @@
       <c r="A132" s="57"/>
       <c r="B132" s="57"/>
       <c r="C132" s="58"/>
-      <c r="D132" s="115"/>
+      <c r="D132" s="113"/>
       <c r="E132" s="57"/>
       <c r="F132" s="57"/>
       <c r="G132" s="57"/>
@@ -9175,7 +9175,7 @@
       <c r="A133" s="57"/>
       <c r="B133" s="57"/>
       <c r="C133" s="58"/>
-      <c r="D133" s="115"/>
+      <c r="D133" s="113"/>
       <c r="E133" s="57"/>
       <c r="F133" s="57"/>
       <c r="G133" s="57"/>
@@ -9206,7 +9206,7 @@
       <c r="A134" s="57"/>
       <c r="B134" s="57"/>
       <c r="C134" s="58"/>
-      <c r="D134" s="115"/>
+      <c r="D134" s="113"/>
       <c r="E134" s="57"/>
       <c r="F134" s="57"/>
       <c r="G134" s="57"/>
@@ -9237,7 +9237,7 @@
       <c r="A135" s="57"/>
       <c r="B135" s="57"/>
       <c r="C135" s="58"/>
-      <c r="D135" s="115"/>
+      <c r="D135" s="113"/>
       <c r="E135" s="57"/>
       <c r="F135" s="57"/>
       <c r="G135" s="57"/>
@@ -9268,7 +9268,7 @@
       <c r="A136" s="57"/>
       <c r="B136" s="57"/>
       <c r="C136" s="58"/>
-      <c r="D136" s="115"/>
+      <c r="D136" s="113"/>
       <c r="E136" s="57"/>
       <c r="F136" s="57"/>
       <c r="G136" s="57"/>
@@ -9299,7 +9299,7 @@
       <c r="A137" s="57"/>
       <c r="B137" s="57"/>
       <c r="C137" s="58"/>
-      <c r="D137" s="115"/>
+      <c r="D137" s="113"/>
       <c r="E137" s="57"/>
       <c r="F137" s="57"/>
       <c r="G137" s="57"/>
@@ -9330,7 +9330,7 @@
       <c r="A138" s="57"/>
       <c r="B138" s="57"/>
       <c r="C138" s="58"/>
-      <c r="D138" s="115"/>
+      <c r="D138" s="113"/>
       <c r="E138" s="57"/>
       <c r="F138" s="57"/>
       <c r="G138" s="57"/>
@@ -9361,7 +9361,7 @@
       <c r="A139" s="57"/>
       <c r="B139" s="57"/>
       <c r="C139" s="58"/>
-      <c r="D139" s="115"/>
+      <c r="D139" s="113"/>
       <c r="E139" s="57"/>
       <c r="F139" s="57"/>
       <c r="G139" s="57"/>
@@ -9392,7 +9392,7 @@
       <c r="A140" s="57"/>
       <c r="B140" s="57"/>
       <c r="C140" s="58"/>
-      <c r="D140" s="115"/>
+      <c r="D140" s="113"/>
       <c r="E140" s="57"/>
       <c r="F140" s="57"/>
       <c r="G140" s="57"/>
@@ -9423,7 +9423,7 @@
       <c r="A141" s="57"/>
       <c r="B141" s="57"/>
       <c r="C141" s="58"/>
-      <c r="D141" s="115"/>
+      <c r="D141" s="113"/>
       <c r="E141" s="57"/>
       <c r="F141" s="57"/>
       <c r="G141" s="57"/>
@@ -9454,7 +9454,7 @@
       <c r="A142" s="57"/>
       <c r="B142" s="57"/>
       <c r="C142" s="58"/>
-      <c r="D142" s="115"/>
+      <c r="D142" s="113"/>
       <c r="E142" s="57"/>
       <c r="F142" s="57"/>
       <c r="G142" s="57"/>
@@ -9485,7 +9485,7 @@
       <c r="A143" s="57"/>
       <c r="B143" s="57"/>
       <c r="C143" s="58"/>
-      <c r="D143" s="115"/>
+      <c r="D143" s="113"/>
       <c r="E143" s="57"/>
       <c r="F143" s="57"/>
       <c r="G143" s="57"/>
@@ -9516,7 +9516,7 @@
       <c r="A144" s="57"/>
       <c r="B144" s="57"/>
       <c r="C144" s="58"/>
-      <c r="D144" s="115"/>
+      <c r="D144" s="113"/>
       <c r="E144" s="57"/>
       <c r="F144" s="57"/>
       <c r="G144" s="57"/>
@@ -9547,7 +9547,7 @@
       <c r="A145" s="57"/>
       <c r="B145" s="57"/>
       <c r="C145" s="58"/>
-      <c r="D145" s="115"/>
+      <c r="D145" s="113"/>
       <c r="E145" s="57"/>
       <c r="F145" s="57"/>
       <c r="G145" s="57"/>
@@ -9578,7 +9578,7 @@
       <c r="A146" s="57"/>
       <c r="B146" s="57"/>
       <c r="C146" s="58"/>
-      <c r="D146" s="115"/>
+      <c r="D146" s="113"/>
       <c r="E146" s="57"/>
       <c r="F146" s="57"/>
       <c r="G146" s="57"/>
@@ -9609,7 +9609,7 @@
       <c r="A147" s="57"/>
       <c r="B147" s="57"/>
       <c r="C147" s="58"/>
-      <c r="D147" s="115"/>
+      <c r="D147" s="113"/>
       <c r="E147" s="57"/>
       <c r="F147" s="57"/>
       <c r="G147" s="57"/>
@@ -9640,7 +9640,7 @@
       <c r="A148" s="57"/>
       <c r="B148" s="57"/>
       <c r="C148" s="58"/>
-      <c r="D148" s="115"/>
+      <c r="D148" s="113"/>
       <c r="E148" s="57"/>
       <c r="F148" s="57"/>
       <c r="G148" s="57"/>
@@ -9671,7 +9671,7 @@
       <c r="A149" s="57"/>
       <c r="B149" s="57"/>
       <c r="C149" s="58"/>
-      <c r="D149" s="115"/>
+      <c r="D149" s="113"/>
       <c r="E149" s="57"/>
       <c r="F149" s="57"/>
       <c r="G149" s="57"/>
@@ -9702,7 +9702,7 @@
       <c r="A150" s="57"/>
       <c r="B150" s="57"/>
       <c r="C150" s="58"/>
-      <c r="D150" s="115"/>
+      <c r="D150" s="113"/>
       <c r="E150" s="57"/>
       <c r="F150" s="57"/>
       <c r="G150" s="57"/>
@@ -9733,7 +9733,7 @@
       <c r="A151" s="57"/>
       <c r="B151" s="57"/>
       <c r="C151" s="58"/>
-      <c r="D151" s="115"/>
+      <c r="D151" s="113"/>
       <c r="E151" s="57"/>
       <c r="F151" s="57"/>
       <c r="G151" s="57"/>
@@ -9764,7 +9764,7 @@
       <c r="A152" s="57"/>
       <c r="B152" s="57"/>
       <c r="C152" s="58"/>
-      <c r="D152" s="115"/>
+      <c r="D152" s="113"/>
       <c r="E152" s="57"/>
       <c r="F152" s="57"/>
       <c r="G152" s="57"/>
@@ -9795,7 +9795,7 @@
       <c r="A153" s="57"/>
       <c r="B153" s="57"/>
       <c r="C153" s="58"/>
-      <c r="D153" s="115"/>
+      <c r="D153" s="113"/>
       <c r="E153" s="57"/>
       <c r="F153" s="57"/>
       <c r="G153" s="57"/>
@@ -9826,7 +9826,7 @@
       <c r="A154" s="57"/>
       <c r="B154" s="57"/>
       <c r="C154" s="58"/>
-      <c r="D154" s="115"/>
+      <c r="D154" s="113"/>
       <c r="E154" s="57"/>
       <c r="F154" s="57"/>
       <c r="G154" s="57"/>
@@ -9857,7 +9857,7 @@
       <c r="A155" s="57"/>
       <c r="B155" s="57"/>
       <c r="C155" s="58"/>
-      <c r="D155" s="115"/>
+      <c r="D155" s="113"/>
       <c r="E155" s="57"/>
       <c r="F155" s="57"/>
       <c r="G155" s="57"/>
@@ -9888,7 +9888,7 @@
       <c r="A156" s="57"/>
       <c r="B156" s="57"/>
       <c r="C156" s="58"/>
-      <c r="D156" s="115"/>
+      <c r="D156" s="113"/>
       <c r="E156" s="57"/>
       <c r="F156" s="57"/>
       <c r="G156" s="57"/>
@@ -9919,7 +9919,7 @@
       <c r="A157" s="57"/>
       <c r="B157" s="57"/>
       <c r="C157" s="58"/>
-      <c r="D157" s="115"/>
+      <c r="D157" s="113"/>
       <c r="E157" s="57"/>
       <c r="F157" s="57"/>
       <c r="G157" s="57"/>
@@ -9950,7 +9950,7 @@
       <c r="A158" s="57"/>
       <c r="B158" s="57"/>
       <c r="C158" s="58"/>
-      <c r="D158" s="115"/>
+      <c r="D158" s="113"/>
       <c r="E158" s="57"/>
       <c r="F158" s="57"/>
       <c r="G158" s="57"/>
@@ -9981,7 +9981,7 @@
       <c r="A159" s="57"/>
       <c r="B159" s="57"/>
       <c r="C159" s="58"/>
-      <c r="D159" s="115"/>
+      <c r="D159" s="113"/>
       <c r="E159" s="57"/>
       <c r="F159" s="57"/>
       <c r="G159" s="57"/>
@@ -10012,7 +10012,7 @@
       <c r="A160" s="57"/>
       <c r="B160" s="57"/>
       <c r="C160" s="58"/>
-      <c r="D160" s="115"/>
+      <c r="D160" s="113"/>
       <c r="E160" s="57"/>
       <c r="F160" s="57"/>
       <c r="G160" s="57"/>
@@ -10043,7 +10043,7 @@
       <c r="A161" s="57"/>
       <c r="B161" s="57"/>
       <c r="C161" s="58"/>
-      <c r="D161" s="115"/>
+      <c r="D161" s="113"/>
       <c r="E161" s="57"/>
       <c r="F161" s="57"/>
       <c r="G161" s="57"/>
@@ -10074,7 +10074,7 @@
       <c r="A162" s="57"/>
       <c r="B162" s="57"/>
       <c r="C162" s="58"/>
-      <c r="D162" s="115"/>
+      <c r="D162" s="113"/>
       <c r="E162" s="57"/>
       <c r="F162" s="57"/>
       <c r="G162" s="57"/>
@@ -10105,7 +10105,7 @@
       <c r="A163" s="57"/>
       <c r="B163" s="57"/>
       <c r="C163" s="58"/>
-      <c r="D163" s="115"/>
+      <c r="D163" s="113"/>
       <c r="E163" s="57"/>
       <c r="F163" s="57"/>
       <c r="G163" s="57"/>
@@ -10136,7 +10136,7 @@
       <c r="A164" s="57"/>
       <c r="B164" s="57"/>
       <c r="C164" s="58"/>
-      <c r="D164" s="115"/>
+      <c r="D164" s="113"/>
       <c r="E164" s="57"/>
       <c r="F164" s="57"/>
       <c r="G164" s="57"/>
@@ -10167,7 +10167,7 @@
       <c r="A165" s="57"/>
       <c r="B165" s="57"/>
       <c r="C165" s="58"/>
-      <c r="D165" s="115"/>
+      <c r="D165" s="113"/>
       <c r="E165" s="57"/>
       <c r="F165" s="57"/>
       <c r="G165" s="57"/>
@@ -10198,7 +10198,7 @@
       <c r="A166" s="57"/>
       <c r="B166" s="57"/>
       <c r="C166" s="58"/>
-      <c r="D166" s="115"/>
+      <c r="D166" s="113"/>
       <c r="E166" s="57"/>
       <c r="F166" s="57"/>
       <c r="G166" s="57"/>
@@ -10229,7 +10229,7 @@
       <c r="A167" s="57"/>
       <c r="B167" s="57"/>
       <c r="C167" s="58"/>
-      <c r="D167" s="115"/>
+      <c r="D167" s="113"/>
       <c r="E167" s="57"/>
       <c r="F167" s="57"/>
       <c r="G167" s="57"/>
@@ -10260,7 +10260,7 @@
       <c r="A168" s="57"/>
       <c r="B168" s="57"/>
       <c r="C168" s="58"/>
-      <c r="D168" s="115"/>
+      <c r="D168" s="113"/>
       <c r="E168" s="57"/>
       <c r="F168" s="57"/>
       <c r="G168" s="57"/>
@@ -10291,7 +10291,7 @@
       <c r="A169" s="57"/>
       <c r="B169" s="57"/>
       <c r="C169" s="58"/>
-      <c r="D169" s="115"/>
+      <c r="D169" s="113"/>
       <c r="E169" s="57"/>
       <c r="F169" s="57"/>
       <c r="G169" s="57"/>
@@ -10322,7 +10322,7 @@
       <c r="A170" s="57"/>
       <c r="B170" s="57"/>
       <c r="C170" s="58"/>
-      <c r="D170" s="115"/>
+      <c r="D170" s="113"/>
       <c r="E170" s="57"/>
       <c r="F170" s="57"/>
       <c r="G170" s="57"/>
@@ -10353,7 +10353,7 @@
       <c r="A171" s="57"/>
       <c r="B171" s="57"/>
       <c r="C171" s="58"/>
-      <c r="D171" s="115"/>
+      <c r="D171" s="113"/>
       <c r="E171" s="57"/>
       <c r="F171" s="57"/>
       <c r="G171" s="57"/>
@@ -10384,7 +10384,7 @@
       <c r="A172" s="57"/>
       <c r="B172" s="57"/>
       <c r="C172" s="58"/>
-      <c r="D172" s="115"/>
+      <c r="D172" s="113"/>
       <c r="E172" s="57"/>
       <c r="F172" s="57"/>
       <c r="G172" s="57"/>
@@ -10415,7 +10415,7 @@
       <c r="A173" s="57"/>
       <c r="B173" s="57"/>
       <c r="C173" s="58"/>
-      <c r="D173" s="115"/>
+      <c r="D173" s="113"/>
       <c r="E173" s="57"/>
       <c r="F173" s="57"/>
       <c r="G173" s="57"/>
@@ -10446,7 +10446,7 @@
       <c r="A174" s="57"/>
       <c r="B174" s="57"/>
       <c r="C174" s="58"/>
-      <c r="D174" s="115"/>
+      <c r="D174" s="113"/>
       <c r="E174" s="57"/>
       <c r="F174" s="57"/>
       <c r="G174" s="57"/>
@@ -10477,7 +10477,7 @@
       <c r="A175" s="57"/>
       <c r="B175" s="57"/>
       <c r="C175" s="58"/>
-      <c r="D175" s="115"/>
+      <c r="D175" s="113"/>
       <c r="E175" s="57"/>
       <c r="F175" s="57"/>
       <c r="G175" s="57"/>
@@ -10508,7 +10508,7 @@
       <c r="A176" s="57"/>
       <c r="B176" s="57"/>
       <c r="C176" s="58"/>
-      <c r="D176" s="115"/>
+      <c r="D176" s="113"/>
       <c r="E176" s="57"/>
       <c r="F176" s="57"/>
       <c r="G176" s="57"/>
@@ -10539,7 +10539,7 @@
       <c r="A177" s="57"/>
       <c r="B177" s="57"/>
       <c r="C177" s="58"/>
-      <c r="D177" s="115"/>
+      <c r="D177" s="113"/>
       <c r="E177" s="57"/>
       <c r="F177" s="57"/>
       <c r="G177" s="57"/>
@@ -10570,7 +10570,7 @@
       <c r="A178" s="57"/>
       <c r="B178" s="57"/>
       <c r="C178" s="58"/>
-      <c r="D178" s="115"/>
+      <c r="D178" s="113"/>
       <c r="E178" s="57"/>
       <c r="F178" s="57"/>
       <c r="G178" s="57"/>
@@ -10601,7 +10601,7 @@
       <c r="A179" s="57"/>
       <c r="B179" s="57"/>
       <c r="C179" s="58"/>
-      <c r="D179" s="115"/>
+      <c r="D179" s="113"/>
       <c r="E179" s="57"/>
       <c r="F179" s="57"/>
       <c r="G179" s="57"/>
@@ -10632,7 +10632,7 @@
       <c r="A180" s="57"/>
       <c r="B180" s="57"/>
       <c r="C180" s="58"/>
-      <c r="D180" s="115"/>
+      <c r="D180" s="113"/>
       <c r="E180" s="57"/>
       <c r="F180" s="57"/>
       <c r="G180" s="57"/>
@@ -10663,7 +10663,7 @@
       <c r="A181" s="57"/>
       <c r="B181" s="57"/>
       <c r="C181" s="58"/>
-      <c r="D181" s="115"/>
+      <c r="D181" s="113"/>
       <c r="E181" s="57"/>
       <c r="F181" s="57"/>
       <c r="G181" s="57"/>
@@ -10694,7 +10694,7 @@
       <c r="A182" s="57"/>
       <c r="B182" s="57"/>
       <c r="C182" s="58"/>
-      <c r="D182" s="115"/>
+      <c r="D182" s="113"/>
       <c r="E182" s="57"/>
       <c r="F182" s="57"/>
       <c r="G182" s="57"/>
@@ -10725,7 +10725,7 @@
       <c r="A183" s="57"/>
       <c r="B183" s="57"/>
       <c r="C183" s="58"/>
-      <c r="D183" s="115"/>
+      <c r="D183" s="113"/>
       <c r="E183" s="57"/>
       <c r="F183" s="57"/>
       <c r="G183" s="57"/>
@@ -10756,7 +10756,7 @@
       <c r="A184" s="57"/>
       <c r="B184" s="57"/>
       <c r="C184" s="58"/>
-      <c r="D184" s="115"/>
+      <c r="D184" s="113"/>
       <c r="E184" s="57"/>
       <c r="F184" s="57"/>
       <c r="G184" s="57"/>
@@ -10787,7 +10787,7 @@
       <c r="A185" s="57"/>
       <c r="B185" s="57"/>
       <c r="C185" s="58"/>
-      <c r="D185" s="115"/>
+      <c r="D185" s="113"/>
       <c r="E185" s="57"/>
       <c r="F185" s="57"/>
       <c r="G185" s="57"/>
@@ -10818,7 +10818,7 @@
       <c r="A186" s="57"/>
       <c r="B186" s="57"/>
       <c r="C186" s="58"/>
-      <c r="D186" s="115"/>
+      <c r="D186" s="113"/>
       <c r="E186" s="57"/>
       <c r="F186" s="57"/>
       <c r="G186" s="57"/>
@@ -10849,7 +10849,7 @@
       <c r="A187" s="57"/>
       <c r="B187" s="57"/>
       <c r="C187" s="58"/>
-      <c r="D187" s="115"/>
+      <c r="D187" s="113"/>
       <c r="E187" s="57"/>
       <c r="F187" s="57"/>
       <c r="G187" s="57"/>
@@ -10880,7 +10880,7 @@
       <c r="A188" s="57"/>
       <c r="B188" s="57"/>
       <c r="C188" s="58"/>
-      <c r="D188" s="115"/>
+      <c r="D188" s="113"/>
       <c r="E188" s="57"/>
       <c r="F188" s="57"/>
       <c r="G188" s="57"/>
@@ -10911,7 +10911,7 @@
       <c r="A189" s="57"/>
       <c r="B189" s="57"/>
       <c r="C189" s="58"/>
-      <c r="D189" s="115"/>
+      <c r="D189" s="113"/>
       <c r="E189" s="57"/>
       <c r="F189" s="57"/>
       <c r="G189" s="57"/>
@@ -10942,7 +10942,7 @@
       <c r="A190" s="57"/>
       <c r="B190" s="57"/>
       <c r="C190" s="58"/>
-      <c r="D190" s="115"/>
+      <c r="D190" s="113"/>
       <c r="E190" s="57"/>
       <c r="F190" s="57"/>
       <c r="G190" s="57"/>
@@ -10973,7 +10973,7 @@
       <c r="A191" s="57"/>
       <c r="B191" s="57"/>
       <c r="C191" s="58"/>
-      <c r="D191" s="115"/>
+      <c r="D191" s="113"/>
       <c r="E191" s="57"/>
       <c r="F191" s="57"/>
       <c r="G191" s="57"/>
@@ -11004,7 +11004,7 @@
       <c r="A192" s="57"/>
       <c r="B192" s="57"/>
       <c r="C192" s="58"/>
-      <c r="D192" s="115"/>
+      <c r="D192" s="113"/>
       <c r="E192" s="57"/>
       <c r="F192" s="57"/>
       <c r="G192" s="57"/>
@@ -11035,7 +11035,7 @@
       <c r="A193" s="57"/>
       <c r="B193" s="57"/>
       <c r="C193" s="58"/>
-      <c r="D193" s="115"/>
+      <c r="D193" s="113"/>
       <c r="E193" s="57"/>
       <c r="F193" s="57"/>
       <c r="G193" s="57"/>
@@ -11066,7 +11066,7 @@
       <c r="A194" s="57"/>
       <c r="B194" s="57"/>
       <c r="C194" s="58"/>
-      <c r="D194" s="115"/>
+      <c r="D194" s="113"/>
       <c r="E194" s="57"/>
       <c r="F194" s="57"/>
       <c r="G194" s="57"/>
@@ -11097,7 +11097,7 @@
       <c r="A195" s="57"/>
       <c r="B195" s="57"/>
       <c r="C195" s="58"/>
-      <c r="D195" s="115"/>
+      <c r="D195" s="113"/>
       <c r="E195" s="57"/>
       <c r="F195" s="57"/>
       <c r="G195" s="57"/>
@@ -11128,7 +11128,7 @@
       <c r="A196" s="57"/>
       <c r="B196" s="57"/>
       <c r="C196" s="58"/>
-      <c r="D196" s="115"/>
+      <c r="D196" s="113"/>
       <c r="E196" s="57"/>
       <c r="F196" s="57"/>
       <c r="G196" s="57"/>
@@ -11159,7 +11159,7 @@
       <c r="A197" s="57"/>
       <c r="B197" s="57"/>
       <c r="C197" s="58"/>
-      <c r="D197" s="115"/>
+      <c r="D197" s="113"/>
       <c r="E197" s="57"/>
       <c r="F197" s="57"/>
       <c r="G197" s="57"/>
@@ -11190,7 +11190,7 @@
       <c r="A198" s="57"/>
       <c r="B198" s="57"/>
       <c r="C198" s="58"/>
-      <c r="D198" s="115"/>
+      <c r="D198" s="113"/>
       <c r="E198" s="57"/>
       <c r="F198" s="57"/>
       <c r="G198" s="57"/>
@@ -11221,7 +11221,7 @@
       <c r="A199" s="57"/>
       <c r="B199" s="57"/>
       <c r="C199" s="58"/>
-      <c r="D199" s="115"/>
+      <c r="D199" s="113"/>
       <c r="E199" s="57"/>
       <c r="F199" s="57"/>
       <c r="G199" s="57"/>
@@ -11252,7 +11252,7 @@
       <c r="A200" s="57"/>
       <c r="B200" s="57"/>
       <c r="C200" s="58"/>
-      <c r="D200" s="115"/>
+      <c r="D200" s="113"/>
       <c r="E200" s="57"/>
       <c r="F200" s="57"/>
       <c r="G200" s="57"/>
@@ -11283,7 +11283,7 @@
       <c r="A201" s="57"/>
       <c r="B201" s="57"/>
       <c r="C201" s="58"/>
-      <c r="D201" s="115"/>
+      <c r="D201" s="113"/>
       <c r="E201" s="57"/>
       <c r="F201" s="57"/>
       <c r="G201" s="57"/>
@@ -11314,7 +11314,7 @@
       <c r="A202" s="57"/>
       <c r="B202" s="57"/>
       <c r="C202" s="58"/>
-      <c r="D202" s="115"/>
+      <c r="D202" s="113"/>
       <c r="E202" s="57"/>
       <c r="F202" s="57"/>
       <c r="G202" s="57"/>
@@ -11345,7 +11345,7 @@
       <c r="A203" s="57"/>
       <c r="B203" s="57"/>
       <c r="C203" s="58"/>
-      <c r="D203" s="115"/>
+      <c r="D203" s="113"/>
       <c r="E203" s="57"/>
       <c r="F203" s="57"/>
       <c r="G203" s="57"/>
@@ -11376,7 +11376,7 @@
       <c r="A204" s="57"/>
       <c r="B204" s="57"/>
       <c r="C204" s="58"/>
-      <c r="D204" s="115"/>
+      <c r="D204" s="113"/>
       <c r="E204" s="57"/>
       <c r="F204" s="57"/>
       <c r="G204" s="57"/>
@@ -11407,7 +11407,7 @@
       <c r="A205" s="57"/>
       <c r="B205" s="57"/>
       <c r="C205" s="58"/>
-      <c r="D205" s="115"/>
+      <c r="D205" s="113"/>
       <c r="E205" s="57"/>
       <c r="F205" s="57"/>
       <c r="G205" s="57"/>
@@ -11438,7 +11438,7 @@
       <c r="A206" s="57"/>
       <c r="B206" s="57"/>
       <c r="C206" s="58"/>
-      <c r="D206" s="115"/>
+      <c r="D206" s="113"/>
       <c r="E206" s="57"/>
       <c r="F206" s="57"/>
       <c r="G206" s="57"/>
@@ -11469,7 +11469,7 @@
       <c r="A207" s="57"/>
       <c r="B207" s="57"/>
       <c r="C207" s="58"/>
-      <c r="D207" s="115"/>
+      <c r="D207" s="113"/>
       <c r="E207" s="57"/>
       <c r="F207" s="57"/>
       <c r="G207" s="57"/>
@@ -11500,7 +11500,7 @@
       <c r="A208" s="57"/>
       <c r="B208" s="57"/>
       <c r="C208" s="58"/>
-      <c r="D208" s="115"/>
+      <c r="D208" s="113"/>
       <c r="E208" s="57"/>
       <c r="F208" s="57"/>
       <c r="G208" s="57"/>
@@ -11531,7 +11531,7 @@
       <c r="A209" s="57"/>
       <c r="B209" s="57"/>
       <c r="C209" s="58"/>
-      <c r="D209" s="115"/>
+      <c r="D209" s="113"/>
       <c r="E209" s="57"/>
       <c r="F209" s="57"/>
       <c r="G209" s="57"/>
@@ -11562,7 +11562,7 @@
       <c r="A210" s="57"/>
       <c r="B210" s="57"/>
       <c r="C210" s="58"/>
-      <c r="D210" s="115"/>
+      <c r="D210" s="113"/>
       <c r="E210" s="57"/>
       <c r="F210" s="57"/>
       <c r="G210" s="57"/>
@@ -11593,7 +11593,7 @@
       <c r="A211" s="57"/>
       <c r="B211" s="57"/>
       <c r="C211" s="58"/>
-      <c r="D211" s="115"/>
+      <c r="D211" s="113"/>
       <c r="E211" s="57"/>
       <c r="F211" s="57"/>
       <c r="G211" s="57"/>
@@ -11624,7 +11624,7 @@
       <c r="A212" s="57"/>
       <c r="B212" s="57"/>
       <c r="C212" s="58"/>
-      <c r="D212" s="115"/>
+      <c r="D212" s="113"/>
       <c r="E212" s="57"/>
       <c r="F212" s="57"/>
       <c r="G212" s="57"/>
@@ -11655,7 +11655,7 @@
       <c r="A213" s="57"/>
       <c r="B213" s="57"/>
       <c r="C213" s="58"/>
-      <c r="D213" s="115"/>
+      <c r="D213" s="113"/>
       <c r="E213" s="57"/>
       <c r="F213" s="57"/>
       <c r="G213" s="57"/>
@@ -11686,7 +11686,7 @@
       <c r="A214" s="57"/>
       <c r="B214" s="57"/>
       <c r="C214" s="58"/>
-      <c r="D214" s="115"/>
+      <c r="D214" s="113"/>
       <c r="E214" s="57"/>
       <c r="F214" s="57"/>
       <c r="G214" s="57"/>
@@ -11717,7 +11717,7 @@
       <c r="A215" s="57"/>
       <c r="B215" s="57"/>
       <c r="C215" s="58"/>
-      <c r="D215" s="115"/>
+      <c r="D215" s="113"/>
       <c r="E215" s="57"/>
       <c r="F215" s="57"/>
       <c r="G215" s="57"/>
@@ -11748,7 +11748,7 @@
       <c r="A216" s="57"/>
       <c r="B216" s="57"/>
       <c r="C216" s="58"/>
-      <c r="D216" s="115"/>
+      <c r="D216" s="113"/>
       <c r="E216" s="57"/>
       <c r="F216" s="57"/>
       <c r="G216" s="57"/>
@@ -11779,7 +11779,7 @@
       <c r="A217" s="57"/>
       <c r="B217" s="57"/>
       <c r="C217" s="58"/>
-      <c r="D217" s="115"/>
+      <c r="D217" s="113"/>
       <c r="E217" s="57"/>
       <c r="F217" s="57"/>
       <c r="G217" s="57"/>
@@ -11810,7 +11810,7 @@
       <c r="A218" s="57"/>
       <c r="B218" s="57"/>
       <c r="C218" s="58"/>
-      <c r="D218" s="115"/>
+      <c r="D218" s="113"/>
       <c r="E218" s="57"/>
       <c r="F218" s="57"/>
       <c r="G218" s="57"/>
@@ -11841,7 +11841,7 @@
       <c r="A219" s="57"/>
       <c r="B219" s="57"/>
       <c r="C219" s="58"/>
-      <c r="D219" s="115"/>
+      <c r="D219" s="113"/>
       <c r="E219" s="57"/>
       <c r="F219" s="57"/>
       <c r="G219" s="57"/>
@@ -11872,7 +11872,7 @@
       <c r="A220" s="57"/>
       <c r="B220" s="57"/>
       <c r="C220" s="58"/>
-      <c r="D220" s="115"/>
+      <c r="D220" s="113"/>
       <c r="E220" s="57"/>
       <c r="F220" s="57"/>
       <c r="G220" s="57"/>
@@ -11903,7 +11903,7 @@
       <c r="A221" s="57"/>
       <c r="B221" s="57"/>
       <c r="C221" s="58"/>
-      <c r="D221" s="115"/>
+      <c r="D221" s="113"/>
       <c r="E221" s="57"/>
       <c r="F221" s="57"/>
       <c r="G221" s="57"/>
@@ -11934,7 +11934,7 @@
       <c r="A222" s="57"/>
       <c r="B222" s="57"/>
       <c r="C222" s="58"/>
-      <c r="D222" s="115"/>
+      <c r="D222" s="113"/>
       <c r="E222" s="57"/>
       <c r="F222" s="57"/>
       <c r="G222" s="57"/>
@@ -11965,7 +11965,7 @@
       <c r="A223" s="57"/>
       <c r="B223" s="57"/>
       <c r="C223" s="58"/>
-      <c r="D223" s="115"/>
+      <c r="D223" s="113"/>
       <c r="E223" s="57"/>
       <c r="F223" s="57"/>
       <c r="G223" s="57"/>
@@ -11996,7 +11996,7 @@
       <c r="A224" s="57"/>
       <c r="B224" s="57"/>
       <c r="C224" s="58"/>
-      <c r="D224" s="115"/>
+      <c r="D224" s="113"/>
       <c r="E224" s="57"/>
       <c r="F224" s="57"/>
       <c r="G224" s="57"/>
@@ -12027,7 +12027,7 @@
       <c r="A225" s="57"/>
       <c r="B225" s="57"/>
       <c r="C225" s="58"/>
-      <c r="D225" s="115"/>
+      <c r="D225" s="113"/>
       <c r="E225" s="57"/>
       <c r="F225" s="57"/>
       <c r="G225" s="57"/>
@@ -12058,7 +12058,7 @@
       <c r="A226" s="57"/>
       <c r="B226" s="57"/>
       <c r="C226" s="58"/>
-      <c r="D226" s="115"/>
+      <c r="D226" s="113"/>
       <c r="E226" s="57"/>
       <c r="F226" s="57"/>
       <c r="G226" s="57"/>
@@ -12089,7 +12089,7 @@
       <c r="A227" s="57"/>
       <c r="B227" s="57"/>
       <c r="C227" s="58"/>
-      <c r="D227" s="115"/>
+      <c r="D227" s="113"/>
       <c r="E227" s="57"/>
       <c r="F227" s="57"/>
       <c r="G227" s="57"/>
@@ -12120,7 +12120,7 @@
       <c r="A228" s="57"/>
       <c r="B228" s="57"/>
       <c r="C228" s="58"/>
-      <c r="D228" s="115"/>
+      <c r="D228" s="113"/>
       <c r="E228" s="57"/>
       <c r="F228" s="57"/>
       <c r="G228" s="57"/>
@@ -12151,7 +12151,7 @@
       <c r="A229" s="57"/>
       <c r="B229" s="57"/>
       <c r="C229" s="58"/>
-      <c r="D229" s="115"/>
+      <c r="D229" s="113"/>
       <c r="E229" s="57"/>
       <c r="F229" s="57"/>
       <c r="G229" s="57"/>
@@ -12182,7 +12182,7 @@
       <c r="A230" s="57"/>
       <c r="B230" s="57"/>
       <c r="C230" s="58"/>
-      <c r="D230" s="115"/>
+      <c r="D230" s="113"/>
       <c r="E230" s="57"/>
       <c r="F230" s="57"/>
       <c r="G230" s="57"/>
@@ -12213,7 +12213,7 @@
       <c r="A231" s="57"/>
       <c r="B231" s="57"/>
       <c r="C231" s="58"/>
-      <c r="D231" s="115"/>
+      <c r="D231" s="113"/>
       <c r="E231" s="57"/>
       <c r="F231" s="57"/>
       <c r="G231" s="57"/>
@@ -12244,7 +12244,7 @@
       <c r="A232" s="57"/>
       <c r="B232" s="57"/>
       <c r="C232" s="58"/>
-      <c r="D232" s="115"/>
+      <c r="D232" s="113"/>
       <c r="E232" s="57"/>
       <c r="F232" s="57"/>
       <c r="G232" s="57"/>
@@ -12275,7 +12275,7 @@
       <c r="A233" s="57"/>
       <c r="B233" s="57"/>
       <c r="C233" s="58"/>
-      <c r="D233" s="115"/>
+      <c r="D233" s="113"/>
       <c r="E233" s="57"/>
       <c r="F233" s="57"/>
       <c r="G233" s="57"/>
@@ -12306,7 +12306,7 @@
       <c r="A234" s="57"/>
       <c r="B234" s="57"/>
       <c r="C234" s="58"/>
-      <c r="D234" s="115"/>
+      <c r="D234" s="113"/>
       <c r="E234" s="57"/>
       <c r="F234" s="57"/>
       <c r="G234" s="57"/>
@@ -12337,7 +12337,7 @@
       <c r="A235" s="57"/>
       <c r="B235" s="57"/>
       <c r="C235" s="58"/>
-      <c r="D235" s="115"/>
+      <c r="D235" s="113"/>
       <c r="E235" s="57"/>
       <c r="F235" s="57"/>
       <c r="G235" s="57"/>
@@ -12368,7 +12368,7 @@
       <c r="A236" s="57"/>
       <c r="B236" s="57"/>
       <c r="C236" s="58"/>
-      <c r="D236" s="115"/>
+      <c r="D236" s="113"/>
       <c r="E236" s="57"/>
       <c r="F236" s="57"/>
       <c r="G236" s="57"/>
@@ -12399,7 +12399,7 @@
       <c r="A237" s="57"/>
       <c r="B237" s="57"/>
       <c r="C237" s="58"/>
-      <c r="D237" s="115"/>
+      <c r="D237" s="113"/>
       <c r="E237" s="57"/>
       <c r="F237" s="57"/>
       <c r="G237" s="57"/>
@@ -12430,7 +12430,7 @@
       <c r="A238" s="57"/>
       <c r="B238" s="57"/>
       <c r="C238" s="58"/>
-      <c r="D238" s="115"/>
+      <c r="D238" s="113"/>
       <c r="E238" s="57"/>
       <c r="F238" s="57"/>
       <c r="G238" s="57"/>
@@ -12461,7 +12461,7 @@
       <c r="A239" s="57"/>
       <c r="B239" s="57"/>
       <c r="C239" s="58"/>
-      <c r="D239" s="115"/>
+      <c r="D239" s="113"/>
       <c r="E239" s="57"/>
       <c r="F239" s="57"/>
       <c r="G239" s="57"/>
@@ -12492,7 +12492,7 @@
       <c r="A240" s="57"/>
       <c r="B240" s="57"/>
       <c r="C240" s="58"/>
-      <c r="D240" s="115"/>
+      <c r="D240" s="113"/>
       <c r="E240" s="57"/>
       <c r="F240" s="57"/>
       <c r="G240" s="57"/>
@@ -12523,7 +12523,7 @@
       <c r="A241" s="57"/>
       <c r="B241" s="57"/>
       <c r="C241" s="58"/>
-      <c r="D241" s="115"/>
+      <c r="D241" s="113"/>
       <c r="E241" s="57"/>
       <c r="F241" s="57"/>
       <c r="G241" s="57"/>
@@ -12554,7 +12554,7 @@
       <c r="A242" s="57"/>
       <c r="B242" s="57"/>
       <c r="C242" s="58"/>
-      <c r="D242" s="115"/>
+      <c r="D242" s="113"/>
       <c r="E242" s="57"/>
       <c r="F242" s="57"/>
       <c r="G242" s="57"/>
@@ -12585,7 +12585,7 @@
       <c r="A243" s="57"/>
       <c r="B243" s="57"/>
       <c r="C243" s="58"/>
-      <c r="D243" s="115"/>
+      <c r="D243" s="113"/>
       <c r="E243" s="57"/>
       <c r="F243" s="57"/>
       <c r="G243" s="57"/>
@@ -12616,7 +12616,7 @@
       <c r="A244" s="57"/>
       <c r="B244" s="57"/>
       <c r="C244" s="58"/>
-      <c r="D244" s="115"/>
+      <c r="D244" s="113"/>
       <c r="E244" s="57"/>
       <c r="F244" s="57"/>
       <c r="G244" s="57"/>
@@ -12647,7 +12647,7 @@
       <c r="A245" s="57"/>
       <c r="B245" s="57"/>
       <c r="C245" s="58"/>
-      <c r="D245" s="115"/>
+      <c r="D245" s="113"/>
       <c r="E245" s="57"/>
       <c r="F245" s="57"/>
       <c r="G245" s="57"/>
@@ -12678,7 +12678,7 @@
       <c r="A246" s="57"/>
       <c r="B246" s="57"/>
       <c r="C246" s="58"/>
-      <c r="D246" s="115"/>
+      <c r="D246" s="113"/>
       <c r="E246" s="57"/>
       <c r="F246" s="57"/>
       <c r="G246" s="57"/>
@@ -12709,7 +12709,7 @@
       <c r="A247" s="57"/>
       <c r="B247" s="57"/>
       <c r="C247" s="58"/>
-      <c r="D247" s="115"/>
+      <c r="D247" s="113"/>
       <c r="E247" s="57"/>
       <c r="F247" s="57"/>
       <c r="G247" s="57"/>
@@ -12740,7 +12740,7 @@
       <c r="A248" s="57"/>
       <c r="B248" s="57"/>
       <c r="C248" s="58"/>
-      <c r="D248" s="115"/>
+      <c r="D248" s="113"/>
       <c r="E248" s="57"/>
       <c r="F248" s="57"/>
       <c r="G248" s="57"/>
@@ -12771,7 +12771,7 @@
       <c r="A249" s="57"/>
       <c r="B249" s="57"/>
       <c r="C249" s="58"/>
-      <c r="D249" s="115"/>
+      <c r="D249" s="113"/>
       <c r="E249" s="57"/>
       <c r="F249" s="57"/>
       <c r="G249" s="57"/>
@@ -12802,7 +12802,7 @@
       <c r="A250" s="57"/>
       <c r="B250" s="57"/>
       <c r="C250" s="58"/>
-      <c r="D250" s="115"/>
+      <c r="D250" s="113"/>
       <c r="E250" s="57"/>
       <c r="F250" s="57"/>
       <c r="G250" s="57"/>
@@ -12833,7 +12833,7 @@
       <c r="A251" s="57"/>
       <c r="B251" s="57"/>
       <c r="C251" s="58"/>
-      <c r="D251" s="115"/>
+      <c r="D251" s="113"/>
       <c r="E251" s="57"/>
       <c r="F251" s="57"/>
       <c r="G251" s="57"/>
@@ -12864,7 +12864,7 @@
       <c r="A252" s="57"/>
       <c r="B252" s="57"/>
       <c r="C252" s="58"/>
-      <c r="D252" s="115"/>
+      <c r="D252" s="113"/>
       <c r="E252" s="57"/>
       <c r="F252" s="57"/>
       <c r="G252" s="57"/>
@@ -12895,7 +12895,7 @@
       <c r="A253" s="57"/>
       <c r="B253" s="57"/>
       <c r="C253" s="58"/>
-      <c r="D253" s="115"/>
+      <c r="D253" s="113"/>
       <c r="E253" s="57"/>
       <c r="F253" s="57"/>
       <c r="G253" s="57"/>
@@ -12926,7 +12926,7 @@
       <c r="A254" s="57"/>
       <c r="B254" s="57"/>
       <c r="C254" s="58"/>
-      <c r="D254" s="115"/>
+      <c r="D254" s="113"/>
       <c r="E254" s="57"/>
       <c r="F254" s="57"/>
       <c r="G254" s="57"/>
@@ -12957,7 +12957,7 @@
       <c r="A255" s="57"/>
       <c r="B255" s="57"/>
       <c r="C255" s="58"/>
-      <c r="D255" s="115"/>
+      <c r="D255" s="113"/>
       <c r="E255" s="57"/>
       <c r="F255" s="57"/>
       <c r="G255" s="57"/>
@@ -12988,7 +12988,7 @@
       <c r="A256" s="57"/>
       <c r="B256" s="57"/>
       <c r="C256" s="58"/>
-      <c r="D256" s="115"/>
+      <c r="D256" s="113"/>
       <c r="E256" s="57"/>
       <c r="F256" s="57"/>
       <c r="G256" s="57"/>
@@ -13019,7 +13019,7 @@
       <c r="A257" s="57"/>
       <c r="B257" s="57"/>
       <c r="C257" s="58"/>
-      <c r="D257" s="115"/>
+      <c r="D257" s="113"/>
       <c r="E257" s="57"/>
       <c r="F257" s="57"/>
       <c r="G257" s="57"/>
@@ -13050,7 +13050,7 @@
       <c r="A258" s="57"/>
       <c r="B258" s="57"/>
       <c r="C258" s="58"/>
-      <c r="D258" s="115"/>
+      <c r="D258" s="113"/>
       <c r="E258" s="57"/>
       <c r="F258" s="57"/>
       <c r="G258" s="57"/>
@@ -13081,7 +13081,7 @@
       <c r="A259" s="57"/>
       <c r="B259" s="57"/>
       <c r="C259" s="58"/>
-      <c r="D259" s="115"/>
+      <c r="D259" s="113"/>
       <c r="E259" s="57"/>
       <c r="F259" s="57"/>
       <c r="G259" s="57"/>
@@ -13112,7 +13112,7 @@
       <c r="A260" s="57"/>
       <c r="B260" s="57"/>
       <c r="C260" s="58"/>
-      <c r="D260" s="115"/>
+      <c r="D260" s="113"/>
       <c r="E260" s="57"/>
       <c r="F260" s="57"/>
       <c r="G260" s="57"/>
@@ -13143,7 +13143,7 @@
       <c r="A261" s="57"/>
       <c r="B261" s="57"/>
       <c r="C261" s="58"/>
-      <c r="D261" s="115"/>
+      <c r="D261" s="113"/>
       <c r="E261" s="57"/>
       <c r="F261" s="57"/>
       <c r="G261" s="57"/>
@@ -13174,7 +13174,7 @@
       <c r="A262" s="57"/>
       <c r="B262" s="57"/>
       <c r="C262" s="58"/>
-      <c r="D262" s="115"/>
+      <c r="D262" s="113"/>
       <c r="E262" s="57"/>
       <c r="F262" s="57"/>
       <c r="G262" s="57"/>
@@ -13205,7 +13205,7 @@
       <c r="A263" s="57"/>
       <c r="B263" s="57"/>
       <c r="C263" s="58"/>
-      <c r="D263" s="115"/>
+      <c r="D263" s="113"/>
       <c r="E263" s="57"/>
       <c r="F263" s="57"/>
       <c r="G263" s="57"/>
@@ -13236,7 +13236,7 @@
       <c r="A264" s="57"/>
       <c r="B264" s="57"/>
       <c r="C264" s="58"/>
-      <c r="D264" s="115"/>
+      <c r="D264" s="113"/>
       <c r="E264" s="57"/>
       <c r="F264" s="57"/>
       <c r="G264" s="57"/>
@@ -13267,7 +13267,7 @@
       <c r="A265" s="57"/>
       <c r="B265" s="57"/>
       <c r="C265" s="58"/>
-      <c r="D265" s="115"/>
+      <c r="D265" s="113"/>
       <c r="E265" s="57"/>
       <c r="F265" s="57"/>
       <c r="G265" s="57"/>
@@ -13298,7 +13298,7 @@
       <c r="A266" s="57"/>
       <c r="B266" s="57"/>
       <c r="C266" s="58"/>
-      <c r="D266" s="115"/>
+      <c r="D266" s="113"/>
       <c r="E266" s="57"/>
       <c r="F266" s="57"/>
       <c r="G266" s="57"/>
@@ -13329,7 +13329,7 @@
       <c r="A267" s="57"/>
       <c r="B267" s="57"/>
       <c r="C267" s="58"/>
-      <c r="D267" s="115"/>
+      <c r="D267" s="113"/>
       <c r="E267" s="57"/>
       <c r="F267" s="57"/>
       <c r="G267" s="57"/>
@@ -13360,7 +13360,7 @@
       <c r="A268" s="57"/>
       <c r="B268" s="57"/>
       <c r="C268" s="58"/>
-      <c r="D268" s="115"/>
+      <c r="D268" s="113"/>
       <c r="E268" s="57"/>
       <c r="F268" s="57"/>
       <c r="G268" s="57"/>
@@ -13391,7 +13391,7 @@
       <c r="A269" s="57"/>
       <c r="B269" s="57"/>
       <c r="C269" s="58"/>
-      <c r="D269" s="115"/>
+      <c r="D269" s="113"/>
       <c r="E269" s="57"/>
       <c r="F269" s="57"/>
       <c r="G269" s="57"/>
@@ -13422,7 +13422,7 @@
       <c r="A270" s="57"/>
       <c r="B270" s="57"/>
       <c r="C270" s="58"/>
-      <c r="D270" s="115"/>
+      <c r="D270" s="113"/>
       <c r="E270" s="57"/>
       <c r="F270" s="57"/>
       <c r="G270" s="57"/>
@@ -13453,7 +13453,7 @@
       <c r="A271" s="57"/>
       <c r="B271" s="57"/>
       <c r="C271" s="58"/>
-      <c r="D271" s="115"/>
+      <c r="D271" s="113"/>
       <c r="E271" s="57"/>
       <c r="F271" s="57"/>
       <c r="G271" s="57"/>
@@ -13484,7 +13484,7 @@
       <c r="A272" s="57"/>
       <c r="B272" s="57"/>
       <c r="C272" s="58"/>
-      <c r="D272" s="115"/>
+      <c r="D272" s="113"/>
       <c r="E272" s="57"/>
       <c r="F272" s="57"/>
       <c r="G272" s="57"/>
@@ -13515,7 +13515,7 @@
       <c r="A273" s="57"/>
       <c r="B273" s="57"/>
       <c r="C273" s="58"/>
-      <c r="D273" s="115"/>
+      <c r="D273" s="113"/>
       <c r="E273" s="57"/>
       <c r="F273" s="57"/>
       <c r="G273" s="57"/>
@@ -13546,7 +13546,7 @@
       <c r="A274" s="57"/>
       <c r="B274" s="57"/>
       <c r="C274" s="58"/>
-      <c r="D274" s="115"/>
+      <c r="D274" s="113"/>
       <c r="E274" s="57"/>
       <c r="F274" s="57"/>
       <c r="G274" s="57"/>
@@ -13577,7 +13577,7 @@
       <c r="A275" s="57"/>
       <c r="B275" s="57"/>
       <c r="C275" s="58"/>
-      <c r="D275" s="115"/>
+      <c r="D275" s="113"/>
       <c r="E275" s="57"/>
       <c r="F275" s="57"/>
       <c r="G275" s="57"/>
@@ -13608,7 +13608,7 @@
       <c r="A276" s="57"/>
       <c r="B276" s="57"/>
       <c r="C276" s="58"/>
-      <c r="D276" s="115"/>
+      <c r="D276" s="113"/>
       <c r="E276" s="57"/>
       <c r="F276" s="57"/>
       <c r="G276" s="57"/>
@@ -13639,7 +13639,7 @@
       <c r="A277" s="57"/>
       <c r="B277" s="57"/>
       <c r="C277" s="58"/>
-      <c r="D277" s="115"/>
+      <c r="D277" s="113"/>
       <c r="E277" s="57"/>
       <c r="F277" s="57"/>
       <c r="G277" s="57"/>
@@ -13670,7 +13670,7 @@
       <c r="A278" s="57"/>
       <c r="B278" s="57"/>
       <c r="C278" s="58"/>
-      <c r="D278" s="115"/>
+      <c r="D278" s="113"/>
       <c r="E278" s="57"/>
       <c r="F278" s="57"/>
       <c r="G278" s="57"/>
@@ -13701,7 +13701,7 @@
       <c r="A279" s="57"/>
       <c r="B279" s="57"/>
       <c r="C279" s="58"/>
-      <c r="D279" s="115"/>
+      <c r="D279" s="113"/>
       <c r="E279" s="57"/>
       <c r="F279" s="57"/>
       <c r="G279" s="57"/>
@@ -13732,7 +13732,7 @@
       <c r="A280" s="57"/>
       <c r="B280" s="57"/>
       <c r="C280" s="58"/>
-      <c r="D280" s="115"/>
+      <c r="D280" s="113"/>
       <c r="E280" s="57"/>
       <c r="F280" s="57"/>
       <c r="G280" s="57"/>
@@ -13763,7 +13763,7 @@
       <c r="A281" s="57"/>
       <c r="B281" s="57"/>
       <c r="C281" s="58"/>
-      <c r="D281" s="115"/>
+      <c r="D281" s="113"/>
       <c r="E281" s="57"/>
       <c r="F281" s="57"/>
       <c r="G281" s="57"/>
@@ -13794,7 +13794,7 @@
       <c r="A282" s="57"/>
       <c r="B282" s="57"/>
       <c r="C282" s="58"/>
-      <c r="D282" s="115"/>
+      <c r="D282" s="113"/>
       <c r="E282" s="57"/>
       <c r="F282" s="57"/>
       <c r="G282" s="57"/>
@@ -13825,7 +13825,7 @@
       <c r="A283" s="57"/>
       <c r="B283" s="57"/>
       <c r="C283" s="58"/>
-      <c r="D283" s="115"/>
+      <c r="D283" s="113"/>
       <c r="E283" s="57"/>
       <c r="F283" s="57"/>
       <c r="G283" s="57"/>
@@ -13856,7 +13856,7 @@
       <c r="A284" s="57"/>
       <c r="B284" s="57"/>
       <c r="C284" s="58"/>
-      <c r="D284" s="115"/>
+      <c r="D284" s="113"/>
       <c r="E284" s="57"/>
       <c r="F284" s="57"/>
       <c r="G284" s="57"/>
@@ -13887,7 +13887,7 @@
       <c r="A285" s="57"/>
       <c r="B285" s="57"/>
       <c r="C285" s="58"/>
-      <c r="D285" s="115"/>
+      <c r="D285" s="113"/>
       <c r="E285" s="57"/>
       <c r="F285" s="57"/>
       <c r="G285" s="57"/>
@@ -13918,7 +13918,7 @@
       <c r="A286" s="57"/>
       <c r="B286" s="57"/>
       <c r="C286" s="58"/>
-      <c r="D286" s="115"/>
+      <c r="D286" s="113"/>
       <c r="E286" s="57"/>
       <c r="F286" s="57"/>
       <c r="G286" s="57"/>
@@ -13949,7 +13949,7 @@
       <c r="A287" s="57"/>
       <c r="B287" s="57"/>
       <c r="C287" s="58"/>
-      <c r="D287" s="115"/>
+      <c r="D287" s="113"/>
       <c r="E287" s="57"/>
       <c r="F287" s="57"/>
       <c r="G287" s="57"/>
@@ -13980,7 +13980,7 @@
       <c r="A288" s="57"/>
       <c r="B288" s="57"/>
       <c r="C288" s="58"/>
-      <c r="D288" s="115"/>
+      <c r="D288" s="113"/>
       <c r="E288" s="57"/>
       <c r="F288" s="57"/>
       <c r="G288" s="57"/>
@@ -14011,7 +14011,7 @@
       <c r="A289" s="57"/>
       <c r="B289" s="57"/>
       <c r="C289" s="58"/>
-      <c r="D289" s="115"/>
+      <c r="D289" s="113"/>
       <c r="E289" s="57"/>
       <c r="F289" s="57"/>
       <c r="G289" s="57"/>
@@ -14042,7 +14042,7 @@
       <c r="A290" s="57"/>
       <c r="B290" s="57"/>
       <c r="C290" s="58"/>
-      <c r="D290" s="115"/>
+      <c r="D290" s="113"/>
       <c r="E290" s="57"/>
       <c r="F290" s="57"/>
       <c r="G290" s="57"/>
@@ -14073,7 +14073,7 @@
       <c r="A291" s="57"/>
       <c r="B291" s="57"/>
       <c r="C291" s="58"/>
-      <c r="D291" s="115"/>
+      <c r="D291" s="113"/>
       <c r="E291" s="57"/>
       <c r="F291" s="57"/>
       <c r="G291" s="57"/>
@@ -14104,7 +14104,7 @@
       <c r="A292" s="57"/>
       <c r="B292" s="57"/>
       <c r="C292" s="58"/>
-      <c r="D292" s="115"/>
+      <c r="D292" s="113"/>
       <c r="E292" s="57"/>
       <c r="F292" s="57"/>
       <c r="G292" s="57"/>
@@ -14135,7 +14135,7 @@
       <c r="A293" s="57"/>
       <c r="B293" s="57"/>
       <c r="C293" s="58"/>
-      <c r="D293" s="115"/>
+      <c r="D293" s="113"/>
       <c r="E293" s="57"/>
       <c r="F293" s="57"/>
       <c r="G293" s="57"/>
@@ -14166,7 +14166,7 @@
       <c r="A294" s="57"/>
       <c r="B294" s="57"/>
       <c r="C294" s="58"/>
-      <c r="D294" s="115"/>
+      <c r="D294" s="113"/>
       <c r="E294" s="57"/>
       <c r="F294" s="57"/>
       <c r="G294" s="57"/>
@@ -14197,7 +14197,7 @@
       <c r="A295" s="57"/>
       <c r="B295" s="57"/>
       <c r="C295" s="58"/>
-      <c r="D295" s="115"/>
+      <c r="D295" s="113"/>
       <c r="E295" s="57"/>
       <c r="F295" s="57"/>
       <c r="G295" s="57"/>
@@ -14228,7 +14228,7 @@
       <c r="A296" s="57"/>
       <c r="B296" s="57"/>
       <c r="C296" s="58"/>
-      <c r="D296" s="115"/>
+      <c r="D296" s="113"/>
       <c r="E296" s="57"/>
       <c r="F296" s="57"/>
       <c r="G296" s="57"/>
@@ -14259,7 +14259,7 @@
       <c r="A297" s="57"/>
       <c r="B297" s="57"/>
       <c r="C297" s="58"/>
-      <c r="D297" s="115"/>
+      <c r="D297" s="113"/>
       <c r="E297" s="57"/>
       <c r="F297" s="57"/>
       <c r="G297" s="57"/>
@@ -14290,7 +14290,7 @@
       <c r="A298" s="57"/>
       <c r="B298" s="57"/>
       <c r="C298" s="58"/>
-      <c r="D298" s="115"/>
+      <c r="D298" s="113"/>
       <c r="E298" s="57"/>
       <c r="F298" s="57"/>
       <c r="G298" s="57"/>
@@ -14321,7 +14321,7 @@
       <c r="A299" s="57"/>
       <c r="B299" s="57"/>
       <c r="C299" s="58"/>
-      <c r="D299" s="115"/>
+      <c r="D299" s="113"/>
       <c r="E299" s="57"/>
       <c r="F299" s="57"/>
       <c r="G299" s="57"/>
@@ -14352,7 +14352,7 @@
       <c r="A300" s="57"/>
       <c r="B300" s="57"/>
       <c r="C300" s="58"/>
-      <c r="D300" s="115"/>
+      <c r="D300" s="113"/>
       <c r="E300" s="57"/>
       <c r="F300" s="57"/>
       <c r="G300" s="57"/>
@@ -14383,7 +14383,7 @@
       <c r="A301" s="57"/>
       <c r="B301" s="57"/>
       <c r="C301" s="58"/>
-      <c r="D301" s="115"/>
+      <c r="D301" s="113"/>
       <c r="E301" s="57"/>
       <c r="F301" s="57"/>
       <c r="G301" s="57"/>
@@ -14414,7 +14414,7 @@
       <c r="A302" s="57"/>
       <c r="B302" s="57"/>
       <c r="C302" s="58"/>
-      <c r="D302" s="115"/>
+      <c r="D302" s="113"/>
       <c r="E302" s="57"/>
       <c r="F302" s="57"/>
       <c r="G302" s="57"/>
@@ -14445,7 +14445,7 @@
       <c r="A303" s="57"/>
       <c r="B303" s="57"/>
       <c r="C303" s="58"/>
-      <c r="D303" s="115"/>
+      <c r="D303" s="113"/>
       <c r="E303" s="57"/>
       <c r="F303" s="57"/>
       <c r="G303" s="57"/>
@@ -14476,7 +14476,7 @@
       <c r="A304" s="57"/>
       <c r="B304" s="57"/>
       <c r="C304" s="58"/>
-      <c r="D304" s="115"/>
+      <c r="D304" s="113"/>
       <c r="E304" s="57"/>
       <c r="F304" s="57"/>
       <c r="G304" s="57"/>
@@ -14507,7 +14507,7 @@
       <c r="A305" s="57"/>
       <c r="B305" s="57"/>
       <c r="C305" s="58"/>
-      <c r="D305" s="115"/>
+      <c r="D305" s="113"/>
       <c r="E305" s="57"/>
       <c r="F305" s="57"/>
       <c r="G305" s="57"/>
@@ -14538,7 +14538,7 @@
       <c r="A306" s="57"/>
       <c r="B306" s="57"/>
       <c r="C306" s="58"/>
-      <c r="D306" s="115"/>
+      <c r="D306" s="113"/>
       <c r="E306" s="57"/>
       <c r="F306" s="57"/>
       <c r="G306" s="57"/>
@@ -14569,7 +14569,7 @@
       <c r="A307" s="57"/>
       <c r="B307" s="57"/>
       <c r="C307" s="58"/>
-      <c r="D307" s="115"/>
+      <c r="D307" s="113"/>
       <c r="E307" s="57"/>
       <c r="F307" s="57"/>
       <c r="G307" s="57"/>
@@ -14600,7 +14600,7 @@
       <c r="A308" s="57"/>
       <c r="B308" s="57"/>
       <c r="C308" s="58"/>
-      <c r="D308" s="115"/>
+      <c r="D308" s="113"/>
       <c r="E308" s="57"/>
       <c r="F308" s="57"/>
       <c r="G308" s="57"/>
@@ -14631,7 +14631,7 @@
       <c r="A309" s="57"/>
       <c r="B309" s="57"/>
       <c r="C309" s="58"/>
-      <c r="D309" s="115"/>
+      <c r="D309" s="113"/>
       <c r="E309" s="57"/>
       <c r="F309" s="57"/>
       <c r="G309" s="57"/>
@@ -14662,7 +14662,7 @@
       <c r="A310" s="57"/>
       <c r="B310" s="57"/>
       <c r="C310" s="58"/>
-      <c r="D310" s="115"/>
+      <c r="D310" s="113"/>
       <c r="E310" s="57"/>
       <c r="F310" s="57"/>
       <c r="G310" s="57"/>
@@ -14693,7 +14693,7 @@
       <c r="A311" s="57"/>
       <c r="B311" s="57"/>
       <c r="C311" s="58"/>
-      <c r="D311" s="115"/>
+      <c r="D311" s="113"/>
       <c r="E311" s="57"/>
       <c r="F311" s="57"/>
       <c r="G311" s="57"/>
@@ -14724,7 +14724,7 @@
       <c r="A312" s="57"/>
       <c r="B312" s="57"/>
       <c r="C312" s="58"/>
-      <c r="D312" s="115"/>
+      <c r="D312" s="113"/>
       <c r="E312" s="57"/>
       <c r="F312" s="57"/>
       <c r="G312" s="57"/>
@@ -14755,7 +14755,7 @@
       <c r="A313" s="57"/>
       <c r="B313" s="57"/>
       <c r="C313" s="58"/>
-      <c r="D313" s="115"/>
+      <c r="D313" s="113"/>
       <c r="E313" s="57"/>
       <c r="F313" s="57"/>
       <c r="G313" s="57"/>
@@ -14786,7 +14786,7 @@
       <c r="A314" s="57"/>
       <c r="B314" s="57"/>
       <c r="C314" s="58"/>
-      <c r="D314" s="115"/>
+      <c r="D314" s="113"/>
       <c r="E314" s="57"/>
       <c r="F314" s="57"/>
       <c r="G314" s="57"/>
@@ -14817,7 +14817,7 @@
       <c r="A315" s="57"/>
       <c r="B315" s="57"/>
       <c r="C315" s="58"/>
-      <c r="D315" s="115"/>
+      <c r="D315" s="113"/>
       <c r="E315" s="57"/>
       <c r="F315" s="57"/>
       <c r="G315" s="57"/>
@@ -14848,7 +14848,7 @@
       <c r="A316" s="57"/>
       <c r="B316" s="57"/>
       <c r="C316" s="58"/>
-      <c r="D316" s="115"/>
+      <c r="D316" s="113"/>
       <c r="E316" s="57"/>
       <c r="F316" s="57"/>
       <c r="G316" s="57"/>
@@ -14879,7 +14879,7 @@
       <c r="A317" s="57"/>
       <c r="B317" s="57"/>
       <c r="C317" s="58"/>
-      <c r="D317" s="115"/>
+      <c r="D317" s="113"/>
       <c r="E317" s="57"/>
       <c r="F317" s="57"/>
       <c r="G317" s="57"/>
@@ -14910,7 +14910,7 @@
       <c r="A318" s="57"/>
       <c r="B318" s="57"/>
       <c r="C318" s="58"/>
-      <c r="D318" s="115"/>
+      <c r="D318" s="113"/>
       <c r="E318" s="57"/>
       <c r="F318" s="57"/>
       <c r="G318" s="57"/>
@@ -14941,7 +14941,7 @@
       <c r="A319" s="57"/>
       <c r="B319" s="57"/>
       <c r="C319" s="58"/>
-      <c r="D319" s="115"/>
+      <c r="D319" s="113"/>
       <c r="E319" s="57"/>
       <c r="F319" s="57"/>
       <c r="G319" s="57"/>
@@ -14972,7 +14972,7 @@
       <c r="A320" s="57"/>
       <c r="B320" s="57"/>
       <c r="C320" s="58"/>
-      <c r="D320" s="115"/>
+      <c r="D320" s="113"/>
       <c r="E320" s="57"/>
       <c r="F320" s="57"/>
       <c r="G320" s="57"/>
@@ -15003,7 +15003,7 @@
       <c r="A321" s="57"/>
       <c r="B321" s="57"/>
       <c r="C321" s="58"/>
-      <c r="D321" s="115"/>
+      <c r="D321" s="113"/>
       <c r="E321" s="57"/>
       <c r="F321" s="57"/>
       <c r="G321" s="57"/>
@@ -15034,7 +15034,7 @@
       <c r="A322" s="57"/>
       <c r="B322" s="57"/>
       <c r="C322" s="58"/>
-      <c r="D322" s="115"/>
+      <c r="D322" s="113"/>
       <c r="E322" s="57"/>
       <c r="F322" s="57"/>
       <c r="G322" s="57"/>
@@ -15065,7 +15065,7 @@
       <c r="A323" s="57"/>
       <c r="B323" s="57"/>
       <c r="C323" s="58"/>
-      <c r="D323" s="115"/>
+      <c r="D323" s="113"/>
       <c r="E323" s="57"/>
       <c r="F323" s="57"/>
       <c r="G323" s="57"/>
@@ -15096,7 +15096,7 @@
       <c r="A324" s="57"/>
       <c r="B324" s="57"/>
       <c r="C324" s="58"/>
-      <c r="D324" s="115"/>
+      <c r="D324" s="113"/>
       <c r="E324" s="57"/>
       <c r="F324" s="57"/>
       <c r="G324" s="57"/>
@@ -15127,7 +15127,7 @@
       <c r="A325" s="57"/>
       <c r="B325" s="57"/>
       <c r="C325" s="58"/>
-      <c r="D325" s="115"/>
+      <c r="D325" s="113"/>
       <c r="E325" s="57"/>
       <c r="F325" s="57"/>
       <c r="G325" s="57"/>
@@ -15158,7 +15158,7 @@
       <c r="A326" s="57"/>
       <c r="B326" s="57"/>
       <c r="C326" s="58"/>
-      <c r="D326" s="115"/>
+      <c r="D326" s="113"/>
       <c r="E326" s="57"/>
       <c r="F326" s="57"/>
       <c r="G326" s="57"/>
@@ -15189,7 +15189,7 @@
       <c r="A327" s="57"/>
       <c r="B327" s="57"/>
       <c r="C327" s="58"/>
-      <c r="D327" s="115"/>
+      <c r="D327" s="113"/>
       <c r="E327" s="57"/>
       <c r="F327" s="57"/>
       <c r="G327" s="57"/>
@@ -15220,7 +15220,7 @@
       <c r="A328" s="57"/>
       <c r="B328" s="57"/>
       <c r="C328" s="58"/>
-      <c r="D328" s="115"/>
+      <c r="D328" s="113"/>
       <c r="E328" s="57"/>
       <c r="F328" s="57"/>
       <c r="G328" s="57"/>
@@ -15251,7 +15251,7 @@
       <c r="A329" s="57"/>
       <c r="B329" s="57"/>
       <c r="C329" s="58"/>
-      <c r="D329" s="115"/>
+      <c r="D329" s="113"/>
       <c r="E329" s="57"/>
       <c r="F329" s="57"/>
       <c r="G329" s="57"/>
@@ -15282,7 +15282,7 @@
       <c r="A330" s="57"/>
       <c r="B330" s="57"/>
       <c r="C330" s="58"/>
-      <c r="D330" s="115"/>
+      <c r="D330" s="113"/>
       <c r="E330" s="57"/>
       <c r="F330" s="57"/>
       <c r="G330" s="57"/>
@@ -15313,7 +15313,7 @@
       <c r="A331" s="57"/>
       <c r="B331" s="57"/>
       <c r="C331" s="58"/>
-      <c r="D331" s="115"/>
+      <c r="D331" s="113"/>
       <c r="E331" s="57"/>
       <c r="F331" s="57"/>
       <c r="G331" s="57"/>
@@ -15344,7 +15344,7 @@
       <c r="A332" s="57"/>
       <c r="B332" s="57"/>
       <c r="C332" s="58"/>
-      <c r="D332" s="115"/>
+      <c r="D332" s="113"/>
       <c r="E332" s="57"/>
       <c r="F332" s="57"/>
       <c r="G332" s="57"/>
@@ -15375,7 +15375,7 @@
       <c r="A333" s="57"/>
       <c r="B333" s="57"/>
       <c r="C333" s="58"/>
-      <c r="D333" s="115"/>
+      <c r="D333" s="113"/>
       <c r="E333" s="57"/>
       <c r="F333" s="57"/>
       <c r="G333" s="57"/>
@@ -15406,7 +15406,7 @@
       <c r="A334" s="57"/>
       <c r="B334" s="57"/>
       <c r="C334" s="58"/>
-      <c r="D334" s="115"/>
+      <c r="D334" s="113"/>
       <c r="E334" s="57"/>
       <c r="F334" s="57"/>
       <c r="G334" s="57"/>
@@ -15437,7 +15437,7 @@
       <c r="A335" s="57"/>
       <c r="B335" s="57"/>
       <c r="C335" s="58"/>
-      <c r="D335" s="115"/>
+      <c r="D335" s="113"/>
       <c r="E335" s="57"/>
       <c r="F335" s="57"/>
       <c r="G335" s="57"/>
@@ -15468,7 +15468,7 @@
       <c r="A336" s="57"/>
       <c r="B336" s="57"/>
       <c r="C336" s="58"/>
-      <c r="D336" s="115"/>
+      <c r="D336" s="113"/>
       <c r="E336" s="57"/>
       <c r="F336" s="57"/>
       <c r="G336" s="57"/>
@@ -15499,7 +15499,7 @@
       <c r="A337" s="57"/>
       <c r="B337" s="57"/>
       <c r="C337" s="58"/>
-      <c r="D337" s="115"/>
+      <c r="D337" s="113"/>
       <c r="E337" s="57"/>
       <c r="F337" s="57"/>
       <c r="G337" s="57"/>
@@ -15530,7 +15530,7 @@
       <c r="A338" s="57"/>
       <c r="B338" s="57"/>
       <c r="C338" s="58"/>
-      <c r="D338" s="115"/>
+      <c r="D338" s="113"/>
       <c r="E338" s="57"/>
       <c r="F338" s="57"/>
       <c r="G338" s="57"/>
@@ -15561,7 +15561,7 @@
       <c r="A339" s="57"/>
       <c r="B339" s="57"/>
       <c r="C339" s="58"/>
-      <c r="D339" s="115"/>
+      <c r="D339" s="113"/>
       <c r="E339" s="57"/>
       <c r="F339" s="57"/>
       <c r="G339" s="57"/>
@@ -15592,7 +15592,7 @@
       <c r="A340" s="57"/>
       <c r="B340" s="57"/>
       <c r="C340" s="58"/>
-      <c r="D340" s="115"/>
+      <c r="D340" s="113"/>
       <c r="E340" s="57"/>
       <c r="F340" s="57"/>
       <c r="G340" s="57"/>
@@ -15623,7 +15623,7 @@
       <c r="A341" s="57"/>
       <c r="B341" s="57"/>
       <c r="C341" s="58"/>
-      <c r="D341" s="115"/>
+      <c r="D341" s="113"/>
       <c r="E341" s="57"/>
       <c r="F341" s="57"/>
       <c r="G341" s="57"/>
@@ -15654,7 +15654,7 @@
       <c r="A342" s="57"/>
       <c r="B342" s="57"/>
       <c r="C342" s="58"/>
-      <c r="D342" s="115"/>
+      <c r="D342" s="113"/>
       <c r="E342" s="57"/>
       <c r="F342" s="57"/>
       <c r="G342" s="57"/>
@@ -15685,7 +15685,7 @@
       <c r="A343" s="57"/>
       <c r="B343" s="57"/>
       <c r="C343" s="58"/>
-      <c r="D343" s="115"/>
+      <c r="D343" s="113"/>
       <c r="E343" s="57"/>
       <c r="F343" s="57"/>
       <c r="G343" s="57"/>
@@ -15716,7 +15716,7 @@
       <c r="A344" s="57"/>
       <c r="B344" s="57"/>
       <c r="C344" s="58"/>
-      <c r="D344" s="115"/>
+      <c r="D344" s="113"/>
       <c r="E344" s="57"/>
       <c r="F344" s="57"/>
       <c r="G344" s="57"/>
@@ -15747,7 +15747,7 @@
       <c r="A345" s="57"/>
       <c r="B345" s="57"/>
       <c r="C345" s="58"/>
-      <c r="D345" s="115"/>
+      <c r="D345" s="113"/>
       <c r="E345" s="57"/>
       <c r="F345" s="57"/>
       <c r="G345" s="57"/>
@@ -15778,7 +15778,7 @@
       <c r="A346" s="57"/>
       <c r="B346" s="57"/>
       <c r="C346" s="58"/>
-      <c r="D346" s="115"/>
+      <c r="D346" s="113"/>
       <c r="E346" s="57"/>
       <c r="F346" s="57"/>
       <c r="G346" s="57"/>
@@ -15809,7 +15809,7 @@
       <c r="A347" s="57"/>
       <c r="B347" s="57"/>
       <c r="C347" s="58"/>
-      <c r="D347" s="115"/>
+      <c r="D347" s="113"/>
       <c r="E347" s="57"/>
       <c r="F347" s="57"/>
       <c r="G347" s="57"/>
@@ -15840,7 +15840,7 @@
       <c r="A348" s="57"/>
       <c r="B348" s="57"/>
       <c r="C348" s="58"/>
-      <c r="D348" s="115"/>
+      <c r="D348" s="113"/>
       <c r="E348" s="57"/>
       <c r="F348" s="57"/>
       <c r="G348" s="57"/>
@@ -15871,7 +15871,7 @@
       <c r="A349" s="57"/>
       <c r="B349" s="57"/>
       <c r="C349" s="58"/>
-      <c r="D349" s="115"/>
+      <c r="D349" s="113"/>
       <c r="E349" s="57"/>
       <c r="F349" s="57"/>
       <c r="G349" s="57"/>
@@ -15902,7 +15902,7 @@
       <c r="A350" s="57"/>
       <c r="B350" s="57"/>
       <c r="C350" s="58"/>
-      <c r="D350" s="115"/>
+      <c r="D350" s="113"/>
       <c r="E350" s="57"/>
       <c r="F350" s="57"/>
       <c r="G350" s="57"/>
@@ -15933,7 +15933,7 @@
       <c r="A351" s="57"/>
       <c r="B351" s="57"/>
       <c r="C351" s="58"/>
-      <c r="D351" s="115"/>
+      <c r="D351" s="113"/>
       <c r="E351" s="57"/>
       <c r="F351" s="57"/>
       <c r="G351" s="57"/>
@@ -15964,7 +15964,7 @@
       <c r="A352" s="57"/>
       <c r="B352" s="57"/>
       <c r="C352" s="58"/>
-      <c r="D352" s="115"/>
+      <c r="D352" s="113"/>
       <c r="E352" s="57"/>
       <c r="F352" s="57"/>
       <c r="G352" s="57"/>
@@ -15995,7 +15995,7 @@
       <c r="A353" s="57"/>
       <c r="B353" s="57"/>
       <c r="C353" s="58"/>
-      <c r="D353" s="115"/>
+      <c r="D353" s="113"/>
       <c r="E353" s="57"/>
       <c r="F353" s="57"/>
       <c r="G353" s="57"/>
@@ -16026,7 +16026,7 @@
       <c r="A354" s="57"/>
       <c r="B354" s="57"/>
       <c r="C354" s="58"/>
-      <c r="D354" s="115"/>
+      <c r="D354" s="113"/>
       <c r="E354" s="57"/>
       <c r="F354" s="57"/>
       <c r="G354" s="57"/>
@@ -16057,7 +16057,7 @@
       <c r="A355" s="57"/>
       <c r="B355" s="57"/>
       <c r="C355" s="58"/>
-      <c r="D355" s="115"/>
+      <c r="D355" s="113"/>
       <c r="E355" s="57"/>
       <c r="F355" s="57"/>
       <c r="G355" s="57"/>
@@ -16088,7 +16088,7 @@
       <c r="A356" s="57"/>
       <c r="B356" s="57"/>
       <c r="C356" s="58"/>
-      <c r="D356" s="115"/>
+      <c r="D356" s="113"/>
       <c r="E356" s="57"/>
       <c r="F356" s="57"/>
       <c r="G356" s="57"/>
@@ -16119,7 +16119,7 @@
       <c r="A357" s="57"/>
       <c r="B357" s="57"/>
       <c r="C357" s="58"/>
-      <c r="D357" s="115"/>
+      <c r="D357" s="113"/>
       <c r="E357" s="57"/>
       <c r="F357" s="57"/>
       <c r="G357" s="57"/>
@@ -16150,7 +16150,7 @@
       <c r="A358" s="57"/>
       <c r="B358" s="57"/>
       <c r="C358" s="58"/>
-      <c r="D358" s="115"/>
+      <c r="D358" s="113"/>
       <c r="E358" s="57"/>
       <c r="F358" s="57"/>
       <c r="G358" s="57"/>
@@ -16181,7 +16181,7 @@
       <c r="A359" s="57"/>
       <c r="B359" s="57"/>
       <c r="C359" s="58"/>
-      <c r="D359" s="115"/>
+      <c r="D359" s="113"/>
       <c r="E359" s="57"/>
       <c r="F359" s="57"/>
       <c r="G359" s="57"/>
@@ -16212,7 +16212,7 @@
       <c r="A360" s="57"/>
       <c r="B360" s="57"/>
       <c r="C360" s="58"/>
-      <c r="D360" s="115"/>
+      <c r="D360" s="113"/>
       <c r="E360" s="57"/>
       <c r="F360" s="57"/>
       <c r="G360" s="57"/>
@@ -16243,7 +16243,7 @@
       <c r="A361" s="57"/>
       <c r="B361" s="57"/>
       <c r="C361" s="58"/>
-      <c r="D361" s="115"/>
+      <c r="D361" s="113"/>
       <c r="E361" s="57"/>
       <c r="F361" s="57"/>
       <c r="G361" s="57"/>
@@ -16274,7 +16274,7 @@
       <c r="A362" s="57"/>
       <c r="B362" s="57"/>
       <c r="C362" s="58"/>
-      <c r="D362" s="115"/>
+      <c r="D362" s="113"/>
       <c r="E362" s="57"/>
       <c r="F362" s="57"/>
       <c r="G362" s="57"/>
@@ -16305,7 +16305,7 @@
       <c r="A363" s="57"/>
       <c r="B363" s="57"/>
       <c r="C363" s="58"/>
-      <c r="D363" s="115"/>
+      <c r="D363" s="113"/>
       <c r="E363" s="57"/>
       <c r="F363" s="57"/>
       <c r="G363" s="57"/>
@@ -16336,7 +16336,7 @@
       <c r="A364" s="57"/>
       <c r="B364" s="57"/>
       <c r="C364" s="58"/>
-      <c r="D364" s="115"/>
+      <c r="D364" s="113"/>
       <c r="E364" s="57"/>
       <c r="F364" s="57"/>
       <c r="G364" s="57"/>
@@ -16367,7 +16367,7 @@
       <c r="A365" s="57"/>
       <c r="B365" s="57"/>
       <c r="C365" s="58"/>
-      <c r="D365" s="115"/>
+      <c r="D365" s="113"/>
       <c r="E365" s="57"/>
       <c r="F365" s="57"/>
       <c r="G365" s="57"/>
@@ -16398,7 +16398,7 @@
       <c r="A366" s="57"/>
       <c r="B366" s="57"/>
       <c r="C366" s="58"/>
-      <c r="D366" s="115"/>
+      <c r="D366" s="113"/>
       <c r="E366" s="57"/>
       <c r="F366" s="57"/>
       <c r="G366" s="57"/>
@@ -16429,7 +16429,7 @@
       <c r="A367" s="57"/>
       <c r="B367" s="57"/>
       <c r="C367" s="58"/>
-      <c r="D367" s="115"/>
+      <c r="D367" s="113"/>
       <c r="E367" s="57"/>
       <c r="F367" s="57"/>
       <c r="G367" s="57"/>
@@ -16460,7 +16460,7 @@
       <c r="A368" s="57"/>
       <c r="B368" s="57"/>
       <c r="C368" s="58"/>
-      <c r="D368" s="115"/>
+      <c r="D368" s="113"/>
       <c r="E368" s="57"/>
       <c r="F368" s="57"/>
       <c r="G368" s="57"/>
@@ -16491,7 +16491,7 @@
       <c r="A369" s="57"/>
       <c r="B369" s="57"/>
       <c r="C369" s="58"/>
-      <c r="D369" s="115"/>
+      <c r="D369" s="113"/>
       <c r="E369" s="57"/>
       <c r="F369" s="57"/>
       <c r="G369" s="57"/>
@@ -16522,7 +16522,7 @@
       <c r="A370" s="57"/>
       <c r="B370" s="57"/>
       <c r="C370" s="58"/>
-      <c r="D370" s="115"/>
+      <c r="D370" s="113"/>
       <c r="E370" s="57"/>
       <c r="F370" s="57"/>
       <c r="G370" s="57"/>
@@ -16553,7 +16553,7 @@
       <c r="A371" s="57"/>
       <c r="B371" s="57"/>
       <c r="C371" s="58"/>
-      <c r="D371" s="115"/>
+      <c r="D371" s="113"/>
       <c r="E371" s="57"/>
       <c r="F371" s="57"/>
       <c r="G371" s="57"/>
@@ -16584,7 +16584,7 @@
       <c r="A372" s="57"/>
       <c r="B372" s="57"/>
       <c r="C372" s="58"/>
-      <c r="D372" s="115"/>
+      <c r="D372" s="113"/>
       <c r="E372" s="57"/>
       <c r="F372" s="57"/>
       <c r="G372" s="57"/>
@@ -16615,7 +16615,7 @@
       <c r="A373" s="57"/>
       <c r="B373" s="57"/>
       <c r="C373" s="58"/>
-      <c r="D373" s="115"/>
+      <c r="D373" s="113"/>
       <c r="E373" s="57"/>
       <c r="F373" s="57"/>
       <c r="G373" s="57"/>
@@ -16646,7 +16646,7 @@
       <c r="A374" s="57"/>
       <c r="B374" s="57"/>
       <c r="C374" s="58"/>
-      <c r="D374" s="115"/>
+      <c r="D374" s="113"/>
       <c r="E374" s="57"/>
       <c r="F374" s="57"/>
       <c r="G374" s="57"/>
@@ -16677,7 +16677,7 @@
       <c r="A375" s="57"/>
       <c r="B375" s="57"/>
       <c r="C375" s="58"/>
-      <c r="D375" s="115"/>
+      <c r="D375" s="113"/>
       <c r="E375" s="57"/>
       <c r="F375" s="57"/>
       <c r="G375" s="57"/>
@@ -16708,7 +16708,7 @@
       <c r="A376" s="57"/>
       <c r="B376" s="57"/>
       <c r="C376" s="58"/>
-      <c r="D376" s="115"/>
+      <c r="D376" s="113"/>
       <c r="E376" s="57"/>
       <c r="F376" s="57"/>
       <c r="G376" s="57"/>
@@ -16739,7 +16739,7 @@
       <c r="A377" s="57"/>
       <c r="B377" s="57"/>
       <c r="C377" s="58"/>
-      <c r="D377" s="115"/>
+      <c r="D377" s="113"/>
       <c r="E377" s="57"/>
       <c r="F377" s="57"/>
       <c r="G377" s="57"/>
@@ -16770,7 +16770,7 @@
       <c r="A378" s="57"/>
       <c r="B378" s="57"/>
       <c r="C378" s="58"/>
-      <c r="D378" s="115"/>
+      <c r="D378" s="113"/>
       <c r="E378" s="57"/>
       <c r="F378" s="57"/>
       <c r="G378" s="57"/>
@@ -16801,7 +16801,7 @@
       <c r="A379" s="57"/>
       <c r="B379" s="57"/>
       <c r="C379" s="58"/>
-      <c r="D379" s="115"/>
+      <c r="D379" s="113"/>
       <c r="E379" s="57"/>
       <c r="F379" s="57"/>
       <c r="G379" s="57"/>
@@ -16832,7 +16832,7 @@
       <c r="A380" s="57"/>
       <c r="B380" s="57"/>
       <c r="C380" s="58"/>
-      <c r="D380" s="115"/>
+      <c r="D380" s="113"/>
       <c r="E380" s="57"/>
       <c r="F380" s="57"/>
       <c r="G380" s="57"/>
@@ -16863,7 +16863,7 @@
       <c r="A381" s="57"/>
       <c r="B381" s="57"/>
       <c r="C381" s="58"/>
-      <c r="D381" s="115"/>
+      <c r="D381" s="113"/>
       <c r="E381" s="57"/>
       <c r="F381" s="57"/>
       <c r="G381" s="57"/>
@@ -16894,7 +16894,7 @@
       <c r="A382" s="57"/>
       <c r="B382" s="57"/>
       <c r="C382" s="58"/>
-      <c r="D382" s="115"/>
+      <c r="D382" s="113"/>
       <c r="E382" s="57"/>
       <c r="F382" s="57"/>
       <c r="G382" s="57"/>
@@ -16925,7 +16925,7 @@
       <c r="A383" s="57"/>
       <c r="B383" s="57"/>
       <c r="C383" s="58"/>
-      <c r="D383" s="115"/>
+      <c r="D383" s="113"/>
       <c r="E383" s="57"/>
       <c r="F383" s="57"/>
       <c r="G383" s="57"/>
@@ -16956,7 +16956,7 @@
       <c r="A384" s="57"/>
       <c r="B384" s="57"/>
       <c r="C384" s="58"/>
-      <c r="D384" s="115"/>
+      <c r="D384" s="113"/>
       <c r="E384" s="57"/>
       <c r="F384" s="57"/>
       <c r="G384" s="57"/>
@@ -16987,7 +16987,7 @@
       <c r="A385" s="57"/>
       <c r="B385" s="57"/>
       <c r="C385" s="58"/>
-      <c r="D385" s="115"/>
+      <c r="D385" s="113"/>
       <c r="E385" s="57"/>
       <c r="F385" s="57"/>
       <c r="G385" s="57"/>
@@ -17018,7 +17018,7 @@
       <c r="A386" s="57"/>
       <c r="B386" s="57"/>
       <c r="C386" s="58"/>
-      <c r="D386" s="115"/>
+      <c r="D386" s="113"/>
       <c r="E386" s="57"/>
       <c r="F386" s="57"/>
       <c r="G386" s="57"/>
@@ -17049,7 +17049,7 @@
       <c r="A387" s="57"/>
       <c r="B387" s="57"/>
       <c r="C387" s="58"/>
-      <c r="D387" s="115"/>
+      <c r="D387" s="113"/>
       <c r="E387" s="57"/>
       <c r="F387" s="57"/>
       <c r="G387" s="57"/>
@@ -17080,7 +17080,7 @@
       <c r="A388" s="57"/>
       <c r="B388" s="57"/>
       <c r="C388" s="58"/>
-      <c r="D388" s="115"/>
+      <c r="D388" s="113"/>
       <c r="E388" s="57"/>
       <c r="F388" s="57"/>
       <c r="G388" s="57"/>
@@ -17111,7 +17111,7 @@
       <c r="A389" s="57"/>
       <c r="B389" s="57"/>
       <c r="C389" s="58"/>
-      <c r="D389" s="115"/>
+      <c r="D389" s="113"/>
       <c r="E389" s="57"/>
       <c r="F389" s="57"/>
       <c r="G389" s="57"/>
@@ -17142,7 +17142,7 @@
       <c r="A390" s="57"/>
       <c r="B390" s="57"/>
       <c r="C390" s="58"/>
-      <c r="D390" s="115"/>
+      <c r="D390" s="113"/>
       <c r="E390" s="57"/>
       <c r="F390" s="57"/>
       <c r="G390" s="57"/>
@@ -17173,7 +17173,7 @@
       <c r="A391" s="57"/>
       <c r="B391" s="57"/>
       <c r="C391" s="58"/>
-      <c r="D391" s="115"/>
+      <c r="D391" s="113"/>
       <c r="E391" s="57"/>
       <c r="F391" s="57"/>
       <c r="G391" s="57"/>
@@ -17204,7 +17204,7 @@
       <c r="A392" s="57"/>
       <c r="B392" s="57"/>
       <c r="C392" s="58"/>
-      <c r="D392" s="115"/>
+      <c r="D392" s="113"/>
       <c r="E392" s="57"/>
       <c r="F392" s="57"/>
       <c r="G392" s="57"/>
@@ -17235,7 +17235,7 @@
       <c r="A393" s="57"/>
       <c r="B393" s="57"/>
       <c r="C393" s="58"/>
-      <c r="D393" s="115"/>
+      <c r="D393" s="113"/>
       <c r="E393" s="57"/>
       <c r="F393" s="57"/>
       <c r="G393" s="57"/>
@@ -17266,7 +17266,7 @@
       <c r="A394" s="57"/>
       <c r="B394" s="57"/>
       <c r="C394" s="58"/>
-      <c r="D394" s="115"/>
+      <c r="D394" s="113"/>
       <c r="E394" s="57"/>
       <c r="F394" s="57"/>
       <c r="G394" s="57"/>
@@ -17297,7 +17297,7 @@
       <c r="A395" s="57"/>
       <c r="B395" s="57"/>
       <c r="C395" s="58"/>
-      <c r="D395" s="115"/>
+      <c r="D395" s="113"/>
       <c r="E395" s="57"/>
       <c r="F395" s="57"/>
       <c r="G395" s="57"/>
@@ -17328,7 +17328,7 @@
       <c r="A396" s="57"/>
       <c r="B396" s="57"/>
       <c r="C396" s="58"/>
-      <c r="D396" s="115"/>
+      <c r="D396" s="113"/>
       <c r="E396" s="57"/>
       <c r="F396" s="57"/>
       <c r="G396" s="57"/>
@@ -17359,7 +17359,7 @@
       <c r="A397" s="57"/>
       <c r="B397" s="57"/>
       <c r="C397" s="58"/>
-      <c r="D397" s="115"/>
+      <c r="D397" s="113"/>
       <c r="E397" s="57"/>
       <c r="F397" s="57"/>
       <c r="G397" s="57"/>
@@ -17390,7 +17390,7 @@
       <c r="A398" s="57"/>
       <c r="B398" s="57"/>
       <c r="C398" s="58"/>
-      <c r="D398" s="115"/>
+      <c r="D398" s="113"/>
       <c r="E398" s="57"/>
       <c r="F398" s="57"/>
       <c r="G398" s="57"/>
@@ -17421,7 +17421,7 @@
       <c r="A399" s="57"/>
       <c r="B399" s="57"/>
       <c r="C399" s="58"/>
-      <c r="D399" s="115"/>
+      <c r="D399" s="113"/>
       <c r="E399" s="57"/>
       <c r="F399" s="57"/>
       <c r="G399" s="57"/>
@@ -17452,7 +17452,7 @@
       <c r="A400" s="57"/>
       <c r="B400" s="57"/>
       <c r="C400" s="58"/>
-      <c r="D400" s="115"/>
+      <c r="D400" s="113"/>
       <c r="E400" s="57"/>
       <c r="F400" s="57"/>
       <c r="G400" s="57"/>
@@ -17483,7 +17483,7 @@
       <c r="A401" s="57"/>
       <c r="B401" s="57"/>
       <c r="C401" s="58"/>
-      <c r="D401" s="115"/>
+      <c r="D401" s="113"/>
       <c r="E401" s="57"/>
       <c r="F401" s="57"/>
       <c r="G401" s="57"/>
@@ -17514,7 +17514,7 @@
       <c r="A402" s="57"/>
       <c r="B402" s="57"/>
       <c r="C402" s="58"/>
-      <c r="D402" s="115"/>
+      <c r="D402" s="113"/>
       <c r="E402" s="57"/>
       <c r="F402" s="57"/>
       <c r="G402" s="57"/>
@@ -17545,7 +17545,7 @@
       <c r="A403" s="57"/>
       <c r="B403" s="57"/>
       <c r="C403" s="58"/>
-      <c r="D403" s="115"/>
+      <c r="D403" s="113"/>
       <c r="E403" s="57"/>
       <c r="F403" s="57"/>
       <c r="G403" s="57"/>
@@ -17576,7 +17576,7 @@
       <c r="A404" s="57"/>
       <c r="B404" s="57"/>
       <c r="C404" s="58"/>
-      <c r="D404" s="115"/>
+      <c r="D404" s="113"/>
       <c r="E404" s="57"/>
       <c r="F404" s="57"/>
       <c r="G404" s="57"/>
@@ -17607,7 +17607,7 @@
       <c r="A405" s="57"/>
       <c r="B405" s="57"/>
       <c r="C405" s="58"/>
-      <c r="D405" s="115"/>
+      <c r="D405" s="113"/>
       <c r="E405" s="57"/>
       <c r="F405" s="57"/>
       <c r="G405" s="57"/>
@@ -17638,7 +17638,7 @@
       <c r="A406" s="57"/>
       <c r="B406" s="57"/>
       <c r="C406" s="58"/>
-      <c r="D406" s="115"/>
+      <c r="D406" s="113"/>
       <c r="E406" s="57"/>
       <c r="F406" s="57"/>
       <c r="G406" s="57"/>
@@ -17669,7 +17669,7 @@
       <c r="A407" s="57"/>
       <c r="B407" s="57"/>
       <c r="C407" s="58"/>
-      <c r="D407" s="115"/>
+      <c r="D407" s="113"/>
       <c r="E407" s="57"/>
       <c r="F407" s="57"/>
       <c r="G407" s="57"/>
@@ -17700,7 +17700,7 @@
       <c r="A408" s="57"/>
       <c r="B408" s="57"/>
       <c r="C408" s="58"/>
-      <c r="D408" s="115"/>
+      <c r="D408" s="113"/>
       <c r="E408" s="57"/>
       <c r="F408" s="57"/>
       <c r="G408" s="57"/>
@@ -17731,7 +17731,7 @@
       <c r="A409" s="57"/>
       <c r="B409" s="57"/>
       <c r="C409" s="58"/>
-      <c r="D409" s="115"/>
+      <c r="D409" s="113"/>
       <c r="E409" s="57"/>
       <c r="F409" s="57"/>
       <c r="G409" s="57"/>
@@ -17762,7 +17762,7 @@
       <c r="A410" s="57"/>
       <c r="B410" s="57"/>
       <c r="C410" s="58"/>
-      <c r="D410" s="115"/>
+      <c r="D410" s="113"/>
       <c r="E410" s="57"/>
       <c r="F410" s="57"/>
       <c r="G410" s="57"/>
@@ -17793,7 +17793,7 @@
       <c r="A411" s="57"/>
       <c r="B411" s="57"/>
       <c r="C411" s="58"/>
-      <c r="D411" s="115"/>
+      <c r="D411" s="113"/>
       <c r="E411" s="57"/>
       <c r="F411" s="57"/>
       <c r="G411" s="57"/>
@@ -17824,7 +17824,7 @@
       <c r="A412" s="57"/>
       <c r="B412" s="57"/>
       <c r="C412" s="58"/>
-      <c r="D412" s="115"/>
+      <c r="D412" s="113"/>
       <c r="E412" s="57"/>
       <c r="F412" s="57"/>
       <c r="G412" s="57"/>
@@ -17855,7 +17855,7 @@
       <c r="A413" s="57"/>
       <c r="B413" s="57"/>
       <c r="C413" s="58"/>
-      <c r="D413" s="115"/>
+      <c r="D413" s="113"/>
       <c r="E413" s="57"/>
       <c r="F413" s="57"/>
       <c r="G413" s="57"/>
@@ -17886,7 +17886,7 @@
       <c r="A414" s="57"/>
       <c r="B414" s="57"/>
       <c r="C414" s="58"/>
-      <c r="D414" s="115"/>
+      <c r="D414" s="113"/>
       <c r="E414" s="57"/>
       <c r="F414" s="57"/>
       <c r="G414" s="57"/>
@@ -17917,7 +17917,7 @@
       <c r="A415" s="57"/>
       <c r="B415" s="57"/>
       <c r="C415" s="58"/>
-      <c r="D415" s="115"/>
+      <c r="D415" s="113"/>
       <c r="E415" s="57"/>
       <c r="F415" s="57"/>
       <c r="G415" s="57"/>
@@ -17948,7 +17948,7 @@
       <c r="A416" s="57"/>
       <c r="B416" s="57"/>
       <c r="C416" s="58"/>
-      <c r="D416" s="115"/>
+      <c r="D416" s="113"/>
       <c r="E416" s="57"/>
       <c r="F416" s="57"/>
       <c r="G416" s="57"/>
@@ -17979,7 +17979,7 @@
       <c r="A417" s="57"/>
       <c r="B417" s="57"/>
       <c r="C417" s="58"/>
-      <c r="D417" s="115"/>
+      <c r="D417" s="113"/>
       <c r="E417" s="57"/>
       <c r="F417" s="57"/>
       <c r="G417" s="57"/>
@@ -18010,7 +18010,7 @@
       <c r="A418" s="57"/>
       <c r="B418" s="57"/>
       <c r="C418" s="58"/>
-      <c r="D418" s="115"/>
+      <c r="D418" s="113"/>
       <c r="E418" s="57"/>
       <c r="F418" s="57"/>
       <c r="G418" s="57"/>
@@ -18041,7 +18041,7 @@
       <c r="A419" s="57"/>
       <c r="B419" s="57"/>
       <c r="C419" s="58"/>
-      <c r="D419" s="115"/>
+      <c r="D419" s="113"/>
       <c r="E419" s="57"/>
       <c r="F419" s="57"/>
       <c r="G419" s="57"/>
@@ -18072,7 +18072,7 @@
       <c r="A420" s="57"/>
       <c r="B420" s="57"/>
       <c r="C420" s="58"/>
-      <c r="D420" s="115"/>
+      <c r="D420" s="113"/>
       <c r="E420" s="57"/>
       <c r="F420" s="57"/>
       <c r="G420" s="57"/>
@@ -18103,7 +18103,7 @@
       <c r="A421" s="57"/>
       <c r="B421" s="57"/>
       <c r="C421" s="58"/>
-      <c r="D421" s="115"/>
+      <c r="D421" s="113"/>
       <c r="E421" s="57"/>
       <c r="F421" s="57"/>
       <c r="G421" s="57"/>
@@ -18134,7 +18134,7 @@
       <c r="A422" s="57"/>
       <c r="B422" s="57"/>
       <c r="C422" s="58"/>
-      <c r="D422" s="115"/>
+      <c r="D422" s="113"/>
       <c r="E422" s="57"/>
       <c r="F422" s="57"/>
       <c r="G422" s="57"/>
@@ -18165,7 +18165,7 @@
       <c r="A423" s="57"/>
       <c r="B423" s="57"/>
       <c r="C423" s="58"/>
-      <c r="D423" s="115"/>
+      <c r="D423" s="113"/>
       <c r="E423" s="57"/>
       <c r="F423" s="57"/>
       <c r="G423" s="57"/>
@@ -18196,7 +18196,7 @@
       <c r="A424" s="57"/>
       <c r="B424" s="57"/>
       <c r="C424" s="58"/>
-      <c r="D424" s="115"/>
+      <c r="D424" s="113"/>
       <c r="E424" s="57"/>
       <c r="F424" s="57"/>
       <c r="G424" s="57"/>
@@ -18227,7 +18227,7 @@
       <c r="A425" s="57"/>
       <c r="B425" s="57"/>
       <c r="C425" s="58"/>
-      <c r="D425" s="115"/>
+      <c r="D425" s="113"/>
       <c r="E425" s="57"/>
       <c r="F425" s="57"/>
       <c r="G425" s="57"/>
@@ -18258,7 +18258,7 @@
       <c r="A426" s="57"/>
       <c r="B426" s="57"/>
       <c r="C426" s="58"/>
-      <c r="D426" s="115"/>
+      <c r="D426" s="113"/>
       <c r="E426" s="57"/>
       <c r="F426" s="57"/>
       <c r="G426" s="57"/>
@@ -18289,7 +18289,7 @@
       <c r="A427" s="57"/>
       <c r="B427" s="57"/>
       <c r="C427" s="58"/>
-      <c r="D427" s="115"/>
+      <c r="D427" s="113"/>
       <c r="E427" s="57"/>
       <c r="F427" s="57"/>
       <c r="G427" s="57"/>
@@ -18320,7 +18320,7 @@
       <c r="A428" s="57"/>
       <c r="B428" s="57"/>
       <c r="C428" s="58"/>
-      <c r="D428" s="115"/>
+      <c r="D428" s="113"/>
       <c r="E428" s="57"/>
       <c r="F428" s="57"/>
       <c r="G428" s="57"/>
@@ -18351,7 +18351,7 @@
       <c r="A429" s="57"/>
       <c r="B429" s="57"/>
       <c r="C429" s="58"/>
-      <c r="D429" s="115"/>
+      <c r="D429" s="113"/>
       <c r="E429" s="57"/>
       <c r="F429" s="57"/>
       <c r="G429" s="57"/>
@@ -18382,7 +18382,7 @@
       <c r="A430" s="57"/>
       <c r="B430" s="57"/>
       <c r="C430" s="58"/>
-      <c r="D430" s="115"/>
+      <c r="D430" s="113"/>
       <c r="E430" s="57"/>
       <c r="F430" s="57"/>
       <c r="G430" s="57"/>
@@ -18413,7 +18413,7 @@
       <c r="A431" s="57"/>
       <c r="B431" s="57"/>
       <c r="C431" s="58"/>
-      <c r="D431" s="115"/>
+      <c r="D431" s="113"/>
       <c r="E431" s="57"/>
       <c r="F431" s="57"/>
       <c r="G431" s="57"/>
@@ -18444,7 +18444,7 @@
       <c r="A432" s="57"/>
       <c r="B432" s="57"/>
       <c r="C432" s="58"/>
-      <c r="D432" s="115"/>
+      <c r="D432" s="113"/>
       <c r="E432" s="57"/>
       <c r="F432" s="57"/>
       <c r="G432" s="57"/>
@@ -18475,7 +18475,7 @@
       <c r="A433" s="57"/>
       <c r="B433" s="57"/>
       <c r="C433" s="58"/>
-      <c r="D433" s="115"/>
+      <c r="D433" s="113"/>
       <c r="E433" s="57"/>
       <c r="F433" s="57"/>
       <c r="G433" s="57"/>
@@ -18506,7 +18506,7 @@
       <c r="A434" s="57"/>
       <c r="B434" s="57"/>
       <c r="C434" s="58"/>
-      <c r="D434" s="115"/>
+      <c r="D434" s="113"/>
       <c r="E434" s="57"/>
       <c r="F434" s="57"/>
       <c r="G434" s="57"/>
@@ -18537,7 +18537,7 @@
       <c r="A435" s="57"/>
       <c r="B435" s="57"/>
       <c r="C435" s="58"/>
-      <c r="D435" s="115"/>
+      <c r="D435" s="113"/>
       <c r="E435" s="57"/>
       <c r="F435" s="57"/>
       <c r="G435" s="57"/>
@@ -18568,7 +18568,7 @@
       <c r="A436" s="57"/>
       <c r="B436" s="57"/>
       <c r="C436" s="58"/>
-      <c r="D436" s="115"/>
+      <c r="D436" s="113"/>
       <c r="E436" s="57"/>
       <c r="F436" s="57"/>
       <c r="G436" s="57"/>
@@ -18599,7 +18599,7 @@
       <c r="A437" s="57"/>
       <c r="B437" s="57"/>
       <c r="C437" s="58"/>
-      <c r="D437" s="115"/>
+      <c r="D437" s="113"/>
       <c r="E437" s="57"/>
       <c r="F437" s="57"/>
       <c r="G437" s="57"/>
@@ -18630,7 +18630,7 @@
       <c r="A438" s="57"/>
       <c r="B438" s="57"/>
       <c r="C438" s="58"/>
-      <c r="D438" s="115"/>
+      <c r="D438" s="113"/>
       <c r="E438" s="57"/>
       <c r="F438" s="57"/>
       <c r="G438" s="57"/>
@@ -18661,7 +18661,7 @@
       <c r="A439" s="57"/>
       <c r="B439" s="57"/>
       <c r="C439" s="58"/>
-      <c r="D439" s="115"/>
+      <c r="D439" s="113"/>
       <c r="E439" s="57"/>
       <c r="F439" s="57"/>
       <c r="G439" s="57"/>
@@ -18692,7 +18692,7 @@
       <c r="A440" s="57"/>
       <c r="B440" s="57"/>
       <c r="C440" s="58"/>
-      <c r="D440" s="115"/>
+      <c r="D440" s="113"/>
       <c r="E440" s="57"/>
       <c r="F440" s="57"/>
       <c r="G440" s="57"/>
@@ -18723,7 +18723,7 @@
       <c r="A441" s="57"/>
       <c r="B441" s="57"/>
       <c r="C441" s="58"/>
-      <c r="D441" s="115"/>
+      <c r="D441" s="113"/>
       <c r="E441" s="57"/>
       <c r="F441" s="57"/>
       <c r="G441" s="57"/>
@@ -18754,7 +18754,7 @@
       <c r="A442" s="57"/>
       <c r="B442" s="57"/>
       <c r="C442" s="58"/>
-      <c r="D442" s="115"/>
+      <c r="D442" s="113"/>
       <c r="E442" s="57"/>
       <c r="F442" s="57"/>
       <c r="G442" s="57"/>
@@ -18785,7 +18785,7 @@
       <c r="A443" s="57"/>
       <c r="B443" s="57"/>
       <c r="C443" s="58"/>
-      <c r="D443" s="115"/>
+      <c r="D443" s="113"/>
       <c r="E443" s="57"/>
       <c r="F443" s="57"/>
       <c r="G443" s="57"/>
@@ -18816,7 +18816,7 @@
       <c r="A444" s="57"/>
       <c r="B444" s="57"/>
       <c r="C444" s="58"/>
-      <c r="D444" s="115"/>
+      <c r="D444" s="113"/>
       <c r="E444" s="57"/>
       <c r="F444" s="57"/>
       <c r="G444" s="57"/>
@@ -18847,7 +18847,7 @@
       <c r="A445" s="57"/>
       <c r="B445" s="57"/>
       <c r="C445" s="58"/>
-      <c r="D445" s="115"/>
+      <c r="D445" s="113"/>
       <c r="E445" s="57"/>
       <c r="F445" s="57"/>
       <c r="G445" s="57"/>
@@ -18878,7 +18878,7 @@
       <c r="A446" s="57"/>
       <c r="B446" s="57"/>
       <c r="C446" s="58"/>
-      <c r="D446" s="115"/>
+      <c r="D446" s="113"/>
       <c r="E446" s="57"/>
       <c r="F446" s="57"/>
       <c r="G446" s="57"/>
@@ -18909,7 +18909,7 @@
       <c r="A447" s="57"/>
       <c r="B447" s="57"/>
       <c r="C447" s="58"/>
-      <c r="D447" s="115"/>
+      <c r="D447" s="113"/>
       <c r="E447" s="57"/>
       <c r="F447" s="57"/>
       <c r="G447" s="57"/>
@@ -18940,7 +18940,7 @@
       <c r="A448" s="57"/>
       <c r="B448" s="57"/>
       <c r="C448" s="58"/>
-      <c r="D448" s="115"/>
+      <c r="D448" s="113"/>
       <c r="E448" s="57"/>
       <c r="F448" s="57"/>
       <c r="G448" s="57"/>
@@ -18971,7 +18971,7 @@
       <c r="A449" s="57"/>
       <c r="B449" s="57"/>
       <c r="C449" s="58"/>
-      <c r="D449" s="115"/>
+      <c r="D449" s="113"/>
       <c r="E449" s="57"/>
       <c r="F449" s="57"/>
       <c r="G449" s="57"/>
@@ -19002,7 +19002,7 @@
       <c r="A450" s="57"/>
       <c r="B450" s="57"/>
       <c r="C450" s="58"/>
-      <c r="D450" s="115"/>
+      <c r="D450" s="113"/>
       <c r="E450" s="57"/>
       <c r="F450" s="57"/>
       <c r="G450" s="57"/>
@@ -19033,7 +19033,7 @@
       <c r="A451" s="57"/>
       <c r="B451" s="57"/>
       <c r="C451" s="58"/>
-      <c r="D451" s="115"/>
+      <c r="D451" s="113"/>
       <c r="E451" s="57"/>
       <c r="F451" s="57"/>
       <c r="G451" s="57"/>
@@ -19064,7 +19064,7 @@
       <c r="A452" s="57"/>
       <c r="B452" s="57"/>
       <c r="C452" s="58"/>
-      <c r="D452" s="115"/>
+      <c r="D452" s="113"/>
       <c r="E452" s="57"/>
       <c r="F452" s="57"/>
       <c r="G452" s="57"/>
@@ -19095,7 +19095,7 @@
       <c r="A453" s="57"/>
       <c r="B453" s="57"/>
       <c r="C453" s="58"/>
-      <c r="D453" s="115"/>
+      <c r="D453" s="113"/>
       <c r="E453" s="57"/>
       <c r="F453" s="57"/>
       <c r="G453" s="57"/>
@@ -19126,7 +19126,7 @@
       <c r="A454" s="57"/>
       <c r="B454" s="57"/>
       <c r="C454" s="58"/>
-      <c r="D454" s="115"/>
+      <c r="D454" s="113"/>
       <c r="E454" s="57"/>
       <c r="F454" s="57"/>
       <c r="G454" s="57"/>
@@ -19157,7 +19157,7 @@
       <c r="A455" s="57"/>
       <c r="B455" s="57"/>
       <c r="C455" s="58"/>
-      <c r="D455" s="115"/>
+      <c r="D455" s="113"/>
       <c r="E455" s="57"/>
       <c r="F455" s="57"/>
       <c r="G455" s="57"/>
@@ -19188,7 +19188,7 @@
       <c r="A456" s="57"/>
       <c r="B456" s="57"/>
       <c r="C456" s="58"/>
-      <c r="D456" s="115"/>
+      <c r="D456" s="113"/>
       <c r="E456" s="57"/>
       <c r="F456" s="57"/>
       <c r="G456" s="57"/>
@@ -19219,7 +19219,7 @@
       <c r="A457" s="57"/>
       <c r="B457" s="57"/>
       <c r="C457" s="58"/>
-      <c r="D457" s="115"/>
+      <c r="D457" s="113"/>
       <c r="E457" s="57"/>
       <c r="F457" s="57"/>
       <c r="G457" s="57"/>
@@ -19250,7 +19250,7 @@
       <c r="A458" s="57"/>
       <c r="B458" s="57"/>
       <c r="C458" s="58"/>
-      <c r="D458" s="115"/>
+      <c r="D458" s="113"/>
       <c r="E458" s="57"/>
       <c r="F458" s="57"/>
       <c r="G458" s="57"/>
@@ -19281,7 +19281,7 @@
       <c r="A459" s="57"/>
       <c r="B459" s="57"/>
       <c r="C459" s="58"/>
-      <c r="D459" s="115"/>
+      <c r="D459" s="113"/>
       <c r="E459" s="57"/>
       <c r="F459" s="57"/>
       <c r="G459" s="57"/>
@@ -19312,7 +19312,7 @@
       <c r="A460" s="57"/>
       <c r="B460" s="57"/>
       <c r="C460" s="58"/>
-      <c r="D460" s="115"/>
+      <c r="D460" s="113"/>
       <c r="E460" s="57"/>
       <c r="F460" s="57"/>
       <c r="G460" s="57"/>
@@ -19343,7 +19343,7 @@
       <c r="A461" s="57"/>
       <c r="B461" s="57"/>
       <c r="C461" s="58"/>
-      <c r="D461" s="115"/>
+      <c r="D461" s="113"/>
       <c r="E461" s="57"/>
       <c r="F461" s="57"/>
       <c r="G461" s="57"/>
@@ -19374,7 +19374,7 @@
       <c r="A462" s="57"/>
       <c r="B462" s="57"/>
       <c r="C462" s="58"/>
-      <c r="D462" s="115"/>
+      <c r="D462" s="113"/>
       <c r="E462" s="57"/>
       <c r="F462" s="57"/>
       <c r="G462" s="57"/>
@@ -19405,7 +19405,7 @@
       <c r="A463" s="57"/>
       <c r="B463" s="57"/>
       <c r="C463" s="58"/>
-      <c r="D463" s="115"/>
+      <c r="D463" s="113"/>
       <c r="E463" s="57"/>
       <c r="F463" s="57"/>
       <c r="G463" s="57"/>
@@ -19436,7 +19436,7 @@
       <c r="A464" s="57"/>
       <c r="B464" s="57"/>
       <c r="C464" s="58"/>
-      <c r="D464" s="115"/>
+      <c r="D464" s="113"/>
       <c r="E464" s="57"/>
       <c r="F464" s="57"/>
       <c r="G464" s="57"/>
@@ -19467,7 +19467,7 @@
       <c r="A465" s="57"/>
       <c r="B465" s="57"/>
       <c r="C465" s="58"/>
-      <c r="D465" s="115"/>
+      <c r="D465" s="113"/>
       <c r="E465" s="57"/>
       <c r="F465" s="57"/>
       <c r="G465" s="57"/>
@@ -19498,7 +19498,7 @@
       <c r="A466" s="57"/>
       <c r="B466" s="57"/>
       <c r="C466" s="58"/>
-      <c r="D466" s="115"/>
+      <c r="D466" s="113"/>
       <c r="E466" s="57"/>
       <c r="F466" s="57"/>
       <c r="G466" s="57"/>
@@ -19529,7 +19529,7 @@
       <c r="A467" s="57"/>
       <c r="B467" s="57"/>
       <c r="C467" s="58"/>
-      <c r="D467" s="115"/>
+      <c r="D467" s="113"/>
       <c r="E467" s="57"/>
       <c r="F467" s="57"/>
       <c r="G467" s="57"/>
@@ -19560,7 +19560,7 @@
       <c r="A468" s="57"/>
       <c r="B468" s="57"/>
       <c r="C468" s="58"/>
-      <c r="D468" s="115"/>
+      <c r="D468" s="113"/>
       <c r="E468" s="57"/>
       <c r="F468" s="57"/>
       <c r="G468" s="57"/>
@@ -19591,7 +19591,7 @@
       <c r="A469" s="57"/>
       <c r="B469" s="57"/>
       <c r="C469" s="58"/>
-      <c r="D469" s="115"/>
+      <c r="D469" s="113"/>
       <c r="E469" s="57"/>
       <c r="F469" s="57"/>
       <c r="G469" s="57"/>
@@ -19622,7 +19622,7 @@
       <c r="A470" s="57"/>
       <c r="B470" s="57"/>
       <c r="C470" s="58"/>
-      <c r="D470" s="115"/>
+      <c r="D470" s="113"/>
       <c r="E470" s="57"/>
       <c r="F470" s="57"/>
       <c r="G470" s="57"/>
@@ -19653,7 +19653,7 @@
       <c r="A471" s="57"/>
       <c r="B471" s="57"/>
       <c r="C471" s="58"/>
-      <c r="D471" s="115"/>
+      <c r="D471" s="113"/>
       <c r="E471" s="57"/>
       <c r="F471" s="57"/>
       <c r="G471" s="57"/>
@@ -19684,7 +19684,7 @@
       <c r="A472" s="57"/>
       <c r="B472" s="57"/>
       <c r="C472" s="58"/>
-      <c r="D472" s="115"/>
+      <c r="D472" s="113"/>
       <c r="E472" s="57"/>
       <c r="F472" s="57"/>
       <c r="G472" s="57"/>
@@ -19715,7 +19715,7 @@
       <c r="A473" s="57"/>
       <c r="B473" s="57"/>
       <c r="C473" s="58"/>
-      <c r="D473" s="115"/>
+      <c r="D473" s="113"/>
       <c r="E473" s="57"/>
       <c r="F473" s="57"/>
       <c r="G473" s="57"/>
@@ -19746,7 +19746,7 @@
       <c r="A474" s="57"/>
       <c r="B474" s="57"/>
       <c r="C474" s="58"/>
-      <c r="D474" s="115"/>
+      <c r="D474" s="113"/>
       <c r="E474" s="57"/>
       <c r="F474" s="57"/>
       <c r="G474" s="57"/>
@@ -19777,7 +19777,7 @@
       <c r="A475" s="57"/>
       <c r="B475" s="57"/>
       <c r="C475" s="58"/>
-      <c r="D475" s="115"/>
+      <c r="D475" s="113"/>
       <c r="E475" s="57"/>
       <c r="F475" s="57"/>
       <c r="G475" s="57"/>
@@ -19808,7 +19808,7 @@
       <c r="A476" s="57"/>
       <c r="B476" s="57"/>
       <c r="C476" s="58"/>
-      <c r="D476" s="115"/>
+      <c r="D476" s="113"/>
       <c r="E476" s="57"/>
       <c r="F476" s="57"/>
       <c r="G476" s="57"/>
@@ -19839,7 +19839,7 @@
       <c r="A477" s="57"/>
       <c r="B477" s="57"/>
       <c r="C477" s="58"/>
-      <c r="D477" s="115"/>
+      <c r="D477" s="113"/>
       <c r="E477" s="57"/>
       <c r="F477" s="57"/>
       <c r="G477" s="57"/>
@@ -19870,7 +19870,7 @@
       <c r="A478" s="57"/>
       <c r="B478" s="57"/>
       <c r="C478" s="58"/>
-      <c r="D478" s="115"/>
+      <c r="D478" s="113"/>
       <c r="E478" s="57"/>
       <c r="F478" s="57"/>
       <c r="G478" s="57"/>
@@ -19901,7 +19901,7 @@
       <c r="A479" s="57"/>
       <c r="B479" s="57"/>
       <c r="C479" s="58"/>
-      <c r="D479" s="115"/>
+      <c r="D479" s="113"/>
       <c r="E479" s="57"/>
       <c r="F479" s="57"/>
       <c r="G479" s="57"/>
@@ -19932,7 +19932,7 @@
       <c r="A480" s="57"/>
       <c r="B480" s="57"/>
       <c r="C480" s="58"/>
-      <c r="D480" s="115"/>
+      <c r="D480" s="113"/>
       <c r="E480" s="57"/>
       <c r="F480" s="57"/>
       <c r="G480" s="57"/>
@@ -19963,7 +19963,7 @@
       <c r="A481" s="57"/>
       <c r="B481" s="57"/>
       <c r="C481" s="58"/>
-      <c r="D481" s="115"/>
+      <c r="D481" s="113"/>
       <c r="E481" s="57"/>
       <c r="F481" s="57"/>
       <c r="G481" s="57"/>
@@ -19994,7 +19994,7 @@
       <c r="A482" s="57"/>
       <c r="B482" s="57"/>
       <c r="C482" s="58"/>
-      <c r="D482" s="115"/>
+      <c r="D482" s="113"/>
       <c r="E482" s="57"/>
       <c r="F482" s="57"/>
       <c r="G482" s="57"/>
@@ -20025,7 +20025,7 @@
       <c r="A483" s="57"/>
       <c r="B483" s="57"/>
       <c r="C483" s="58"/>
-      <c r="D483" s="115"/>
+      <c r="D483" s="113"/>
       <c r="E483" s="57"/>
       <c r="F483" s="57"/>
       <c r="G483" s="57"/>
@@ -20056,7 +20056,7 @@
       <c r="A484" s="57"/>
       <c r="B484" s="57"/>
       <c r="C484" s="58"/>
-      <c r="D484" s="115"/>
+      <c r="D484" s="113"/>
       <c r="E484" s="57"/>
       <c r="F484" s="57"/>
       <c r="G484" s="57"/>
@@ -20087,7 +20087,7 @@
       <c r="A485" s="57"/>
       <c r="B485" s="57"/>
       <c r="C485" s="58"/>
-      <c r="D485" s="115"/>
+      <c r="D485" s="113"/>
       <c r="E485" s="57"/>
       <c r="F485" s="57"/>
       <c r="G485" s="57"/>
@@ -20118,7 +20118,7 @@
       <c r="A486" s="57"/>
       <c r="B486" s="57"/>
       <c r="C486" s="58"/>
-      <c r="D486" s="115"/>
+      <c r="D486" s="113"/>
       <c r="E486" s="57"/>
       <c r="F486" s="57"/>
       <c r="G486" s="57"/>
@@ -20149,7 +20149,7 @@
       <c r="A487" s="57"/>
       <c r="B487" s="57"/>
       <c r="C487" s="58"/>
-      <c r="D487" s="115"/>
+      <c r="D487" s="113"/>
       <c r="E487" s="57"/>
       <c r="F487" s="57"/>
       <c r="G487" s="57"/>
@@ -20180,7 +20180,7 @@
       <c r="A488" s="57"/>
       <c r="B488" s="57"/>
       <c r="C488" s="58"/>
-      <c r="D488" s="115"/>
+      <c r="D488" s="113"/>
       <c r="E488" s="57"/>
       <c r="F488" s="57"/>
       <c r="G488" s="57"/>
@@ -20211,7 +20211,7 @@
       <c r="A489" s="57"/>
       <c r="B489" s="57"/>
       <c r="C489" s="58"/>
-      <c r="D489" s="115"/>
+      <c r="D489" s="113"/>
       <c r="E489" s="57"/>
       <c r="F489" s="57"/>
       <c r="G489" s="57"/>
@@ -20242,7 +20242,7 @@
       <c r="A490" s="57"/>
       <c r="B490" s="57"/>
       <c r="C490" s="58"/>
-      <c r="D490" s="115"/>
+      <c r="D490" s="113"/>
       <c r="E490" s="57"/>
       <c r="F490" s="57"/>
       <c r="G490" s="57"/>
@@ -20273,7 +20273,7 @@
       <c r="A491" s="57"/>
       <c r="B491" s="57"/>
       <c r="C491" s="58"/>
-      <c r="D491" s="115"/>
+      <c r="D491" s="113"/>
       <c r="E491" s="57"/>
       <c r="F491" s="57"/>
       <c r="G491" s="57"/>
@@ -20304,7 +20304,7 @@
       <c r="A492" s="57"/>
       <c r="B492" s="57"/>
       <c r="C492" s="58"/>
-      <c r="D492" s="115"/>
+      <c r="D492" s="113"/>
       <c r="E492" s="57"/>
       <c r="F492" s="57"/>
       <c r="G492" s="57"/>
@@ -20335,7 +20335,7 @@
       <c r="A493" s="57"/>
       <c r="B493" s="57"/>
       <c r="C493" s="58"/>
-      <c r="D493" s="115"/>
+      <c r="D493" s="113"/>
       <c r="E493" s="57"/>
       <c r="F493" s="57"/>
       <c r="G493" s="57"/>
@@ -20366,7 +20366,7 @@
       <c r="A494" s="57"/>
       <c r="B494" s="57"/>
       <c r="C494" s="58"/>
-      <c r="D494" s="115"/>
+      <c r="D494" s="113"/>
       <c r="E494" s="57"/>
       <c r="F494" s="57"/>
       <c r="G494" s="57"/>
@@ -20397,7 +20397,7 @@
       <c r="A495" s="57"/>
       <c r="B495" s="57"/>
       <c r="C495" s="58"/>
-      <c r="D495" s="115"/>
+      <c r="D495" s="113"/>
       <c r="E495" s="57"/>
       <c r="F495" s="57"/>
       <c r="G495" s="57"/>
@@ -20428,7 +20428,7 @@
       <c r="A496" s="57"/>
       <c r="B496" s="57"/>
       <c r="C496" s="58"/>
-      <c r="D496" s="115"/>
+      <c r="D496" s="113"/>
       <c r="E496" s="57"/>
       <c r="F496" s="57"/>
       <c r="G496" s="57"/>
@@ -20459,7 +20459,7 @@
       <c r="A497" s="57"/>
       <c r="B497" s="57"/>
       <c r="C497" s="58"/>
-      <c r="D497" s="115"/>
+      <c r="D497" s="113"/>
       <c r="E497" s="57"/>
       <c r="F497" s="57"/>
       <c r="G497" s="57"/>
@@ -20490,7 +20490,7 @@
       <c r="A498" s="57"/>
       <c r="B498" s="57"/>
       <c r="C498" s="58"/>
-      <c r="D498" s="115"/>
+      <c r="D498" s="113"/>
       <c r="E498" s="57"/>
       <c r="F498" s="57"/>
       <c r="G498" s="57"/>
@@ -20521,7 +20521,7 @@
       <c r="A499" s="57"/>
       <c r="B499" s="57"/>
       <c r="C499" s="58"/>
-      <c r="D499" s="115"/>
+      <c r="D499" s="113"/>
       <c r="E499" s="57"/>
       <c r="F499" s="57"/>
       <c r="G499" s="57"/>
@@ -20552,7 +20552,7 @@
       <c r="A500" s="57"/>
       <c r="B500" s="57"/>
       <c r="C500" s="58"/>
-      <c r="D500" s="115"/>
+      <c r="D500" s="113"/>
       <c r="E500" s="57"/>
       <c r="F500" s="57"/>
       <c r="G500" s="57"/>
@@ -20583,7 +20583,7 @@
       <c r="A501" s="57"/>
       <c r="B501" s="57"/>
       <c r="C501" s="58"/>
-      <c r="D501" s="115"/>
+      <c r="D501" s="113"/>
       <c r="E501" s="57"/>
       <c r="F501" s="57"/>
       <c r="G501" s="57"/>
@@ -20614,7 +20614,7 @@
       <c r="A502" s="57"/>
       <c r="B502" s="57"/>
       <c r="C502" s="58"/>
-      <c r="D502" s="115"/>
+      <c r="D502" s="113"/>
       <c r="E502" s="57"/>
       <c r="F502" s="57"/>
       <c r="G502" s="57"/>
@@ -20645,7 +20645,7 @@
       <c r="A503" s="57"/>
       <c r="B503" s="57"/>
       <c r="C503" s="58"/>
-      <c r="D503" s="115"/>
+      <c r="D503" s="113"/>
       <c r="E503" s="57"/>
       <c r="F503" s="57"/>
       <c r="G503" s="57"/>
@@ -20676,7 +20676,7 @@
       <c r="A504" s="57"/>
       <c r="B504" s="57"/>
       <c r="C504" s="58"/>
-      <c r="D504" s="115"/>
+      <c r="D504" s="113"/>
       <c r="E504" s="57"/>
       <c r="F504" s="57"/>
       <c r="G504" s="57"/>
@@ -20707,7 +20707,7 @@
       <c r="A505" s="57"/>
       <c r="B505" s="57"/>
       <c r="C505" s="58"/>
-      <c r="D505" s="115"/>
+      <c r="D505" s="113"/>
       <c r="E505" s="57"/>
       <c r="F505" s="57"/>
       <c r="G505" s="57"/>
@@ -20738,7 +20738,7 @@
       <c r="A506" s="57"/>
       <c r="B506" s="57"/>
       <c r="C506" s="58"/>
-      <c r="D506" s="115"/>
+      <c r="D506" s="113"/>
       <c r="E506" s="57"/>
       <c r="F506" s="57"/>
       <c r="G506" s="57"/>
@@ -20769,7 +20769,7 @@
       <c r="A507" s="57"/>
       <c r="B507" s="57"/>
       <c r="C507" s="58"/>
-      <c r="D507" s="115"/>
+      <c r="D507" s="113"/>
       <c r="E507" s="57"/>
       <c r="F507" s="57"/>
       <c r="G507" s="57"/>
@@ -20800,7 +20800,7 @@
       <c r="A508" s="57"/>
       <c r="B508" s="57"/>
       <c r="C508" s="58"/>
-      <c r="D508" s="115"/>
+      <c r="D508" s="113"/>
       <c r="E508" s="57"/>
       <c r="F508" s="57"/>
       <c r="G508" s="57"/>
@@ -20831,7 +20831,7 @@
       <c r="A509" s="57"/>
       <c r="B509" s="57"/>
       <c r="C509" s="58"/>
-      <c r="D509" s="115"/>
+      <c r="D509" s="113"/>
       <c r="E509" s="57"/>
       <c r="F509" s="57"/>
       <c r="G509" s="57"/>
@@ -20862,7 +20862,7 @@
       <c r="A510" s="57"/>
       <c r="B510" s="57"/>
       <c r="C510" s="58"/>
-      <c r="D510" s="115"/>
+      <c r="D510" s="113"/>
       <c r="E510" s="57"/>
       <c r="F510" s="57"/>
       <c r="G510" s="57"/>
@@ -20893,7 +20893,7 @@
       <c r="A511" s="57"/>
       <c r="B511" s="57"/>
       <c r="C511" s="58"/>
-      <c r="D511" s="115"/>
+      <c r="D511" s="113"/>
       <c r="E511" s="57"/>
       <c r="F511" s="57"/>
       <c r="G511" s="57"/>
@@ -20924,7 +20924,7 @@
       <c r="A512" s="57"/>
       <c r="B512" s="57"/>
       <c r="C512" s="58"/>
-      <c r="D512" s="115"/>
+      <c r="D512" s="113"/>
       <c r="E512" s="57"/>
       <c r="F512" s="57"/>
       <c r="G512" s="57"/>
@@ -20955,7 +20955,7 @@
       <c r="A513" s="57"/>
       <c r="B513" s="57"/>
       <c r="C513" s="58"/>
-      <c r="D513" s="115"/>
+      <c r="D513" s="113"/>
       <c r="E513" s="57"/>
       <c r="F513" s="57"/>
       <c r="G513" s="57"/>
@@ -20986,7 +20986,7 @@
       <c r="A514" s="57"/>
       <c r="B514" s="57"/>
       <c r="C514" s="58"/>
-      <c r="D514" s="115"/>
+      <c r="D514" s="113"/>
       <c r="E514" s="57"/>
       <c r="F514" s="57"/>
       <c r="G514" s="57"/>
@@ -21017,7 +21017,7 @@
       <c r="A515" s="57"/>
       <c r="B515" s="57"/>
       <c r="C515" s="58"/>
-      <c r="D515" s="115"/>
+      <c r="D515" s="113"/>
       <c r="E515" s="57"/>
       <c r="F515" s="57"/>
       <c r="G515" s="57"/>
@@ -21048,7 +21048,7 @@
       <c r="A516" s="57"/>
       <c r="B516" s="57"/>
       <c r="C516" s="58"/>
-      <c r="D516" s="115"/>
+      <c r="D516" s="113"/>
       <c r="E516" s="57"/>
       <c r="F516" s="57"/>
       <c r="G516" s="57"/>
@@ -21079,7 +21079,7 @@
       <c r="A517" s="57"/>
       <c r="B517" s="57"/>
       <c r="C517" s="58"/>
-      <c r="D517" s="115"/>
+      <c r="D517" s="113"/>
       <c r="E517" s="57"/>
       <c r="F517" s="57"/>
       <c r="G517" s="57"/>
@@ -21110,7 +21110,7 @@
       <c r="A518" s="57"/>
       <c r="B518" s="57"/>
       <c r="C518" s="58"/>
-      <c r="D518" s="115"/>
+      <c r="D518" s="113"/>
       <c r="E518" s="57"/>
       <c r="F518" s="57"/>
       <c r="G518" s="57"/>
@@ -21141,7 +21141,7 @@
       <c r="A519" s="57"/>
       <c r="B519" s="57"/>
       <c r="C519" s="58"/>
-      <c r="D519" s="115"/>
+      <c r="D519" s="113"/>
       <c r="E519" s="57"/>
       <c r="F519" s="57"/>
       <c r="G519" s="57"/>
@@ -21172,7 +21172,7 @@
       <c r="A520" s="57"/>
       <c r="B520" s="57"/>
       <c r="C520" s="58"/>
-      <c r="D520" s="115"/>
+      <c r="D520" s="113"/>
       <c r="E520" s="57"/>
       <c r="F520" s="57"/>
       <c r="G520" s="57"/>
@@ -21203,7 +21203,7 @@
       <c r="A521" s="57"/>
       <c r="B521" s="57"/>
       <c r="C521" s="58"/>
-      <c r="D521" s="115"/>
+      <c r="D521" s="113"/>
       <c r="E521" s="57"/>
       <c r="F521" s="57"/>
       <c r="G521" s="57"/>
@@ -21234,7 +21234,7 @@
       <c r="A522" s="57"/>
       <c r="B522" s="57"/>
       <c r="C522" s="58"/>
-      <c r="D522" s="115"/>
+      <c r="D522" s="113"/>
       <c r="E522" s="57"/>
       <c r="F522" s="57"/>
       <c r="G522" s="57"/>
@@ -21265,7 +21265,7 @@
       <c r="A523" s="57"/>
       <c r="B523" s="57"/>
       <c r="C523" s="58"/>
-      <c r="D523" s="115"/>
+      <c r="D523" s="113"/>
       <c r="E523" s="57"/>
       <c r="F523" s="57"/>
       <c r="G523" s="57"/>
@@ -21296,7 +21296,7 @@
       <c r="A524" s="57"/>
       <c r="B524" s="57"/>
       <c r="C524" s="58"/>
-      <c r="D524" s="115"/>
+      <c r="D524" s="113"/>
       <c r="E524" s="57"/>
       <c r="F524" s="57"/>
       <c r="G524" s="57"/>
@@ -21327,7 +21327,7 @@
       <c r="A525" s="57"/>
       <c r="B525" s="57"/>
       <c r="C525" s="58"/>
-      <c r="D525" s="115"/>
+      <c r="D525" s="113"/>
       <c r="E525" s="57"/>
       <c r="F525" s="57"/>
       <c r="G525" s="57"/>
@@ -21358,7 +21358,7 @@
       <c r="A526" s="57"/>
       <c r="B526" s="57"/>
       <c r="C526" s="58"/>
-      <c r="D526" s="115"/>
+      <c r="D526" s="113"/>
       <c r="E526" s="57"/>
       <c r="F526" s="57"/>
       <c r="G526" s="57"/>
@@ -21389,7 +21389,7 @@
       <c r="A527" s="57"/>
       <c r="B527" s="57"/>
       <c r="C527" s="58"/>
-      <c r="D527" s="115"/>
+      <c r="D527" s="113"/>
       <c r="E527" s="57"/>
       <c r="F527" s="57"/>
       <c r="G527" s="57"/>
@@ -21420,7 +21420,7 @@
       <c r="A528" s="57"/>
       <c r="B528" s="57"/>
       <c r="C528" s="58"/>
-      <c r="D528" s="115"/>
+      <c r="D528" s="113"/>
       <c r="E528" s="57"/>
       <c r="F528" s="57"/>
       <c r="G528" s="57"/>
@@ -21451,7 +21451,7 @@
       <c r="A529" s="57"/>
       <c r="B529" s="57"/>
       <c r="C529" s="58"/>
-      <c r="D529" s="115"/>
+      <c r="D529" s="113"/>
       <c r="E529" s="57"/>
       <c r="F529" s="57"/>
       <c r="G529" s="57"/>
@@ -21482,7 +21482,7 @@
       <c r="A530" s="57"/>
       <c r="B530" s="57"/>
       <c r="C530" s="58"/>
-      <c r="D530" s="115"/>
+      <c r="D530" s="113"/>
       <c r="E530" s="57"/>
       <c r="F530" s="57"/>
       <c r="G530" s="57"/>
@@ -21513,7 +21513,7 @@
       <c r="A531" s="57"/>
       <c r="B531" s="57"/>
       <c r="C531" s="58"/>
-      <c r="D531" s="115"/>
+      <c r="D531" s="113"/>
       <c r="E531" s="57"/>
       <c r="F531" s="57"/>
       <c r="G531" s="57"/>
@@ -21544,7 +21544,7 @@
       <c r="A532" s="57"/>
       <c r="B532" s="57"/>
       <c r="C532" s="58"/>
-      <c r="D532" s="115"/>
+      <c r="D532" s="113"/>
       <c r="E532" s="57"/>
       <c r="F532" s="57"/>
       <c r="G532" s="57"/>
@@ -21575,7 +21575,7 @@
       <c r="A533" s="57"/>
       <c r="B533" s="57"/>
       <c r="C533" s="58"/>
-      <c r="D533" s="115"/>
+      <c r="D533" s="113"/>
       <c r="E533" s="57"/>
       <c r="F533" s="57"/>
       <c r="G533" s="57"/>
@@ -21606,7 +21606,7 @@
       <c r="A534" s="57"/>
       <c r="B534" s="57"/>
       <c r="C534" s="58"/>
-      <c r="D534" s="115"/>
+      <c r="D534" s="113"/>
       <c r="E534" s="57"/>
       <c r="F534" s="57"/>
       <c r="G534" s="57"/>
@@ -21637,7 +21637,7 @@
       <c r="A535" s="57"/>
       <c r="B535" s="57"/>
       <c r="C535" s="58"/>
-      <c r="D535" s="115"/>
+      <c r="D535" s="113"/>
       <c r="E535" s="57"/>
       <c r="F535" s="57"/>
       <c r="G535" s="57"/>
@@ -21668,7 +21668,7 @@
       <c r="A536" s="57"/>
       <c r="B536" s="57"/>
       <c r="C536" s="58"/>
-      <c r="D536" s="115"/>
+      <c r="D536" s="113"/>
       <c r="E536" s="57"/>
       <c r="F536" s="57"/>
       <c r="G536" s="57"/>
@@ -21699,7 +21699,7 @@
       <c r="A537" s="57"/>
       <c r="B537" s="57"/>
       <c r="C537" s="58"/>
-      <c r="D537" s="115"/>
+      <c r="D537" s="113"/>
       <c r="E537" s="57"/>
       <c r="F537" s="57"/>
       <c r="G537" s="57"/>
@@ -21730,7 +21730,7 @@
       <c r="A538" s="57"/>
       <c r="B538" s="57"/>
       <c r="C538" s="58"/>
-      <c r="D538" s="115"/>
+      <c r="D538" s="113"/>
       <c r="E538" s="57"/>
       <c r="F538" s="57"/>
       <c r="G538" s="57"/>
@@ -21761,7 +21761,7 @@
       <c r="A539" s="57"/>
       <c r="B539" s="57"/>
       <c r="C539" s="58"/>
-      <c r="D539" s="115"/>
+      <c r="D539" s="113"/>
       <c r="E539" s="57"/>
       <c r="F539" s="57"/>
       <c r="G539" s="57"/>
@@ -21792,7 +21792,7 @@
       <c r="A540" s="57"/>
       <c r="B540" s="57"/>
       <c r="C540" s="58"/>
-      <c r="D540" s="115"/>
+      <c r="D540" s="113"/>
       <c r="E540" s="57"/>
       <c r="F540" s="57"/>
       <c r="G540" s="57"/>
@@ -21823,7 +21823,7 @@
       <c r="A541" s="57"/>
       <c r="B541" s="57"/>
       <c r="C541" s="58"/>
-      <c r="D541" s="115"/>
+      <c r="D541" s="113"/>
       <c r="E541" s="57"/>
       <c r="F541" s="57"/>
       <c r="G541" s="57"/>
@@ -21854,7 +21854,7 @@
       <c r="A542" s="57"/>
       <c r="B542" s="57"/>
       <c r="C542" s="58"/>
-      <c r="D542" s="115"/>
+      <c r="D542" s="113"/>
       <c r="E542" s="57"/>
       <c r="F542" s="57"/>
       <c r="G542" s="57"/>
@@ -21885,7 +21885,7 @@
       <c r="A543" s="57"/>
       <c r="B543" s="57"/>
       <c r="C543" s="58"/>
-      <c r="D543" s="115"/>
+      <c r="D543" s="113"/>
       <c r="E543" s="57"/>
       <c r="F543" s="57"/>
       <c r="G543" s="57"/>
@@ -21916,7 +21916,7 @@
       <c r="A544" s="57"/>
       <c r="B544" s="57"/>
       <c r="C544" s="58"/>
-      <c r="D544" s="115"/>
+      <c r="D544" s="113"/>
       <c r="E544" s="57"/>
       <c r="F544" s="57"/>
       <c r="G544" s="57"/>
@@ -21947,7 +21947,7 @@
       <c r="A545" s="57"/>
       <c r="B545" s="57"/>
       <c r="C545" s="58"/>
-      <c r="D545" s="115"/>
+      <c r="D545" s="113"/>
       <c r="E545" s="57"/>
       <c r="F545" s="57"/>
       <c r="G545" s="57"/>
@@ -21978,7 +21978,7 @@
       <c r="A546" s="57"/>
       <c r="B546" s="57"/>
       <c r="C546" s="58"/>
-      <c r="D546" s="115"/>
+      <c r="D546" s="113"/>
       <c r="E546" s="57"/>
       <c r="F546" s="57"/>
       <c r="G546" s="57"/>
@@ -22009,7 +22009,7 @@
       <c r="A547" s="57"/>
       <c r="B547" s="57"/>
       <c r="C547" s="58"/>
-      <c r="D547" s="115"/>
+      <c r="D547" s="113"/>
       <c r="E547" s="57"/>
       <c r="F547" s="57"/>
       <c r="G547" s="57"/>
@@ -22040,7 +22040,7 @@
       <c r="A548" s="57"/>
       <c r="B548" s="57"/>
       <c r="C548" s="58"/>
-      <c r="D548" s="115"/>
+      <c r="D548" s="113"/>
       <c r="E548" s="57"/>
       <c r="F548" s="57"/>
       <c r="G548" s="57"/>
@@ -22071,7 +22071,7 @@
       <c r="A549" s="57"/>
       <c r="B549" s="57"/>
       <c r="C549" s="58"/>
-      <c r="D549" s="115"/>
+      <c r="D549" s="113"/>
       <c r="E549" s="57"/>
       <c r="F549" s="57"/>
       <c r="G549" s="57"/>
@@ -22102,7 +22102,7 @@
       <c r="A550" s="57"/>
       <c r="B550" s="57"/>
       <c r="C550" s="58"/>
-      <c r="D550" s="115"/>
+      <c r="D550" s="113"/>
       <c r="E550" s="57"/>
       <c r="F550" s="57"/>
       <c r="G550" s="57"/>
@@ -22133,7 +22133,7 @@
       <c r="A551" s="57"/>
       <c r="B551" s="57"/>
       <c r="C551" s="58"/>
-      <c r="D551" s="115"/>
+      <c r="D551" s="113"/>
       <c r="E551" s="57"/>
       <c r="F551" s="57"/>
       <c r="G551" s="57"/>
@@ -22164,7 +22164,7 @@
       <c r="A552" s="57"/>
       <c r="B552" s="57"/>
       <c r="C552" s="58"/>
-      <c r="D552" s="115"/>
+      <c r="D552" s="113"/>
       <c r="E552" s="57"/>
       <c r="F552" s="57"/>
       <c r="G552" s="57"/>
@@ -22195,7 +22195,7 @@
       <c r="A553" s="57"/>
       <c r="B553" s="57"/>
       <c r="C553" s="58"/>
-      <c r="D553" s="115"/>
+      <c r="D553" s="113"/>
       <c r="E553" s="57"/>
       <c r="F553" s="57"/>
       <c r="G553" s="57"/>
@@ -22226,7 +22226,7 @@
       <c r="A554" s="57"/>
       <c r="B554" s="57"/>
       <c r="C554" s="58"/>
-      <c r="D554" s="115"/>
+      <c r="D554" s="113"/>
       <c r="E554" s="57"/>
       <c r="F554" s="57"/>
       <c r="G554" s="57"/>
@@ -22257,7 +22257,7 @@
       <c r="A555" s="57"/>
       <c r="B555" s="57"/>
       <c r="C555" s="58"/>
-      <c r="D555" s="115"/>
+      <c r="D555" s="113"/>
       <c r="E555" s="57"/>
       <c r="F555" s="57"/>
       <c r="G555" s="57"/>
@@ -22288,7 +22288,7 @@
       <c r="A556" s="57"/>
       <c r="B556" s="57"/>
       <c r="C556" s="58"/>
-      <c r="D556" s="115"/>
+      <c r="D556" s="113"/>
       <c r="E556" s="57"/>
       <c r="F556" s="57"/>
       <c r="G556" s="57"/>
@@ -22319,7 +22319,7 @@
       <c r="A557" s="57"/>
       <c r="B557" s="57"/>
       <c r="C557" s="58"/>
-      <c r="D557" s="115"/>
+      <c r="D557" s="113"/>
       <c r="E557" s="57"/>
       <c r="F557" s="57"/>
       <c r="G557" s="57"/>
@@ -22350,7 +22350,7 @@
       <c r="A558" s="57"/>
       <c r="B558" s="57"/>
       <c r="C558" s="58"/>
-      <c r="D558" s="115"/>
+      <c r="D558" s="113"/>
       <c r="E558" s="57"/>
       <c r="F558" s="57"/>
       <c r="G558" s="57"/>
@@ -22381,7 +22381,7 @@
       <c r="A559" s="57"/>
       <c r="B559" s="57"/>
       <c r="C559" s="58"/>
-      <c r="D559" s="115"/>
+      <c r="D559" s="113"/>
       <c r="E559" s="57"/>
       <c r="F559" s="57"/>
       <c r="G559" s="57"/>
@@ -22412,7 +22412,7 @@
       <c r="A560" s="57"/>
       <c r="B560" s="57"/>
       <c r="C560" s="58"/>
-      <c r="D560" s="115"/>
+      <c r="D560" s="113"/>
       <c r="E560" s="57"/>
       <c r="F560" s="57"/>
       <c r="G560" s="57"/>
@@ -22443,7 +22443,7 @@
       <c r="A561" s="57"/>
       <c r="B561" s="57"/>
       <c r="C561" s="58"/>
-      <c r="D561" s="115"/>
+      <c r="D561" s="113"/>
       <c r="E561" s="57"/>
       <c r="F561" s="57"/>
       <c r="G561" s="57"/>
@@ -22474,7 +22474,7 @@
       <c r="A562" s="57"/>
       <c r="B562" s="57"/>
       <c r="C562" s="58"/>
-      <c r="D562" s="115"/>
+      <c r="D562" s="113"/>
       <c r="E562" s="57"/>
       <c r="F562" s="57"/>
       <c r="G562" s="57"/>
@@ -22505,7 +22505,7 @@
       <c r="A563" s="57"/>
       <c r="B563" s="57"/>
       <c r="C563" s="58"/>
-      <c r="D563" s="115"/>
+      <c r="D563" s="113"/>
       <c r="E563" s="57"/>
       <c r="F563" s="57"/>
       <c r="G563" s="57"/>
@@ -22536,7 +22536,7 @@
       <c r="A564" s="57"/>
       <c r="B564" s="57"/>
       <c r="C564" s="58"/>
-      <c r="D564" s="115"/>
+      <c r="D564" s="113"/>
       <c r="E564" s="57"/>
       <c r="F564" s="57"/>
       <c r="G564" s="57"/>
@@ -22567,7 +22567,7 @@
       <c r="A565" s="57"/>
       <c r="B565" s="57"/>
       <c r="C565" s="58"/>
-      <c r="D565" s="115"/>
+      <c r="D565" s="113"/>
       <c r="E565" s="57"/>
       <c r="F565" s="57"/>
       <c r="G565" s="57"/>
@@ -22598,7 +22598,7 @@
       <c r="A566" s="57"/>
       <c r="B566" s="57"/>
       <c r="C566" s="58"/>
-      <c r="D566" s="115"/>
+      <c r="D566" s="113"/>
       <c r="E566" s="57"/>
       <c r="F566" s="57"/>
       <c r="G566" s="57"/>
@@ -22629,7 +22629,7 @@
       <c r="A567" s="57"/>
       <c r="B567" s="57"/>
       <c r="C567" s="58"/>
-      <c r="D567" s="115"/>
+      <c r="D567" s="113"/>
       <c r="E567" s="57"/>
       <c r="F567" s="57"/>
       <c r="G567" s="57"/>
@@ -22660,7 +22660,7 @@
       <c r="A568" s="57"/>
       <c r="B568" s="57"/>
       <c r="C568" s="58"/>
-      <c r="D568" s="115"/>
+      <c r="D568" s="113"/>
       <c r="E568" s="57"/>
       <c r="F568" s="57"/>
       <c r="G568" s="57"/>
@@ -22691,7 +22691,7 @@
       <c r="A569" s="57"/>
       <c r="B569" s="57"/>
       <c r="C569" s="58"/>
-      <c r="D569" s="115"/>
+      <c r="D569" s="113"/>
       <c r="E569" s="57"/>
       <c r="F569" s="57"/>
       <c r="G569" s="57"/>
@@ -22722,7 +22722,7 @@
       <c r="A570" s="57"/>
       <c r="B570" s="57"/>
       <c r="C570" s="58"/>
-      <c r="D570" s="115"/>
+      <c r="D570" s="113"/>
       <c r="E570" s="57"/>
       <c r="F570" s="57"/>
       <c r="G570" s="57"/>
@@ -22753,7 +22753,7 @@
       <c r="A571" s="57"/>
       <c r="B571" s="57"/>
       <c r="C571" s="58"/>
-      <c r="D571" s="115"/>
+      <c r="D571" s="113"/>
       <c r="E571" s="57"/>
       <c r="F571" s="57"/>
       <c r="G571" s="57"/>
@@ -22784,7 +22784,7 @@
       <c r="A572" s="57"/>
       <c r="B572" s="57"/>
       <c r="C572" s="58"/>
-      <c r="D572" s="115"/>
+      <c r="D572" s="113"/>
       <c r="E572" s="57"/>
       <c r="F572" s="57"/>
       <c r="G572" s="57"/>
@@ -22815,7 +22815,7 @@
       <c r="A573" s="57"/>
       <c r="B573" s="57"/>
       <c r="C573" s="58"/>
-      <c r="D573" s="115"/>
+      <c r="D573" s="113"/>
       <c r="E573" s="57"/>
       <c r="F573" s="57"/>
       <c r="G573" s="57"/>
@@ -22846,7 +22846,7 @@
       <c r="A574" s="57"/>
       <c r="B574" s="57"/>
       <c r="C574" s="58"/>
-      <c r="D574" s="115"/>
+      <c r="D574" s="113"/>
       <c r="E574" s="57"/>
       <c r="F574" s="57"/>
       <c r="G574" s="57"/>
@@ -22877,7 +22877,7 @@
       <c r="A575" s="57"/>
       <c r="B575" s="57"/>
       <c r="C575" s="58"/>
-      <c r="D575" s="115"/>
+      <c r="D575" s="113"/>
       <c r="E575" s="57"/>
       <c r="F575" s="57"/>
       <c r="G575" s="57"/>
@@ -22908,7 +22908,7 @@
       <c r="A576" s="57"/>
       <c r="B576" s="57"/>
       <c r="C576" s="58"/>
-      <c r="D576" s="115"/>
+      <c r="D576" s="113"/>
       <c r="E576" s="57"/>
       <c r="F576" s="57"/>
       <c r="G576" s="57"/>
@@ -22939,7 +22939,7 @@
       <c r="A577" s="57"/>
       <c r="B577" s="57"/>
       <c r="C577" s="58"/>
-      <c r="D577" s="115"/>
+      <c r="D577" s="113"/>
       <c r="E577" s="57"/>
       <c r="F577" s="57"/>
       <c r="G577" s="57"/>
@@ -22970,7 +22970,7 @@
       <c r="A578" s="57"/>
       <c r="B578" s="57"/>
       <c r="C578" s="58"/>
-      <c r="D578" s="115"/>
+      <c r="D578" s="113"/>
       <c r="E578" s="57"/>
       <c r="F578" s="57"/>
       <c r="G578" s="57"/>
@@ -23001,7 +23001,7 @@
       <c r="A579" s="57"/>
       <c r="B579" s="57"/>
       <c r="C579" s="58"/>
-      <c r="D579" s="115"/>
+      <c r="D579" s="113"/>
       <c r="E579" s="57"/>
       <c r="F579" s="57"/>
       <c r="G579" s="57"/>
@@ -23032,7 +23032,7 @@
       <c r="A580" s="57"/>
       <c r="B580" s="57"/>
       <c r="C580" s="58"/>
-      <c r="D580" s="115"/>
+      <c r="D580" s="113"/>
       <c r="E580" s="57"/>
       <c r="F580" s="57"/>
       <c r="G580" s="57"/>
@@ -23063,7 +23063,7 @@
       <c r="A581" s="57"/>
       <c r="B581" s="57"/>
       <c r="C581" s="58"/>
-      <c r="D581" s="115"/>
+      <c r="D581" s="113"/>
       <c r="E581" s="57"/>
       <c r="F581" s="57"/>
       <c r="G581" s="57"/>
@@ -23094,7 +23094,7 @@
       <c r="A582" s="57"/>
       <c r="B582" s="57"/>
       <c r="C582" s="58"/>
-      <c r="D582" s="115"/>
+      <c r="D582" s="113"/>
       <c r="E582" s="57"/>
       <c r="F582" s="57"/>
       <c r="G582" s="57"/>
@@ -23125,7 +23125,7 @@
       <c r="A583" s="57"/>
       <c r="B583" s="57"/>
       <c r="C583" s="58"/>
-      <c r="D583" s="115"/>
+      <c r="D583" s="113"/>
       <c r="E583" s="57"/>
       <c r="F583" s="57"/>
       <c r="G583" s="57"/>
@@ -23156,7 +23156,7 @@
       <c r="A584" s="57"/>
       <c r="B584" s="57"/>
       <c r="C584" s="58"/>
-      <c r="D584" s="115"/>
+      <c r="D584" s="113"/>
       <c r="E584" s="57"/>
       <c r="F584" s="57"/>
       <c r="G584" s="57"/>
@@ -23187,7 +23187,7 @@
       <c r="A585" s="57"/>
       <c r="B585" s="57"/>
       <c r="C585" s="58"/>
-      <c r="D585" s="115"/>
+      <c r="D585" s="113"/>
       <c r="E585" s="57"/>
       <c r="F585" s="57"/>
       <c r="G585" s="57"/>
@@ -23218,7 +23218,7 @@
       <c r="A586" s="57"/>
       <c r="B586" s="57"/>
       <c r="C586" s="58"/>
-      <c r="D586" s="115"/>
+      <c r="D586" s="113"/>
       <c r="E586" s="57"/>
       <c r="F586" s="57"/>
       <c r="G586" s="57"/>
@@ -23249,7 +23249,7 @@
       <c r="A587" s="57"/>
       <c r="B587" s="57"/>
       <c r="C587" s="58"/>
-      <c r="D587" s="115"/>
+      <c r="D587" s="113"/>
       <c r="E587" s="57"/>
       <c r="F587" s="57"/>
       <c r="G587" s="57"/>
@@ -23280,7 +23280,7 @@
       <c r="A588" s="57"/>
       <c r="B588" s="57"/>
       <c r="C588" s="58"/>
-      <c r="D588" s="115"/>
+      <c r="D588" s="113"/>
       <c r="E588" s="57"/>
       <c r="F588" s="57"/>
       <c r="G588" s="57"/>
@@ -23311,7 +23311,7 @@
       <c r="A589" s="57"/>
       <c r="B589" s="57"/>
       <c r="C589" s="58"/>
-      <c r="D589" s="115"/>
+      <c r="D589" s="113"/>
       <c r="E589" s="57"/>
       <c r="F589" s="57"/>
       <c r="G589" s="57"/>
@@ -23342,7 +23342,7 @@
       <c r="A590" s="57"/>
       <c r="B590" s="57"/>
       <c r="C590" s="58"/>
-      <c r="D590" s="115"/>
+      <c r="D590" s="113"/>
       <c r="E590" s="57"/>
       <c r="F590" s="57"/>
       <c r="G590" s="57"/>
@@ -23373,7 +23373,7 @@
       <c r="A591" s="57"/>
       <c r="B591" s="57"/>
       <c r="C591" s="58"/>
-      <c r="D591" s="115"/>
+      <c r="D591" s="113"/>
       <c r="E591" s="57"/>
       <c r="F591" s="57"/>
       <c r="G591" s="57"/>
@@ -23404,7 +23404,7 @@
       <c r="A592" s="57"/>
       <c r="B592" s="57"/>
       <c r="C592" s="58"/>
-      <c r="D592" s="115"/>
+      <c r="D592" s="113"/>
       <c r="E592" s="57"/>
       <c r="F592" s="57"/>
       <c r="G592" s="57"/>
@@ -23435,7 +23435,7 @@
       <c r="A593" s="57"/>
       <c r="B593" s="57"/>
       <c r="C593" s="58"/>
-      <c r="D593" s="115"/>
+      <c r="D593" s="113"/>
       <c r="E593" s="57"/>
       <c r="F593" s="57"/>
       <c r="G593" s="57"/>
@@ -23466,7 +23466,7 @@
       <c r="A594" s="57"/>
       <c r="B594" s="57"/>
       <c r="C594" s="58"/>
-      <c r="D594" s="115"/>
+      <c r="D594" s="113"/>
       <c r="E594" s="57"/>
       <c r="F594" s="57"/>
       <c r="G594" s="57"/>
@@ -23497,7 +23497,7 @@
       <c r="A595" s="57"/>
       <c r="B595" s="57"/>
       <c r="C595" s="58"/>
-      <c r="D595" s="115"/>
+      <c r="D595" s="113"/>
       <c r="E595" s="57"/>
       <c r="F595" s="57"/>
       <c r="G595" s="57"/>
@@ -23528,7 +23528,7 @@
       <c r="A596" s="57"/>
       <c r="B596" s="57"/>
       <c r="C596" s="58"/>
-      <c r="D596" s="115"/>
+      <c r="D596" s="113"/>
       <c r="E596" s="57"/>
       <c r="F596" s="57"/>
       <c r="G596" s="57"/>
@@ -23559,7 +23559,7 @@
       <c r="A597" s="57"/>
       <c r="B597" s="57"/>
       <c r="C597" s="58"/>
-      <c r="D597" s="115"/>
+      <c r="D597" s="113"/>
       <c r="E597" s="57"/>
       <c r="F597" s="57"/>
       <c r="G597" s="57"/>
@@ -23590,7 +23590,7 @@
       <c r="A598" s="57"/>
       <c r="B598" s="57"/>
       <c r="C598" s="58"/>
-      <c r="D598" s="115"/>
+      <c r="D598" s="113"/>
       <c r="E598" s="57"/>
       <c r="F598" s="57"/>
       <c r="G598" s="57"/>
@@ -23621,7 +23621,7 @@
       <c r="A599" s="57"/>
       <c r="B599" s="57"/>
       <c r="C599" s="58"/>
-      <c r="D599" s="115"/>
+      <c r="D599" s="113"/>
       <c r="E599" s="57"/>
       <c r="F599" s="57"/>
       <c r="G599" s="57"/>
@@ -23652,7 +23652,7 @@
       <c r="A600" s="57"/>
       <c r="B600" s="57"/>
       <c r="C600" s="58"/>
-      <c r="D600" s="115"/>
+      <c r="D600" s="113"/>
       <c r="E600" s="57"/>
       <c r="F600" s="57"/>
       <c r="G600" s="57"/>
@@ -23683,7 +23683,7 @@
       <c r="A601" s="57"/>
       <c r="B601" s="57"/>
       <c r="C601" s="58"/>
-      <c r="D601" s="115"/>
+      <c r="D601" s="113"/>
       <c r="E601" s="57"/>
       <c r="F601" s="57"/>
       <c r="G601" s="57"/>
@@ -23714,7 +23714,7 @@
       <c r="A602" s="57"/>
       <c r="B602" s="57"/>
       <c r="C602" s="58"/>
-      <c r="D602" s="115"/>
+      <c r="D602" s="113"/>
       <c r="E602" s="57"/>
       <c r="F602" s="57"/>
       <c r="G602" s="57"/>
@@ -23745,7 +23745,7 @@
       <c r="A603" s="57"/>
       <c r="B603" s="57"/>
       <c r="C603" s="58"/>
-      <c r="D603" s="115"/>
+      <c r="D603" s="113"/>
       <c r="E603" s="57"/>
       <c r="F603" s="57"/>
       <c r="G603" s="57"/>
@@ -23776,7 +23776,7 @@
       <c r="A604" s="57"/>
       <c r="B604" s="57"/>
       <c r="C604" s="58"/>
-      <c r="D604" s="115"/>
+      <c r="D604" s="113"/>
       <c r="E604" s="57"/>
       <c r="F604" s="57"/>
       <c r="G604" s="57"/>
@@ -23807,7 +23807,7 @@
       <c r="A605" s="57"/>
       <c r="B605" s="57"/>
       <c r="C605" s="58"/>
-      <c r="D605" s="115"/>
+      <c r="D605" s="113"/>
       <c r="E605" s="57"/>
       <c r="F605" s="57"/>
       <c r="G605" s="57"/>
@@ -23838,7 +23838,7 @@
       <c r="A606" s="57"/>
       <c r="B606" s="57"/>
       <c r="C606" s="58"/>
-      <c r="D606" s="115"/>
+      <c r="D606" s="113"/>
       <c r="E606" s="57"/>
       <c r="F606" s="57"/>
       <c r="G606" s="57"/>
@@ -23869,7 +23869,7 @@
       <c r="A607" s="57"/>
       <c r="B607" s="57"/>
       <c r="C607" s="58"/>
-      <c r="D607" s="115"/>
+      <c r="D607" s="113"/>
       <c r="E607" s="57"/>
       <c r="F607" s="57"/>
       <c r="G607" s="57"/>
@@ -23900,7 +23900,7 @@
       <c r="A608" s="57"/>
       <c r="B608" s="57"/>
       <c r="C608" s="58"/>
-      <c r="D608" s="115"/>
+      <c r="D608" s="113"/>
       <c r="E608" s="57"/>
       <c r="F608" s="57"/>
       <c r="G608" s="57"/>
@@ -23931,7 +23931,7 @@
       <c r="A609" s="57"/>
       <c r="B609" s="57"/>
       <c r="C609" s="58"/>
-      <c r="D609" s="115"/>
+      <c r="D609" s="113"/>
       <c r="E609" s="57"/>
       <c r="F609" s="57"/>
       <c r="G609" s="57"/>
@@ -23962,7 +23962,7 @@
       <c r="A610" s="57"/>
       <c r="B610" s="57"/>
       <c r="C610" s="58"/>
-      <c r="D610" s="115"/>
+      <c r="D610" s="113"/>
       <c r="E610" s="57"/>
       <c r="F610" s="57"/>
       <c r="G610" s="57"/>
@@ -23993,7 +23993,7 @@
       <c r="A611" s="57"/>
       <c r="B611" s="57"/>
       <c r="C611" s="58"/>
-      <c r="D611" s="115"/>
+      <c r="D611" s="113"/>
       <c r="E611" s="57"/>
       <c r="F611" s="57"/>
       <c r="G611" s="57"/>
@@ -24024,7 +24024,7 @@
       <c r="A612" s="57"/>
       <c r="B612" s="57"/>
       <c r="C612" s="58"/>
-      <c r="D612" s="115"/>
+      <c r="D612" s="113"/>
       <c r="E612" s="57"/>
       <c r="F612" s="57"/>
       <c r="G612" s="57"/>
@@ -24055,7 +24055,7 @@
       <c r="A613" s="57"/>
       <c r="B613" s="57"/>
       <c r="C613" s="58"/>
-      <c r="D613" s="115"/>
+      <c r="D613" s="113"/>
       <c r="E613" s="57"/>
       <c r="F613" s="57"/>
       <c r="G613" s="57"/>
@@ -24086,7 +24086,7 @@
       <c r="A614" s="57"/>
       <c r="B614" s="57"/>
       <c r="C614" s="58"/>
-      <c r="D614" s="115"/>
+      <c r="D614" s="113"/>
       <c r="E614" s="57"/>
       <c r="F614" s="57"/>
       <c r="G614" s="57"/>
@@ -24117,7 +24117,7 @@
       <c r="A615" s="57"/>
       <c r="B615" s="57"/>
       <c r="C615" s="58"/>
-      <c r="D615" s="115"/>
+      <c r="D615" s="113"/>
       <c r="E615" s="57"/>
       <c r="F615" s="57"/>
       <c r="G615" s="57"/>
@@ -24148,7 +24148,7 @@
       <c r="A616" s="57"/>
       <c r="B616" s="57"/>
       <c r="C616" s="58"/>
-      <c r="D616" s="115"/>
+      <c r="D616" s="113"/>
       <c r="E616" s="57"/>
       <c r="F616" s="57"/>
       <c r="G616" s="57"/>
@@ -24179,7 +24179,7 @@
       <c r="A617" s="57"/>
       <c r="B617" s="57"/>
       <c r="C617" s="58"/>
-      <c r="D617" s="115"/>
+      <c r="D617" s="113"/>
       <c r="E617" s="57"/>
       <c r="F617" s="57"/>
       <c r="G617" s="57"/>
@@ -24210,7 +24210,7 @@
       <c r="A618" s="57"/>
       <c r="B618" s="57"/>
       <c r="C618" s="58"/>
-      <c r="D618" s="115"/>
+      <c r="D618" s="113"/>
       <c r="E618" s="57"/>
       <c r="F618" s="57"/>
       <c r="G618" s="57"/>
@@ -24241,7 +24241,7 @@
       <c r="A619" s="57"/>
       <c r="B619" s="57"/>
       <c r="C619" s="58"/>
-      <c r="D619" s="115"/>
+      <c r="D619" s="113"/>
       <c r="E619" s="57"/>
       <c r="F619" s="57"/>
       <c r="G619" s="57"/>
@@ -24272,7 +24272,7 @@
       <c r="A620" s="57"/>
       <c r="B620" s="57"/>
       <c r="C620" s="58"/>
-      <c r="D620" s="115"/>
+      <c r="D620" s="113"/>
       <c r="E620" s="57"/>
       <c r="F620" s="57"/>
       <c r="G620" s="57"/>
@@ -24303,7 +24303,7 @@
       <c r="A621" s="57"/>
       <c r="B621" s="57"/>
       <c r="C621" s="58"/>
-      <c r="D621" s="115"/>
+      <c r="D621" s="113"/>
       <c r="E621" s="57"/>
       <c r="F621" s="57"/>
       <c r="G621" s="57"/>
@@ -24334,7 +24334,7 @@
       <c r="A622" s="57"/>
       <c r="B622" s="57"/>
       <c r="C622" s="58"/>
-      <c r="D622" s="115"/>
+      <c r="D622" s="113"/>
       <c r="E622" s="57"/>
       <c r="F622" s="57"/>
       <c r="G622" s="57"/>
@@ -24365,7 +24365,7 @@
       <c r="A623" s="57"/>
       <c r="B623" s="57"/>
       <c r="C623" s="58"/>
-      <c r="D623" s="115"/>
+      <c r="D623" s="113"/>
       <c r="E623" s="57"/>
       <c r="F623" s="57"/>
       <c r="G623" s="57"/>
@@ -24396,7 +24396,7 @@
       <c r="A624" s="57"/>
       <c r="B624" s="57"/>
       <c r="C624" s="58"/>
-      <c r="D624" s="115"/>
+      <c r="D624" s="113"/>
       <c r="E624" s="57"/>
       <c r="F624" s="57"/>
       <c r="G624" s="57"/>
@@ -24427,7 +24427,7 @@
       <c r="A625" s="57"/>
       <c r="B625" s="57"/>
       <c r="C625" s="58"/>
-      <c r="D625" s="115"/>
+      <c r="D625" s="113"/>
       <c r="E625" s="57"/>
       <c r="F625" s="57"/>
       <c r="G625" s="57"/>
@@ -24458,7 +24458,7 @@
       <c r="A626" s="57"/>
       <c r="B626" s="57"/>
       <c r="C626" s="58"/>
-      <c r="D626" s="115"/>
+      <c r="D626" s="113"/>
       <c r="E626" s="57"/>
       <c r="F626" s="57"/>
       <c r="G626" s="57"/>
@@ -24489,7 +24489,7 @@
       <c r="A627" s="57"/>
       <c r="B627" s="57"/>
       <c r="C627" s="58"/>
-      <c r="D627" s="115"/>
+      <c r="D627" s="113"/>
       <c r="E627" s="57"/>
       <c r="F627" s="57"/>
       <c r="G627" s="57"/>
@@ -24520,7 +24520,7 @@
       <c r="A628" s="57"/>
       <c r="B628" s="57"/>
       <c r="C628" s="58"/>
-      <c r="D628" s="115"/>
+      <c r="D628" s="113"/>
       <c r="E628" s="57"/>
       <c r="F628" s="57"/>
       <c r="G628" s="57"/>
@@ -24551,7 +24551,7 @@
       <c r="A629" s="57"/>
       <c r="B629" s="57"/>
       <c r="C629" s="58"/>
-      <c r="D629" s="115"/>
+      <c r="D629" s="113"/>
       <c r="E629" s="57"/>
       <c r="F629" s="57"/>
       <c r="G629" s="57"/>
@@ -24582,7 +24582,7 @@
       <c r="A630" s="57"/>
       <c r="B630" s="57"/>
       <c r="C630" s="58"/>
-      <c r="D630" s="115"/>
+      <c r="D630" s="113"/>
       <c r="E630" s="57"/>
       <c r="F630" s="57"/>
       <c r="G630" s="57"/>
@@ -24613,7 +24613,7 @@
       <c r="A631" s="57"/>
       <c r="B631" s="57"/>
       <c r="C631" s="58"/>
-      <c r="D631" s="115"/>
+      <c r="D631" s="113"/>
       <c r="E631" s="57"/>
       <c r="F631" s="57"/>
       <c r="G631" s="57"/>
@@ -24644,7 +24644,7 @@
       <c r="A632" s="57"/>
       <c r="B632" s="57"/>
       <c r="C632" s="58"/>
-      <c r="D632" s="115"/>
+      <c r="D632" s="113"/>
       <c r="E632" s="57"/>
       <c r="F632" s="57"/>
       <c r="G632" s="57"/>
@@ -24675,7 +24675,7 @@
       <c r="A633" s="57"/>
       <c r="B633" s="57"/>
       <c r="C633" s="58"/>
-      <c r="D633" s="115"/>
+      <c r="D633" s="113"/>
       <c r="E633" s="57"/>
       <c r="F633" s="57"/>
       <c r="G633" s="57"/>
@@ -24706,7 +24706,7 @@
       <c r="A634" s="57"/>
       <c r="B634" s="57"/>
       <c r="C634" s="58"/>
-      <c r="D634" s="115"/>
+      <c r="D634" s="113"/>
       <c r="E634" s="57"/>
       <c r="F634" s="57"/>
       <c r="G634" s="57"/>
@@ -24737,7 +24737,7 @@
       <c r="A635" s="57"/>
       <c r="B635" s="57"/>
       <c r="C635" s="58"/>
-      <c r="D635" s="115"/>
+      <c r="D635" s="113"/>
       <c r="E635" s="57"/>
       <c r="F635" s="57"/>
       <c r="G635" s="57"/>
@@ -24768,7 +24768,7 @@
       <c r="A636" s="57"/>
       <c r="B636" s="57"/>
       <c r="C636" s="58"/>
-      <c r="D636" s="115"/>
+      <c r="D636" s="113"/>
       <c r="E636" s="57"/>
       <c r="F636" s="57"/>
       <c r="G636" s="57"/>
@@ -24799,7 +24799,7 @@
       <c r="A637" s="57"/>
       <c r="B637" s="57"/>
       <c r="C637" s="58"/>
-      <c r="D637" s="115"/>
+      <c r="D637" s="113"/>
       <c r="E637" s="57"/>
       <c r="F637" s="57"/>
       <c r="G637" s="57"/>
@@ -24830,7 +24830,7 @@
       <c r="A638" s="57"/>
       <c r="B638" s="57"/>
       <c r="C638" s="58"/>
-      <c r="D638" s="115"/>
+      <c r="D638" s="113"/>
       <c r="E638" s="57"/>
       <c r="F638" s="57"/>
       <c r="G638" s="57"/>
@@ -24861,7 +24861,7 @@
       <c r="A639" s="57"/>
       <c r="B639" s="57"/>
       <c r="C639" s="58"/>
-      <c r="D639" s="115"/>
+      <c r="D639" s="113"/>
       <c r="E639" s="57"/>
       <c r="F639" s="57"/>
       <c r="G639" s="57"/>
@@ -24892,7 +24892,7 @@
       <c r="A640" s="57"/>
       <c r="B640" s="57"/>
       <c r="C640" s="58"/>
-      <c r="D640" s="115"/>
+      <c r="D640" s="113"/>
       <c r="E640" s="57"/>
       <c r="F640" s="57"/>
       <c r="G640" s="57"/>
@@ -24923,7 +24923,7 @@
       <c r="A641" s="57"/>
       <c r="B641" s="57"/>
       <c r="C641" s="58"/>
-      <c r="D641" s="115"/>
+      <c r="D641" s="113"/>
       <c r="E641" s="57"/>
       <c r="F641" s="57"/>
       <c r="G641" s="57"/>
@@ -24954,7 +24954,7 @@
       <c r="A642" s="57"/>
       <c r="B642" s="57"/>
       <c r="C642" s="58"/>
-      <c r="D642" s="115"/>
+      <c r="D642" s="113"/>
       <c r="E642" s="57"/>
       <c r="F642" s="57"/>
       <c r="G642" s="57"/>
@@ -24985,7 +24985,7 @@
       <c r="A643" s="57"/>
       <c r="B643" s="57"/>
       <c r="C643" s="58"/>
-      <c r="D643" s="115"/>
+      <c r="D643" s="113"/>
       <c r="E643" s="57"/>
       <c r="F643" s="57"/>
       <c r="G643" s="57"/>
@@ -25016,7 +25016,7 @@
       <c r="A644" s="57"/>
       <c r="B644" s="57"/>
       <c r="C644" s="58"/>
-      <c r="D644" s="115"/>
+      <c r="D644" s="113"/>
       <c r="E644" s="57"/>
       <c r="F644" s="57"/>
       <c r="G644" s="57"/>
@@ -25047,7 +25047,7 @@
       <c r="A645" s="57"/>
       <c r="B645" s="57"/>
       <c r="C645" s="58"/>
-      <c r="D645" s="115"/>
+      <c r="D645" s="113"/>
       <c r="E645" s="57"/>
       <c r="F645" s="57"/>
       <c r="G645" s="57"/>
@@ -25078,7 +25078,7 @@
       <c r="A646" s="57"/>
       <c r="B646" s="57"/>
       <c r="C646" s="58"/>
-      <c r="D646" s="115"/>
+      <c r="D646" s="113"/>
       <c r="E646" s="57"/>
       <c r="F646" s="57"/>
       <c r="G646" s="57"/>
@@ -25109,7 +25109,7 @@
       <c r="A647" s="57"/>
       <c r="B647" s="57"/>
       <c r="C647" s="58"/>
-      <c r="D647" s="115"/>
+      <c r="D647" s="113"/>
       <c r="E647" s="57"/>
       <c r="F647" s="57"/>
       <c r="G647" s="57"/>
@@ -25140,7 +25140,7 @@
       <c r="A648" s="57"/>
       <c r="B648" s="57"/>
       <c r="C648" s="58"/>
-      <c r="D648" s="115"/>
+      <c r="D648" s="113"/>
       <c r="E648" s="57"/>
       <c r="F648" s="57"/>
       <c r="G648" s="57"/>
@@ -25171,7 +25171,7 @@
       <c r="A649" s="57"/>
       <c r="B649" s="57"/>
       <c r="C649" s="58"/>
-      <c r="D649" s="115"/>
+      <c r="D649" s="113"/>
       <c r="E649" s="57"/>
       <c r="F649" s="57"/>
       <c r="G649" s="57"/>
@@ -25202,7 +25202,7 @@
       <c r="A650" s="57"/>
       <c r="B650" s="57"/>
       <c r="C650" s="58"/>
-      <c r="D650" s="115"/>
+      <c r="D650" s="113"/>
       <c r="E650" s="57"/>
       <c r="F650" s="57"/>
       <c r="G650" s="57"/>
@@ -25233,7 +25233,7 @@
       <c r="A651" s="57"/>
       <c r="B651" s="57"/>
       <c r="C651" s="58"/>
-      <c r="D651" s="115"/>
+      <c r="D651" s="113"/>
       <c r="E651" s="57"/>
       <c r="F651" s="57"/>
       <c r="G651" s="57"/>
@@ -25264,7 +25264,7 @@
       <c r="A652" s="57"/>
       <c r="B652" s="57"/>
       <c r="C652" s="58"/>
-      <c r="D652" s="115"/>
+      <c r="D652" s="113"/>
       <c r="E652" s="57"/>
       <c r="F652" s="57"/>
       <c r="G652" s="57"/>
@@ -25295,7 +25295,7 @@
       <c r="A653" s="57"/>
       <c r="B653" s="57"/>
       <c r="C653" s="58"/>
-      <c r="D653" s="115"/>
+      <c r="D653" s="113"/>
       <c r="E653" s="57"/>
       <c r="F653" s="57"/>
       <c r="G653" s="57"/>
@@ -25326,7 +25326,7 @@
       <c r="A654" s="57"/>
       <c r="B654" s="57"/>
       <c r="C654" s="58"/>
-      <c r="D654" s="115"/>
+      <c r="D654" s="113"/>
       <c r="E654" s="57"/>
       <c r="F654" s="57"/>
       <c r="G654" s="57"/>
@@ -25357,7 +25357,7 @@
       <c r="A655" s="57"/>
       <c r="B655" s="57"/>
       <c r="C655" s="58"/>
-      <c r="D655" s="115"/>
+      <c r="D655" s="113"/>
       <c r="E655" s="57"/>
       <c r="F655" s="57"/>
       <c r="G655" s="57"/>
@@ -25388,7 +25388,7 @@
       <c r="A656" s="57"/>
       <c r="B656" s="57"/>
       <c r="C656" s="58"/>
-      <c r="D656" s="115"/>
+      <c r="D656" s="113"/>
       <c r="E656" s="57"/>
       <c r="F656" s="57"/>
       <c r="G656" s="57"/>
@@ -25419,7 +25419,7 @@
       <c r="A657" s="57"/>
       <c r="B657" s="57"/>
       <c r="C657" s="58"/>
-      <c r="D657" s="115"/>
+      <c r="D657" s="113"/>
       <c r="E657" s="57"/>
       <c r="F657" s="57"/>
       <c r="G657" s="57"/>
@@ -25450,7 +25450,7 @@
       <c r="A658" s="57"/>
       <c r="B658" s="57"/>
       <c r="C658" s="58"/>
-      <c r="D658" s="115"/>
+      <c r="D658" s="113"/>
       <c r="E658" s="57"/>
       <c r="F658" s="57"/>
       <c r="G658" s="57"/>
@@ -25481,7 +25481,7 @@
       <c r="A659" s="57"/>
       <c r="B659" s="57"/>
       <c r="C659" s="58"/>
-      <c r="D659" s="115"/>
+      <c r="D659" s="113"/>
       <c r="E659" s="57"/>
       <c r="F659" s="57"/>
       <c r="G659" s="57"/>
@@ -25512,7 +25512,7 @@
       <c r="A660" s="57"/>
       <c r="B660" s="57"/>
       <c r="C660" s="58"/>
-      <c r="D660" s="115"/>
+      <c r="D660" s="113"/>
       <c r="E660" s="57"/>
       <c r="F660" s="57"/>
       <c r="G660" s="57"/>
@@ -25543,7 +25543,7 @@
       <c r="A661" s="57"/>
       <c r="B661" s="57"/>
       <c r="C661" s="58"/>
-      <c r="D661" s="115"/>
+      <c r="D661" s="113"/>
       <c r="E661" s="57"/>
       <c r="F661" s="57"/>
       <c r="G661" s="57"/>
@@ -25574,7 +25574,7 @@
       <c r="A662" s="57"/>
       <c r="B662" s="57"/>
       <c r="C662" s="58"/>
-      <c r="D662" s="115"/>
+      <c r="D662" s="113"/>
       <c r="E662" s="57"/>
       <c r="F662" s="57"/>
       <c r="G662" s="57"/>
@@ -25605,7 +25605,7 @@
       <c r="A663" s="57"/>
       <c r="B663" s="57"/>
       <c r="C663" s="58"/>
-      <c r="D663" s="115"/>
+      <c r="D663" s="113"/>
       <c r="E663" s="57"/>
       <c r="F663" s="57"/>
       <c r="G663" s="57"/>
@@ -25636,7 +25636,7 @@
       <c r="A664" s="57"/>
       <c r="B664" s="57"/>
       <c r="C664" s="58"/>
-      <c r="D664" s="115"/>
+      <c r="D664" s="113"/>
       <c r="E664" s="57"/>
       <c r="F664" s="57"/>
       <c r="G664" s="57"/>
@@ -25667,7 +25667,7 @@
       <c r="A665" s="57"/>
       <c r="B665" s="57"/>
       <c r="C665" s="58"/>
-      <c r="D665" s="115"/>
+      <c r="D665" s="113"/>
       <c r="E665" s="57"/>
       <c r="F665" s="57"/>
       <c r="G665" s="57"/>
@@ -25698,7 +25698,7 @@
       <c r="A666" s="57"/>
       <c r="B666" s="57"/>
       <c r="C666" s="58"/>
-      <c r="D666" s="115"/>
+      <c r="D666" s="113"/>
       <c r="E666" s="57"/>
       <c r="F666" s="57"/>
       <c r="G666" s="57"/>
@@ -25729,7 +25729,7 @@
       <c r="A667" s="57"/>
       <c r="B667" s="57"/>
       <c r="C667" s="58"/>
-      <c r="D667" s="115"/>
+      <c r="D667" s="113"/>
       <c r="E667" s="57"/>
       <c r="F667" s="57"/>
       <c r="G667" s="57"/>
@@ -25760,7 +25760,7 @@
       <c r="A668" s="57"/>
       <c r="B668" s="57"/>
       <c r="C668" s="58"/>
-      <c r="D668" s="115"/>
+      <c r="D668" s="113"/>
       <c r="E668" s="57"/>
       <c r="F668" s="57"/>
       <c r="G668" s="57"/>
@@ -25791,7 +25791,7 @@
       <c r="A669" s="57"/>
       <c r="B669" s="57"/>
       <c r="C669" s="58"/>
-      <c r="D669" s="115"/>
+      <c r="D669" s="113"/>
       <c r="E669" s="57"/>
       <c r="F669" s="57"/>
       <c r="G669" s="57"/>
@@ -25822,7 +25822,7 @@
       <c r="A670" s="57"/>
       <c r="B670" s="57"/>
       <c r="C670" s="58"/>
-      <c r="D670" s="115"/>
+      <c r="D670" s="113"/>
       <c r="E670" s="57"/>
       <c r="F670" s="57"/>
       <c r="G670" s="57"/>
@@ -25853,7 +25853,7 @@
       <c r="A671" s="57"/>
       <c r="B671" s="57"/>
       <c r="C671" s="58"/>
-      <c r="D671" s="115"/>
+      <c r="D671" s="113"/>
       <c r="E671" s="57"/>
       <c r="F671" s="57"/>
       <c r="G671" s="57"/>
@@ -25884,7 +25884,7 @@
       <c r="A672" s="57"/>
       <c r="B672" s="57"/>
       <c r="C672" s="58"/>
-      <c r="D672" s="115"/>
+      <c r="D672" s="113"/>
       <c r="E672" s="57"/>
       <c r="F672" s="57"/>
       <c r="G672" s="57"/>
@@ -25915,7 +25915,7 @@
       <c r="A673" s="57"/>
       <c r="B673" s="57"/>
       <c r="C673" s="58"/>
-      <c r="D673" s="115"/>
+      <c r="D673" s="113"/>
       <c r="E673" s="57"/>
       <c r="F673" s="57"/>
       <c r="G673" s="57"/>
@@ -25946,7 +25946,7 @@
       <c r="A674" s="57"/>
       <c r="B674" s="57"/>
       <c r="C674" s="58"/>
-      <c r="D674" s="115"/>
+      <c r="D674" s="113"/>
       <c r="E674" s="57"/>
       <c r="F674" s="57"/>
       <c r="G674" s="57"/>
@@ -25977,7 +25977,7 @@
       <c r="A675" s="57"/>
       <c r="B675" s="57"/>
       <c r="C675" s="58"/>
-      <c r="D675" s="115"/>
+      <c r="D675" s="113"/>
       <c r="E675" s="57"/>
       <c r="F675" s="57"/>
       <c r="G675" s="57"/>
@@ -26008,7 +26008,7 @@
       <c r="A676" s="57"/>
       <c r="B676" s="57"/>
       <c r="C676" s="58"/>
-      <c r="D676" s="115"/>
+      <c r="D676" s="113"/>
       <c r="E676" s="57"/>
       <c r="F676" s="57"/>
       <c r="G676" s="57"/>
@@ -26039,7 +26039,7 @@
       <c r="A677" s="57"/>
       <c r="B677" s="57"/>
       <c r="C677" s="58"/>
-      <c r="D677" s="115"/>
+      <c r="D677" s="113"/>
       <c r="E677" s="57"/>
       <c r="F677" s="57"/>
       <c r="G677" s="57"/>
@@ -26070,7 +26070,7 @@
       <c r="A678" s="57"/>
       <c r="B678" s="57"/>
       <c r="C678" s="58"/>
-      <c r="D678" s="115"/>
+      <c r="D678" s="113"/>
       <c r="E678" s="57"/>
       <c r="F678" s="57"/>
       <c r="G678" s="57"/>
@@ -26101,7 +26101,7 @@
       <c r="A679" s="57"/>
       <c r="B679" s="57"/>
       <c r="C679" s="58"/>
-      <c r="D679" s="115"/>
+      <c r="D679" s="113"/>
       <c r="E679" s="57"/>
       <c r="F679" s="57"/>
       <c r="G679" s="57"/>
@@ -26132,7 +26132,7 @@
       <c r="A680" s="57"/>
       <c r="B680" s="57"/>
       <c r="C680" s="58"/>
-      <c r="D680" s="115"/>
+      <c r="D680" s="113"/>
       <c r="E680" s="57"/>
       <c r="F680" s="57"/>
       <c r="G680" s="57"/>
@@ -26163,7 +26163,7 @@
       <c r="A681" s="57"/>
       <c r="B681" s="57"/>
       <c r="C681" s="58"/>
-      <c r="D681" s="115"/>
+      <c r="D681" s="113"/>
       <c r="E681" s="57"/>
       <c r="F681" s="57"/>
       <c r="G681" s="57"/>
@@ -26194,7 +26194,7 @@
       <c r="A682" s="57"/>
       <c r="B682" s="57"/>
       <c r="C682" s="58"/>
-      <c r="D682" s="115"/>
+      <c r="D682" s="113"/>
       <c r="E682" s="57"/>
       <c r="F682" s="57"/>
       <c r="G682" s="57"/>
@@ -26225,7 +26225,7 @@
       <c r="A683" s="57"/>
       <c r="B683" s="57"/>
       <c r="C683" s="58"/>
-      <c r="D683" s="115"/>
+      <c r="D683" s="113"/>
       <c r="E683" s="57"/>
       <c r="F683" s="57"/>
       <c r="G683" s="57"/>
@@ -26256,7 +26256,7 @@
       <c r="A684" s="57"/>
       <c r="B684" s="57"/>
       <c r="C684" s="58"/>
-      <c r="D684" s="115"/>
+      <c r="D684" s="113"/>
       <c r="E684" s="57"/>
       <c r="F684" s="57"/>
       <c r="G684" s="57"/>
@@ -26287,7 +26287,7 @@
       <c r="A685" s="57"/>
       <c r="B685" s="57"/>
       <c r="C685" s="58"/>
-      <c r="D685" s="115"/>
+      <c r="D685" s="113"/>
       <c r="E685" s="57"/>
       <c r="F685" s="57"/>
       <c r="G685" s="57"/>
@@ -26318,7 +26318,7 @@
       <c r="A686" s="57"/>
       <c r="B686" s="57"/>
       <c r="C686" s="58"/>
-      <c r="D686" s="115"/>
+      <c r="D686" s="113"/>
       <c r="E686" s="57"/>
       <c r="F686" s="57"/>
       <c r="G686" s="57"/>
@@ -26349,7 +26349,7 @@
       <c r="A687" s="57"/>
       <c r="B687" s="57"/>
       <c r="C687" s="58"/>
-      <c r="D687" s="115"/>
+      <c r="D687" s="113"/>
       <c r="E687" s="57"/>
       <c r="F687" s="57"/>
       <c r="G687" s="57"/>
@@ -26380,7 +26380,7 @@
       <c r="A688" s="57"/>
       <c r="B688" s="57"/>
       <c r="C688" s="58"/>
-      <c r="D688" s="115"/>
+      <c r="D688" s="113"/>
       <c r="E688" s="57"/>
       <c r="F688" s="57"/>
       <c r="G688" s="57"/>
@@ -26411,7 +26411,7 @@
       <c r="A689" s="57"/>
       <c r="B689" s="57"/>
       <c r="C689" s="58"/>
-      <c r="D689" s="115"/>
+      <c r="D689" s="113"/>
       <c r="E689" s="57"/>
       <c r="F689" s="57"/>
       <c r="G689" s="57"/>
@@ -26442,7 +26442,7 @@
       <c r="A690" s="57"/>
       <c r="B690" s="57"/>
       <c r="C690" s="58"/>
-      <c r="D690" s="115"/>
+      <c r="D690" s="113"/>
       <c r="E690" s="57"/>
       <c r="F690" s="57"/>
       <c r="G690" s="57"/>
@@ -26473,7 +26473,7 @@
       <c r="A691" s="57"/>
       <c r="B691" s="57"/>
       <c r="C691" s="58"/>
-      <c r="D691" s="115"/>
+      <c r="D691" s="113"/>
       <c r="E691" s="57"/>
       <c r="F691" s="57"/>
       <c r="G691" s="57"/>
@@ -26504,7 +26504,7 @@
       <c r="A692" s="57"/>
       <c r="B692" s="57"/>
       <c r="C692" s="58"/>
-      <c r="D692" s="115"/>
+      <c r="D692" s="113"/>
       <c r="E692" s="57"/>
       <c r="F692" s="57"/>
       <c r="G692" s="57"/>
@@ -26535,7 +26535,7 @@
       <c r="A693" s="57"/>
       <c r="B693" s="57"/>
       <c r="C693" s="58"/>
-      <c r="D693" s="115"/>
+      <c r="D693" s="113"/>
       <c r="E693" s="57"/>
       <c r="F693" s="57"/>
       <c r="G693" s="57"/>
@@ -26566,7 +26566,7 @@
       <c r="A694" s="57"/>
       <c r="B694" s="57"/>
       <c r="C694" s="58"/>
-      <c r="D694" s="115"/>
+      <c r="D694" s="113"/>
       <c r="E694" s="57"/>
       <c r="F694" s="57"/>
       <c r="G694" s="57"/>
@@ -26597,7 +26597,7 @@
       <c r="A695" s="57"/>
       <c r="B695" s="57"/>
       <c r="C695" s="58"/>
-      <c r="D695" s="115"/>
+      <c r="D695" s="113"/>
       <c r="E695" s="57"/>
       <c r="F695" s="57"/>
       <c r="G695" s="57"/>
@@ -26628,7 +26628,7 @@
       <c r="A696" s="57"/>
       <c r="B696" s="57"/>
       <c r="C696" s="58"/>
-      <c r="D696" s="115"/>
+      <c r="D696" s="113"/>
       <c r="E696" s="57"/>
       <c r="F696" s="57"/>
       <c r="G696" s="57"/>
@@ -26659,7 +26659,7 @@
       <c r="A697" s="57"/>
       <c r="B697" s="57"/>
       <c r="C697" s="58"/>
-      <c r="D697" s="115"/>
+      <c r="D697" s="113"/>
       <c r="E697" s="57"/>
       <c r="F697" s="57"/>
       <c r="G697" s="57"/>
@@ -26690,7 +26690,7 @@
       <c r="A698" s="57"/>
       <c r="B698" s="57"/>
       <c r="C698" s="58"/>
-      <c r="D698" s="115"/>
+      <c r="D698" s="113"/>
       <c r="E698" s="57"/>
       <c r="F698" s="57"/>
       <c r="G698" s="57"/>
@@ -26721,7 +26721,7 @@
       <c r="A699" s="57"/>
       <c r="B699" s="57"/>
       <c r="C699" s="58"/>
-      <c r="D699" s="115"/>
+      <c r="D699" s="113"/>
       <c r="E699" s="57"/>
       <c r="F699" s="57"/>
       <c r="G699" s="57"/>
@@ -26752,7 +26752,7 @@
       <c r="A700" s="57"/>
       <c r="B700" s="57"/>
       <c r="C700" s="58"/>
-      <c r="D700" s="115"/>
+      <c r="D700" s="113"/>
       <c r="E700" s="57"/>
       <c r="F700" s="57"/>
       <c r="G700" s="57"/>
@@ -26783,7 +26783,7 @@
       <c r="A701" s="57"/>
       <c r="B701" s="57"/>
       <c r="C701" s="58"/>
-      <c r="D701" s="115"/>
+      <c r="D701" s="113"/>
       <c r="E701" s="57"/>
       <c r="F701" s="57"/>
       <c r="G701" s="57"/>
@@ -26814,7 +26814,7 @@
       <c r="A702" s="57"/>
       <c r="B702" s="57"/>
       <c r="C702" s="58"/>
-      <c r="D702" s="115"/>
+      <c r="D702" s="113"/>
       <c r="E702" s="57"/>
       <c r="F702" s="57"/>
       <c r="G702" s="57"/>
@@ -26845,7 +26845,7 @@
       <c r="A703" s="57"/>
       <c r="B703" s="57"/>
       <c r="C703" s="58"/>
-      <c r="D703" s="115"/>
+      <c r="D703" s="113"/>
       <c r="E703" s="57"/>
       <c r="F703" s="57"/>
       <c r="G703" s="57"/>
@@ -26876,7 +26876,7 @@
       <c r="A704" s="57"/>
       <c r="B704" s="57"/>
       <c r="C704" s="58"/>
-      <c r="D704" s="115"/>
+      <c r="D704" s="113"/>
       <c r="E704" s="57"/>
       <c r="F704" s="57"/>
       <c r="G704" s="57"/>
@@ -26907,7 +26907,7 @@
       <c r="A705" s="57"/>
       <c r="B705" s="57"/>
       <c r="C705" s="58"/>
-      <c r="D705" s="115"/>
+      <c r="D705" s="113"/>
       <c r="E705" s="57"/>
       <c r="F705" s="57"/>
       <c r="G705" s="57"/>
@@ -26938,7 +26938,7 @@
       <c r="A706" s="57"/>
       <c r="B706" s="57"/>
       <c r="C706" s="58"/>
-      <c r="D706" s="115"/>
+      <c r="D706" s="113"/>
       <c r="E706" s="57"/>
       <c r="F706" s="57"/>
       <c r="G706" s="57"/>
@@ -26969,7 +26969,7 @@
       <c r="A707" s="57"/>
       <c r="B707" s="57"/>
       <c r="C707" s="58"/>
-      <c r="D707" s="115"/>
+      <c r="D707" s="113"/>
       <c r="E707" s="57"/>
       <c r="F707" s="57"/>
       <c r="G707" s="57"/>
@@ -27000,7 +27000,7 @@
       <c r="A708" s="57"/>
       <c r="B708" s="57"/>
       <c r="C708" s="58"/>
-      <c r="D708" s="115"/>
+      <c r="D708" s="113"/>
       <c r="E708" s="57"/>
       <c r="F708" s="57"/>
       <c r="G708" s="57"/>
@@ -27031,7 +27031,7 @@
       <c r="A709" s="57"/>
       <c r="B709" s="57"/>
       <c r="C709" s="58"/>
-      <c r="D709" s="115"/>
+      <c r="D709" s="113"/>
       <c r="E709" s="57"/>
       <c r="F709" s="57"/>
       <c r="G709" s="57"/>
@@ -27062,7 +27062,7 @@
       <c r="A710" s="57"/>
       <c r="B710" s="57"/>
       <c r="C710" s="58"/>
-      <c r="D710" s="115"/>
+      <c r="D710" s="113"/>
       <c r="E710" s="57"/>
       <c r="F710" s="57"/>
       <c r="G710" s="57"/>
@@ -27093,7 +27093,7 @@
       <c r="A711" s="57"/>
       <c r="B711" s="57"/>
       <c r="C711" s="58"/>
-      <c r="D711" s="115"/>
+      <c r="D711" s="113"/>
       <c r="E711" s="57"/>
       <c r="F711" s="57"/>
       <c r="G711" s="57"/>
@@ -27124,7 +27124,7 @@
       <c r="A712" s="57"/>
       <c r="B712" s="57"/>
       <c r="C712" s="58"/>
-      <c r="D712" s="115"/>
+      <c r="D712" s="113"/>
       <c r="E712" s="57"/>
       <c r="F712" s="57"/>
       <c r="G712" s="57"/>
@@ -27155,7 +27155,7 @@
       <c r="A713" s="57"/>
       <c r="B713" s="57"/>
       <c r="C713" s="58"/>
-      <c r="D713" s="115"/>
+      <c r="D713" s="113"/>
       <c r="E713" s="57"/>
       <c r="F713" s="57"/>
       <c r="G713" s="57"/>
@@ -27186,7 +27186,7 @@
       <c r="A714" s="57"/>
       <c r="B714" s="57"/>
       <c r="C714" s="58"/>
-      <c r="D714" s="115"/>
+      <c r="D714" s="113"/>
       <c r="E714" s="57"/>
       <c r="F714" s="57"/>
       <c r="G714" s="57"/>
@@ -27217,7 +27217,7 @@
       <c r="A715" s="57"/>
       <c r="B715" s="57"/>
       <c r="C715" s="58"/>
-      <c r="D715" s="115"/>
+      <c r="D715" s="113"/>
       <c r="E715" s="57"/>
       <c r="F715" s="57"/>
       <c r="G715" s="57"/>
@@ -27248,7 +27248,7 @@
       <c r="A716" s="57"/>
       <c r="B716" s="57"/>
       <c r="C716" s="58"/>
-      <c r="D716" s="115"/>
+      <c r="D716" s="113"/>
       <c r="E716" s="57"/>
       <c r="F716" s="57"/>
       <c r="G716" s="57"/>
@@ -27279,7 +27279,7 @@
       <c r="A717" s="57"/>
       <c r="B717" s="57"/>
       <c r="C717" s="58"/>
-      <c r="D717" s="115"/>
+      <c r="D717" s="113"/>
       <c r="E717" s="57"/>
       <c r="F717" s="57"/>
       <c r="G717" s="57"/>
@@ -27310,7 +27310,7 @@
       <c r="A718" s="57"/>
       <c r="B718" s="57"/>
       <c r="C718" s="58"/>
-      <c r="D718" s="115"/>
+      <c r="D718" s="113"/>
       <c r="E718" s="57"/>
       <c r="F718" s="57"/>
       <c r="G718" s="57"/>
@@ -27341,7 +27341,7 @@
       <c r="A719" s="57"/>
       <c r="B719" s="57"/>
       <c r="C719" s="58"/>
-      <c r="D719" s="115"/>
+      <c r="D719" s="113"/>
       <c r="E719" s="57"/>
       <c r="F719" s="57"/>
       <c r="G719" s="57"/>
@@ -27372,7 +27372,7 @@
       <c r="A720" s="57"/>
       <c r="B720" s="57"/>
       <c r="C720" s="58"/>
-      <c r="D720" s="115"/>
+      <c r="D720" s="113"/>
       <c r="E720" s="57"/>
       <c r="F720" s="57"/>
       <c r="G720" s="57"/>
@@ -27403,7 +27403,7 @@
       <c r="A721" s="57"/>
       <c r="B721" s="57"/>
       <c r="C721" s="58"/>
-      <c r="D721" s="115"/>
+      <c r="D721" s="113"/>
       <c r="E721" s="57"/>
       <c r="F721" s="57"/>
       <c r="G721" s="57"/>
@@ -27434,7 +27434,7 @@
       <c r="A722" s="57"/>
       <c r="B722" s="57"/>
       <c r="C722" s="58"/>
-      <c r="D722" s="115"/>
+      <c r="D722" s="113"/>
       <c r="E722" s="57"/>
       <c r="F722" s="57"/>
       <c r="G722" s="57"/>
@@ -27465,7 +27465,7 @@
       <c r="A723" s="57"/>
       <c r="B723" s="57"/>
       <c r="C723" s="58"/>
-      <c r="D723" s="115"/>
+      <c r="D723" s="113"/>
       <c r="E723" s="57"/>
       <c r="F723" s="57"/>
       <c r="G723" s="57"/>
@@ -27496,7 +27496,7 @@
       <c r="A724" s="57"/>
       <c r="B724" s="57"/>
       <c r="C724" s="58"/>
-      <c r="D724" s="115"/>
+      <c r="D724" s="113"/>
       <c r="E724" s="57"/>
       <c r="F724" s="57"/>
       <c r="G724" s="57"/>
@@ -27527,7 +27527,7 @@
       <c r="A725" s="57"/>
       <c r="B725" s="57"/>
       <c r="C725" s="58"/>
-      <c r="D725" s="115"/>
+      <c r="D725" s="113"/>
       <c r="E725" s="57"/>
       <c r="F725" s="57"/>
       <c r="G725" s="57"/>
@@ -27558,7 +27558,7 @@
       <c r="A726" s="57"/>
       <c r="B726" s="57"/>
       <c r="C726" s="58"/>
-      <c r="D726" s="115"/>
+      <c r="D726" s="113"/>
       <c r="E726" s="57"/>
       <c r="F726" s="57"/>
       <c r="G726" s="57"/>
@@ -27589,7 +27589,7 @@
       <c r="A727" s="57"/>
       <c r="B727" s="57"/>
       <c r="C727" s="58"/>
-      <c r="D727" s="115"/>
+      <c r="D727" s="113"/>
       <c r="E727" s="57"/>
       <c r="F727" s="57"/>
       <c r="G727" s="57"/>
@@ -27620,7 +27620,7 @@
       <c r="A728" s="57"/>
       <c r="B728" s="57"/>
       <c r="C728" s="58"/>
-      <c r="D728" s="115"/>
+      <c r="D728" s="113"/>
       <c r="E728" s="57"/>
       <c r="F728" s="57"/>
       <c r="G728" s="57"/>
@@ -27651,7 +27651,7 @@
       <c r="A729" s="57"/>
       <c r="B729" s="57"/>
       <c r="C729" s="58"/>
-      <c r="D729" s="115"/>
+      <c r="D729" s="113"/>
       <c r="E729" s="57"/>
       <c r="F729" s="57"/>
       <c r="G729" s="57"/>
@@ -27682,7 +27682,7 @@
       <c r="A730" s="57"/>
       <c r="B730" s="57"/>
       <c r="C730" s="58"/>
-      <c r="D730" s="115"/>
+      <c r="D730" s="113"/>
       <c r="E730" s="57"/>
       <c r="F730" s="57"/>
       <c r="G730" s="57"/>
@@ -27713,7 +27713,7 @@
       <c r="A731" s="57"/>
       <c r="B731" s="57"/>
       <c r="C731" s="58"/>
-      <c r="D731" s="115"/>
+      <c r="D731" s="113"/>
       <c r="E731" s="57"/>
       <c r="F731" s="57"/>
       <c r="G731" s="57"/>
@@ -27744,7 +27744,7 @@
       <c r="A732" s="57"/>
       <c r="B732" s="57"/>
       <c r="C732" s="58"/>
-      <c r="D732" s="115"/>
+      <c r="D732" s="113"/>
       <c r="E732" s="57"/>
       <c r="F732" s="57"/>
       <c r="G732" s="57"/>
@@ -27775,7 +27775,7 @@
       <c r="A733" s="57"/>
       <c r="B733" s="57"/>
       <c r="C733" s="58"/>
-      <c r="D733" s="115"/>
+      <c r="D733" s="113"/>
       <c r="E733" s="57"/>
       <c r="F733" s="57"/>
       <c r="G733" s="57"/>
@@ -27806,7 +27806,7 @@
       <c r="A734" s="57"/>
       <c r="B734" s="57"/>
       <c r="C734" s="58"/>
-      <c r="D734" s="115"/>
+      <c r="D734" s="113"/>
       <c r="E734" s="57"/>
       <c r="F734" s="57"/>
       <c r="G734" s="57"/>
@@ -27837,7 +27837,7 @@
       <c r="A735" s="57"/>
       <c r="B735" s="57"/>
       <c r="C735" s="58"/>
-      <c r="D735" s="115"/>
+      <c r="D735" s="113"/>
       <c r="E735" s="57"/>
       <c r="F735" s="57"/>
       <c r="G735" s="57"/>
@@ -27868,7 +27868,7 @@
       <c r="A736" s="57"/>
       <c r="B736" s="57"/>
       <c r="C736" s="58"/>
-      <c r="D736" s="115"/>
+      <c r="D736" s="113"/>
       <c r="E736" s="57"/>
       <c r="F736" s="57"/>
       <c r="G736" s="57"/>
@@ -27899,7 +27899,7 @@
       <c r="A737" s="57"/>
       <c r="B737" s="57"/>
       <c r="C737" s="58"/>
-      <c r="D737" s="115"/>
+      <c r="D737" s="113"/>
       <c r="E737" s="57"/>
       <c r="F737" s="57"/>
       <c r="G737" s="57"/>
@@ -27930,7 +27930,7 @@
       <c r="A738" s="57"/>
       <c r="B738" s="57"/>
       <c r="C738" s="58"/>
-      <c r="D738" s="115"/>
+      <c r="D738" s="113"/>
       <c r="E738" s="57"/>
       <c r="F738" s="57"/>
       <c r="G738" s="57"/>
@@ -27961,7 +27961,7 @@
       <c r="A739" s="57"/>
       <c r="B739" s="57"/>
       <c r="C739" s="58"/>
-      <c r="D739" s="115"/>
+      <c r="D739" s="113"/>
       <c r="E739" s="57"/>
       <c r="F739" s="57"/>
       <c r="G739" s="57"/>
@@ -27992,7 +27992,7 @@
       <c r="A740" s="57"/>
       <c r="B740" s="57"/>
       <c r="C740" s="58"/>
-      <c r="D740" s="115"/>
+      <c r="D740" s="113"/>
       <c r="E740" s="57"/>
       <c r="F740" s="57"/>
       <c r="G740" s="57"/>
@@ -28023,7 +28023,7 @@
       <c r="A741" s="57"/>
       <c r="B741" s="57"/>
       <c r="C741" s="58"/>
-      <c r="D741" s="115"/>
+      <c r="D741" s="113"/>
       <c r="E741" s="57"/>
       <c r="F741" s="57"/>
       <c r="G741" s="57"/>
@@ -28054,7 +28054,7 @@
       <c r="A742" s="57"/>
       <c r="B742" s="57"/>
       <c r="C742" s="58"/>
-      <c r="D742" s="115"/>
+      <c r="D742" s="113"/>
       <c r="E742" s="57"/>
       <c r="F742" s="57"/>
       <c r="G742" s="57"/>
@@ -28085,7 +28085,7 @@
       <c r="A743" s="57"/>
       <c r="B743" s="57"/>
       <c r="C743" s="58"/>
-      <c r="D743" s="115"/>
+      <c r="D743" s="113"/>
       <c r="E743" s="57"/>
       <c r="F743" s="57"/>
       <c r="G743" s="57"/>
@@ -28116,7 +28116,7 @@
       <c r="A744" s="57"/>
       <c r="B744" s="57"/>
       <c r="C744" s="58"/>
-      <c r="D744" s="115"/>
+      <c r="D744" s="113"/>
       <c r="E744" s="57"/>
       <c r="F744" s="57"/>
       <c r="G744" s="57"/>
@@ -28147,7 +28147,7 @@
       <c r="A745" s="57"/>
       <c r="B745" s="57"/>
       <c r="C745" s="58"/>
-      <c r="D745" s="115"/>
+      <c r="D745" s="113"/>
       <c r="E745" s="57"/>
       <c r="F745" s="57"/>
       <c r="G745" s="57"/>
@@ -28178,7 +28178,7 @@
       <c r="A746" s="57"/>
       <c r="B746" s="57"/>
       <c r="C746" s="58"/>
-      <c r="D746" s="115"/>
+      <c r="D746" s="113"/>
       <c r="E746" s="57"/>
       <c r="F746" s="57"/>
       <c r="G746" s="57"/>
@@ -28209,7 +28209,7 @@
       <c r="A747" s="57"/>
       <c r="B747" s="57"/>
       <c r="C747" s="58"/>
-      <c r="D747" s="115"/>
+      <c r="D747" s="113"/>
       <c r="E747" s="57"/>
       <c r="F747" s="57"/>
       <c r="G747" s="57"/>
@@ -28240,7 +28240,7 @@
       <c r="A748" s="57"/>
       <c r="B748" s="57"/>
       <c r="C748" s="58"/>
-      <c r="D748" s="115"/>
+      <c r="D748" s="113"/>
       <c r="E748" s="57"/>
       <c r="F748" s="57"/>
       <c r="G748" s="57"/>
@@ -28271,7 +28271,7 @@
       <c r="A749" s="57"/>
       <c r="B749" s="57"/>
       <c r="C749" s="58"/>
-      <c r="D749" s="115"/>
+      <c r="D749" s="113"/>
       <c r="E749" s="57"/>
       <c r="F749" s="57"/>
       <c r="G749" s="57"/>
@@ -28302,7 +28302,7 @@
       <c r="A750" s="57"/>
       <c r="B750" s="57"/>
       <c r="C750" s="58"/>
-      <c r="D750" s="115"/>
+      <c r="D750" s="113"/>
       <c r="E750" s="57"/>
       <c r="F750" s="57"/>
       <c r="G750" s="57"/>
@@ -28333,7 +28333,7 @@
       <c r="A751" s="57"/>
       <c r="B751" s="57"/>
       <c r="C751" s="58"/>
-      <c r="D751" s="115"/>
+      <c r="D751" s="113"/>
       <c r="E751" s="57"/>
       <c r="F751" s="57"/>
       <c r="G751" s="57"/>
@@ -28364,7 +28364,7 @@
       <c r="A752" s="57"/>
       <c r="B752" s="57"/>
       <c r="C752" s="58"/>
-      <c r="D752" s="115"/>
+      <c r="D752" s="113"/>
       <c r="E752" s="57"/>
       <c r="F752" s="57"/>
       <c r="G752" s="57"/>
@@ -28395,7 +28395,7 @@
       <c r="A753" s="57"/>
       <c r="B753" s="57"/>
       <c r="C753" s="58"/>
-      <c r="D753" s="115"/>
+      <c r="D753" s="113"/>
       <c r="E753" s="57"/>
       <c r="F753" s="57"/>
       <c r="G753" s="57"/>
@@ -28426,7 +28426,7 @@
       <c r="A754" s="57"/>
       <c r="B754" s="57"/>
       <c r="C754" s="58"/>
-      <c r="D754" s="115"/>
+      <c r="D754" s="113"/>
       <c r="E754" s="57"/>
       <c r="F754" s="57"/>
       <c r="G754" s="57"/>
@@ -28457,7 +28457,7 @@
       <c r="A755" s="57"/>
       <c r="B755" s="57"/>
       <c r="C755" s="58"/>
-      <c r="D755" s="115"/>
+      <c r="D755" s="113"/>
       <c r="E755" s="57"/>
       <c r="F755" s="57"/>
       <c r="G755" s="57"/>
@@ -28488,7 +28488,7 @@
       <c r="A756" s="57"/>
       <c r="B756" s="57"/>
       <c r="C756" s="58"/>
-      <c r="D756" s="115"/>
+      <c r="D756" s="113"/>
       <c r="E756" s="57"/>
       <c r="F756" s="57"/>
       <c r="G756" s="57"/>
@@ -28519,7 +28519,7 @@
       <c r="A757" s="57"/>
       <c r="B757" s="57"/>
       <c r="C757" s="58"/>
-      <c r="D757" s="115"/>
+      <c r="D757" s="113"/>
       <c r="E757" s="57"/>
       <c r="F757" s="57"/>
       <c r="G757" s="57"/>
@@ -28550,7 +28550,7 @@
       <c r="A758" s="57"/>
       <c r="B758" s="57"/>
       <c r="C758" s="58"/>
-      <c r="D758" s="115"/>
+      <c r="D758" s="113"/>
       <c r="E758" s="57"/>
       <c r="F758" s="57"/>
       <c r="G758" s="57"/>
@@ -28581,7 +28581,7 @@
       <c r="A759" s="57"/>
       <c r="B759" s="57"/>
       <c r="C759" s="58"/>
-      <c r="D759" s="115"/>
+      <c r="D759" s="113"/>
       <c r="E759" s="57"/>
       <c r="F759" s="57"/>
       <c r="G759" s="57"/>
@@ -28612,7 +28612,7 @@
       <c r="A760" s="57"/>
       <c r="B760" s="57"/>
       <c r="C760" s="58"/>
-      <c r="D760" s="115"/>
+      <c r="D760" s="113"/>
       <c r="E760" s="57"/>
       <c r="F760" s="57"/>
       <c r="G760" s="57"/>
@@ -28643,7 +28643,7 @@
       <c r="A761" s="57"/>
       <c r="B761" s="57"/>
       <c r="C761" s="58"/>
-      <c r="D761" s="115"/>
+      <c r="D761" s="113"/>
       <c r="E761" s="57"/>
       <c r="F761" s="57"/>
       <c r="G761" s="57"/>
@@ -28674,7 +28674,7 @@
       <c r="A762" s="57"/>
       <c r="B762" s="57"/>
       <c r="C762" s="58"/>
-      <c r="D762" s="115"/>
+      <c r="D762" s="113"/>
       <c r="E762" s="57"/>
       <c r="F762" s="57"/>
       <c r="G762" s="57"/>
@@ -28705,7 +28705,7 @@
       <c r="A763" s="57"/>
       <c r="B763" s="57"/>
       <c r="C763" s="58"/>
-      <c r="D763" s="115"/>
+      <c r="D763" s="113"/>
       <c r="E763" s="57"/>
       <c r="F763" s="57"/>
       <c r="G763" s="57"/>
@@ -28736,7 +28736,7 @@
       <c r="A764" s="57"/>
       <c r="B764" s="57"/>
       <c r="C764" s="58"/>
-      <c r="D764" s="115"/>
+      <c r="D764" s="113"/>
       <c r="E764" s="57"/>
       <c r="F764" s="57"/>
       <c r="G764" s="57"/>
@@ -28767,7 +28767,7 @@
       <c r="A765" s="57"/>
       <c r="B765" s="57"/>
       <c r="C765" s="58"/>
-      <c r="D765" s="115"/>
+      <c r="D765" s="113"/>
       <c r="E765" s="57"/>
       <c r="F765" s="57"/>
       <c r="G765" s="57"/>
@@ -28798,7 +28798,7 @@
       <c r="A766" s="57"/>
       <c r="B766" s="57"/>
       <c r="C766" s="58"/>
-      <c r="D766" s="115"/>
+      <c r="D766" s="113"/>
       <c r="E766" s="57"/>
       <c r="F766" s="57"/>
       <c r="G766" s="57"/>
@@ -28829,7 +28829,7 @@
       <c r="A767" s="57"/>
       <c r="B767" s="57"/>
       <c r="C767" s="58"/>
-      <c r="D767" s="115"/>
+      <c r="D767" s="113"/>
       <c r="E767" s="57"/>
       <c r="F767" s="57"/>
       <c r="G767" s="57"/>
@@ -28860,7 +28860,7 @@
       <c r="A768" s="57"/>
       <c r="B768" s="57"/>
       <c r="C768" s="58"/>
-      <c r="D768" s="115"/>
+      <c r="D768" s="113"/>
       <c r="E768" s="57"/>
       <c r="F768" s="57"/>
       <c r="G768" s="57"/>
@@ -28891,7 +28891,7 @@
       <c r="A769" s="57"/>
       <c r="B769" s="57"/>
       <c r="C769" s="58"/>
-      <c r="D769" s="115"/>
+      <c r="D769" s="113"/>
       <c r="E769" s="57"/>
       <c r="F769" s="57"/>
       <c r="G769" s="57"/>
@@ -28922,7 +28922,7 @@
       <c r="A770" s="57"/>
       <c r="B770" s="57"/>
       <c r="C770" s="58"/>
-      <c r="D770" s="115"/>
+      <c r="D770" s="113"/>
       <c r="E770" s="57"/>
       <c r="F770" s="57"/>
       <c r="G770" s="57"/>
@@ -28953,7 +28953,7 @@
       <c r="A771" s="57"/>
       <c r="B771" s="57"/>
       <c r="C771" s="58"/>
-      <c r="D771" s="115"/>
+      <c r="D771" s="113"/>
       <c r="E771" s="57"/>
       <c r="F771" s="57"/>
       <c r="G771" s="57"/>
@@ -28984,7 +28984,7 @@
       <c r="A772" s="57"/>
       <c r="B772" s="57"/>
       <c r="C772" s="58"/>
-      <c r="D772" s="115"/>
+      <c r="D772" s="113"/>
       <c r="E772" s="57"/>
       <c r="F772" s="57"/>
       <c r="G772" s="57"/>
@@ -29015,7 +29015,7 @@
       <c r="A773" s="57"/>
       <c r="B773" s="57"/>
       <c r="C773" s="58"/>
-      <c r="D773" s="115"/>
+      <c r="D773" s="113"/>
       <c r="E773" s="57"/>
       <c r="F773" s="57"/>
       <c r="G773" s="57"/>
@@ -29046,7 +29046,7 @@
       <c r="A774" s="57"/>
       <c r="B774" s="57"/>
       <c r="C774" s="58"/>
-      <c r="D774" s="115"/>
+      <c r="D774" s="113"/>
       <c r="E774" s="57"/>
       <c r="F774" s="57"/>
       <c r="G774" s="57"/>
@@ -29077,7 +29077,7 @@
       <c r="A775" s="57"/>
       <c r="B775" s="57"/>
       <c r="C775" s="58"/>
-      <c r="D775" s="115"/>
+      <c r="D775" s="113"/>
       <c r="E775" s="57"/>
       <c r="F775" s="57"/>
       <c r="G775" s="57"/>
@@ -29108,7 +29108,7 @@
       <c r="A776" s="57"/>
       <c r="B776" s="57"/>
       <c r="C776" s="58"/>
-      <c r="D776" s="115"/>
+      <c r="D776" s="113"/>
       <c r="E776" s="57"/>
       <c r="F776" s="57"/>
       <c r="G776" s="57"/>
@@ -29139,7 +29139,7 @@
       <c r="A777" s="57"/>
       <c r="B777" s="57"/>
       <c r="C777" s="58"/>
-      <c r="D777" s="115"/>
+      <c r="D777" s="113"/>
       <c r="E777" s="57"/>
       <c r="F777" s="57"/>
       <c r="G777" s="57"/>
@@ -29170,7 +29170,7 @@
       <c r="A778" s="57"/>
       <c r="B778" s="57"/>
       <c r="C778" s="58"/>
-      <c r="D778" s="115"/>
+      <c r="D778" s="113"/>
       <c r="E778" s="57"/>
       <c r="F778" s="57"/>
       <c r="G778" s="57"/>
@@ -29201,7 +29201,7 @@
       <c r="A779" s="57"/>
       <c r="B779" s="57"/>
       <c r="C779" s="58"/>
-      <c r="D779" s="115"/>
+      <c r="D779" s="113"/>
       <c r="E779" s="57"/>
       <c r="F779" s="57"/>
       <c r="G779" s="57"/>
@@ -29232,7 +29232,7 @@
       <c r="A780" s="57"/>
       <c r="B780" s="57"/>
       <c r="C780" s="58"/>
-      <c r="D780" s="115"/>
+      <c r="D780" s="113"/>
       <c r="E780" s="57"/>
       <c r="F780" s="57"/>
       <c r="G780" s="57"/>
@@ -29263,7 +29263,7 @@
       <c r="A781" s="57"/>
       <c r="B781" s="57"/>
       <c r="C781" s="58"/>
-      <c r="D781" s="115"/>
+      <c r="D781" s="113"/>
       <c r="E781" s="57"/>
       <c r="F781" s="57"/>
       <c r="G781" s="57"/>
@@ -29294,7 +29294,7 @@
       <c r="A782" s="57"/>
       <c r="B782" s="57"/>
       <c r="C782" s="58"/>
-      <c r="D782" s="115"/>
+      <c r="D782" s="113"/>
       <c r="E782" s="57"/>
       <c r="F782" s="57"/>
       <c r="G782" s="57"/>
@@ -29325,7 +29325,7 @@
       <c r="A783" s="57"/>
       <c r="B783" s="57"/>
       <c r="C783" s="58"/>
-      <c r="D783" s="115"/>
+      <c r="D783" s="113"/>
       <c r="E783" s="57"/>
       <c r="F783" s="57"/>
       <c r="G783" s="57"/>
@@ -29356,7 +29356,7 @@
       <c r="A784" s="57"/>
       <c r="B784" s="57"/>
       <c r="C784" s="58"/>
-      <c r="D784" s="115"/>
+      <c r="D784" s="113"/>
       <c r="E784" s="57"/>
       <c r="F784" s="57"/>
       <c r="G784" s="57"/>
@@ -29387,7 +29387,7 @@
       <c r="A785" s="57"/>
       <c r="B785" s="57"/>
       <c r="C785" s="58"/>
-      <c r="D785" s="115"/>
+      <c r="D785" s="113"/>
       <c r="E785" s="57"/>
       <c r="F785" s="57"/>
       <c r="G785" s="57"/>
@@ -29418,7 +29418,7 @@
       <c r="A786" s="57"/>
       <c r="B786" s="57"/>
       <c r="C786" s="58"/>
-      <c r="D786" s="115"/>
+      <c r="D786" s="113"/>
       <c r="E786" s="57"/>
       <c r="F786" s="57"/>
       <c r="G786" s="57"/>
@@ -29449,7 +29449,7 @@
       <c r="A787" s="57"/>
       <c r="B787" s="57"/>
       <c r="C787" s="58"/>
-      <c r="D787" s="115"/>
+      <c r="D787" s="113"/>
       <c r="E787" s="57"/>
       <c r="F787" s="57"/>
       <c r="G787" s="57"/>
@@ -29480,7 +29480,7 @@
       <c r="A788" s="57"/>
       <c r="B788" s="57"/>
       <c r="C788" s="58"/>
-      <c r="D788" s="115"/>
+      <c r="D788" s="113"/>
       <c r="E788" s="57"/>
       <c r="F788" s="57"/>
       <c r="G788" s="57"/>
@@ -29511,7 +29511,7 @@
       <c r="A789" s="57"/>
       <c r="B789" s="57"/>
       <c r="C789" s="58"/>
-      <c r="D789" s="115"/>
+      <c r="D789" s="113"/>
       <c r="E789" s="57"/>
       <c r="F789" s="57"/>
       <c r="G789" s="57"/>
@@ -29542,7 +29542,7 @@
       <c r="A790" s="57"/>
       <c r="B790" s="57"/>
       <c r="C790" s="58"/>
-      <c r="D790" s="115"/>
+      <c r="D790" s="113"/>
       <c r="E790" s="57"/>
       <c r="F790" s="57"/>
       <c r="G790" s="57"/>
@@ -29573,7 +29573,7 @@
       <c r="A791" s="57"/>
       <c r="B791" s="57"/>
       <c r="C791" s="58"/>
-      <c r="D791" s="115"/>
+      <c r="D791" s="113"/>
       <c r="E791" s="57"/>
       <c r="F791" s="57"/>
       <c r="G791" s="57"/>
@@ -29604,7 +29604,7 @@
       <c r="A792" s="57"/>
       <c r="B792" s="57"/>
       <c r="C792" s="58"/>
-      <c r="D792" s="115"/>
+      <c r="D792" s="113"/>
       <c r="E792" s="57"/>
       <c r="F792" s="57"/>
       <c r="G792" s="57"/>
@@ -29635,7 +29635,7 @@
       <c r="A793" s="57"/>
       <c r="B793" s="57"/>
       <c r="C793" s="58"/>
-      <c r="D793" s="115"/>
+      <c r="D793" s="113"/>
       <c r="E793" s="57"/>
       <c r="F793" s="57"/>
       <c r="G793" s="57"/>
@@ -29666,7 +29666,7 @@
       <c r="A794" s="57"/>
       <c r="B794" s="57"/>
       <c r="C794" s="58"/>
-      <c r="D794" s="115"/>
+      <c r="D794" s="113"/>
       <c r="E794" s="57"/>
       <c r="F794" s="57"/>
       <c r="G794" s="57"/>
@@ -29697,7 +29697,7 @@
       <c r="A795" s="57"/>
       <c r="B795" s="57"/>
       <c r="C795" s="58"/>
-      <c r="D795" s="115"/>
+      <c r="D795" s="113"/>
       <c r="E795" s="57"/>
       <c r="F795" s="57"/>
       <c r="G795" s="57"/>
@@ -29728,7 +29728,7 @@
       <c r="A796" s="57"/>
       <c r="B796" s="57"/>
       <c r="C796" s="58"/>
-      <c r="D796" s="115"/>
+      <c r="D796" s="113"/>
       <c r="E796" s="57"/>
       <c r="F796" s="57"/>
       <c r="G796" s="57"/>
@@ -29759,7 +29759,7 @@
       <c r="A797" s="57"/>
       <c r="B797" s="57"/>
       <c r="C797" s="58"/>
-      <c r="D797" s="115"/>
+      <c r="D797" s="113"/>
       <c r="E797" s="57"/>
       <c r="F797" s="57"/>
       <c r="G797" s="57"/>
@@ -29790,7 +29790,7 @@
       <c r="A798" s="57"/>
       <c r="B798" s="57"/>
       <c r="C798" s="58"/>
-      <c r="D798" s="115"/>
+      <c r="D798" s="113"/>
       <c r="E798" s="57"/>
       <c r="F798" s="57"/>
       <c r="G798" s="57"/>
@@ -29821,7 +29821,7 @@
       <c r="A799" s="57"/>
       <c r="B799" s="57"/>
       <c r="C799" s="58"/>
-      <c r="D799" s="115"/>
+      <c r="D799" s="113"/>
       <c r="E799" s="57"/>
       <c r="F799" s="57"/>
       <c r="G799" s="57"/>
@@ -29852,7 +29852,7 @@
       <c r="A800" s="57"/>
       <c r="B800" s="57"/>
       <c r="C800" s="58"/>
-      <c r="D800" s="115"/>
+      <c r="D800" s="113"/>
       <c r="E800" s="57"/>
       <c r="F800" s="57"/>
       <c r="G800" s="57"/>
@@ -29883,7 +29883,7 @@
       <c r="A801" s="57"/>
       <c r="B801" s="57"/>
       <c r="C801" s="58"/>
-      <c r="D801" s="115"/>
+      <c r="D801" s="113"/>
       <c r="E801" s="57"/>
       <c r="F801" s="57"/>
       <c r="G801" s="57"/>
@@ -29914,7 +29914,7 @@
       <c r="A802" s="57"/>
       <c r="B802" s="57"/>
       <c r="C802" s="58"/>
-      <c r="D802" s="115"/>
+      <c r="D802" s="113"/>
       <c r="E802" s="57"/>
       <c r="F802" s="57"/>
       <c r="G802" s="57"/>
@@ -29945,7 +29945,7 @@
       <c r="A803" s="57"/>
       <c r="B803" s="57"/>
       <c r="C803" s="58"/>
-      <c r="D803" s="115"/>
+      <c r="D803" s="113"/>
       <c r="E803" s="57"/>
       <c r="F803" s="57"/>
       <c r="G803" s="57"/>
@@ -29976,7 +29976,7 @@
       <c r="A804" s="57"/>
       <c r="B804" s="57"/>
       <c r="C804" s="58"/>
-      <c r="D804" s="115"/>
+      <c r="D804" s="113"/>
       <c r="E804" s="57"/>
       <c r="F804" s="57"/>
       <c r="G804" s="57"/>
@@ -30007,7 +30007,7 @@
       <c r="A805" s="57"/>
       <c r="B805" s="57"/>
       <c r="C805" s="58"/>
-      <c r="D805" s="115"/>
+      <c r="D805" s="113"/>
       <c r="E805" s="57"/>
       <c r="F805" s="57"/>
       <c r="G805" s="57"/>
@@ -30038,7 +30038,7 @@
       <c r="A806" s="57"/>
       <c r="B806" s="57"/>
       <c r="C806" s="58"/>
-      <c r="D806" s="115"/>
+      <c r="D806" s="113"/>
       <c r="E806" s="57"/>
       <c r="F806" s="57"/>
       <c r="G806" s="57"/>
@@ -30069,7 +30069,7 @@
       <c r="A807" s="57"/>
       <c r="B807" s="57"/>
       <c r="C807" s="58"/>
-      <c r="D807" s="115"/>
+      <c r="D807" s="113"/>
       <c r="E807" s="57"/>
       <c r="F807" s="57"/>
       <c r="G807" s="57"/>
@@ -30100,7 +30100,7 @@
       <c r="A808" s="57"/>
       <c r="B808" s="57"/>
       <c r="C808" s="58"/>
-      <c r="D808" s="115"/>
+      <c r="D808" s="113"/>
       <c r="E808" s="57"/>
       <c r="F808" s="57"/>
       <c r="G808" s="57"/>
@@ -30131,7 +30131,7 @@
       <c r="A809" s="57"/>
       <c r="B809" s="57"/>
       <c r="C809" s="58"/>
-      <c r="D809" s="115"/>
+      <c r="D809" s="113"/>
       <c r="E809" s="57"/>
       <c r="F809" s="57"/>
       <c r="G809" s="57"/>
@@ -30162,7 +30162,7 @@
       <c r="A810" s="57"/>
       <c r="B810" s="57"/>
       <c r="C810" s="58"/>
-      <c r="D810" s="115"/>
+      <c r="D810" s="113"/>
       <c r="E810" s="57"/>
       <c r="F810" s="57"/>
       <c r="G810" s="57"/>
@@ -30193,7 +30193,7 @@
       <c r="A811" s="57"/>
       <c r="B811" s="57"/>
       <c r="C811" s="58"/>
-      <c r="D811" s="115"/>
+      <c r="D811" s="113"/>
       <c r="E811" s="57"/>
       <c r="F811" s="57"/>
       <c r="G811" s="57"/>
@@ -30224,7 +30224,7 @@
       <c r="A812" s="57"/>
       <c r="B812" s="57"/>
       <c r="C812" s="58"/>
-      <c r="D812" s="115"/>
+      <c r="D812" s="113"/>
       <c r="E812" s="57"/>
       <c r="F812" s="57"/>
       <c r="G812" s="57"/>
@@ -30255,7 +30255,7 @@
       <c r="A813" s="57"/>
       <c r="B813" s="57"/>
       <c r="C813" s="58"/>
-      <c r="D813" s="115"/>
+      <c r="D813" s="113"/>
       <c r="E813" s="57"/>
       <c r="F813" s="57"/>
       <c r="G813" s="57"/>
@@ -30286,7 +30286,7 @@
       <c r="A814" s="57"/>
       <c r="B814" s="57"/>
       <c r="C814" s="58"/>
-      <c r="D814" s="115"/>
+      <c r="D814" s="113"/>
       <c r="E814" s="57"/>
       <c r="F814" s="57"/>
       <c r="G814" s="57"/>
@@ -30317,7 +30317,7 @@
       <c r="A815" s="57"/>
       <c r="B815" s="57"/>
       <c r="C815" s="58"/>
-      <c r="D815" s="115"/>
+      <c r="D815" s="113"/>
       <c r="E815" s="57"/>
       <c r="F815" s="57"/>
       <c r="G815" s="57"/>
@@ -30348,7 +30348,7 @@
       <c r="A816" s="57"/>
       <c r="B816" s="57"/>
       <c r="C816" s="58"/>
-      <c r="D816" s="115"/>
+      <c r="D816" s="113"/>
       <c r="E816" s="57"/>
       <c r="F816" s="57"/>
       <c r="G816" s="57"/>
@@ -30379,7 +30379,7 @@
       <c r="A817" s="57"/>
       <c r="B817" s="57"/>
       <c r="C817" s="58"/>
-      <c r="D817" s="115"/>
+      <c r="D817" s="113"/>
       <c r="E817" s="57"/>
       <c r="F817" s="57"/>
       <c r="G817" s="57"/>
@@ -30410,7 +30410,7 @@
       <c r="A818" s="57"/>
       <c r="B818" s="57"/>
       <c r="C818" s="58"/>
-      <c r="D818" s="115"/>
+      <c r="D818" s="113"/>
       <c r="E818" s="57"/>
       <c r="F818" s="57"/>
       <c r="G818" s="57"/>
@@ -30441,7 +30441,7 @@
       <c r="A819" s="57"/>
       <c r="B819" s="57"/>
       <c r="C819" s="58"/>
-      <c r="D819" s="115"/>
+      <c r="D819" s="113"/>
       <c r="E819" s="57"/>
       <c r="F819" s="57"/>
       <c r="G819" s="57"/>
@@ -30472,7 +30472,7 @@
       <c r="A820" s="57"/>
       <c r="B820" s="57"/>
       <c r="C820" s="58"/>
-      <c r="D820" s="115"/>
+      <c r="D820" s="113"/>
       <c r="E820" s="57"/>
       <c r="F820" s="57"/>
       <c r="G820" s="57"/>
@@ -30503,7 +30503,7 @@
       <c r="A821" s="57"/>
       <c r="B821" s="57"/>
       <c r="C821" s="58"/>
-      <c r="D821" s="115"/>
+      <c r="D821" s="113"/>
       <c r="E821" s="57"/>
       <c r="F821" s="57"/>
       <c r="G821" s="57"/>
@@ -30534,7 +30534,7 @@
       <c r="A822" s="57"/>
       <c r="B822" s="57"/>
       <c r="C822" s="58"/>
-      <c r="D822" s="115"/>
+      <c r="D822" s="113"/>
       <c r="E822" s="57"/>
       <c r="F822" s="57"/>
       <c r="G822" s="57"/>
@@ -30565,7 +30565,7 @@
       <c r="A823" s="57"/>
       <c r="B823" s="57"/>
       <c r="C823" s="58"/>
-      <c r="D823" s="115"/>
+      <c r="D823" s="113"/>
       <c r="E823" s="57"/>
       <c r="F823" s="57"/>
       <c r="G823" s="57"/>
@@ -30596,7 +30596,7 @@
       <c r="A824" s="57"/>
       <c r="B824" s="57"/>
       <c r="C824" s="58"/>
-      <c r="D824" s="115"/>
+      <c r="D824" s="113"/>
       <c r="E824" s="57"/>
       <c r="F824" s="57"/>
       <c r="G824" s="57"/>
@@ -30627,7 +30627,7 @@
       <c r="A825" s="57"/>
       <c r="B825" s="57"/>
       <c r="C825" s="58"/>
-      <c r="D825" s="115"/>
+      <c r="D825" s="113"/>
       <c r="E825" s="57"/>
       <c r="F825" s="57"/>
       <c r="G825" s="57"/>
@@ -30658,7 +30658,7 @@
       <c r="A826" s="57"/>
       <c r="B826" s="57"/>
       <c r="C826" s="58"/>
-      <c r="D826" s="115"/>
+      <c r="D826" s="113"/>
       <c r="E826" s="57"/>
       <c r="F826" s="57"/>
       <c r="G826" s="57"/>
@@ -30689,7 +30689,7 @@
       <c r="A827" s="57"/>
       <c r="B827" s="57"/>
       <c r="C827" s="58"/>
-      <c r="D827" s="115"/>
+      <c r="D827" s="113"/>
       <c r="E827" s="57"/>
       <c r="F827" s="57"/>
       <c r="G827" s="57"/>
@@ -30720,7 +30720,7 @@
       <c r="A828" s="57"/>
       <c r="B828" s="57"/>
       <c r="C828" s="58"/>
-      <c r="D828" s="115"/>
+      <c r="D828" s="113"/>
       <c r="E828" s="57"/>
       <c r="F828" s="57"/>
       <c r="G828" s="57"/>
@@ -30751,7 +30751,7 @@
       <c r="A829" s="57"/>
       <c r="B829" s="57"/>
       <c r="C829" s="58"/>
-      <c r="D829" s="115"/>
+      <c r="D829" s="113"/>
       <c r="E829" s="57"/>
       <c r="F829" s="57"/>
       <c r="G829" s="57"/>
@@ -30782,7 +30782,7 @@
       <c r="A830" s="57"/>
       <c r="B830" s="57"/>
       <c r="C830" s="58"/>
-      <c r="D830" s="115"/>
+      <c r="D830" s="113"/>
       <c r="E830" s="57"/>
       <c r="F830" s="57"/>
       <c r="G830" s="57"/>
@@ -30813,7 +30813,7 @@
       <c r="A831" s="57"/>
       <c r="B831" s="57"/>
       <c r="C831" s="58"/>
-      <c r="D831" s="115"/>
+      <c r="D831" s="113"/>
       <c r="E831" s="57"/>
       <c r="F831" s="57"/>
       <c r="G831" s="57"/>
@@ -30844,7 +30844,7 @@
       <c r="A832" s="57"/>
       <c r="B832" s="57"/>
       <c r="C832" s="58"/>
-      <c r="D832" s="115"/>
+      <c r="D832" s="113"/>
       <c r="E832" s="57"/>
       <c r="F832" s="57"/>
       <c r="G832" s="57"/>
@@ -30875,7 +30875,7 @@
       <c r="A833" s="57"/>
       <c r="B833" s="57"/>
       <c r="C833" s="58"/>
-      <c r="D833" s="115"/>
+      <c r="D833" s="113"/>
       <c r="E833" s="57"/>
       <c r="F833" s="57"/>
       <c r="G833" s="57"/>
@@ -30906,7 +30906,7 @@
       <c r="A834" s="57"/>
       <c r="B834" s="57"/>
       <c r="C834" s="58"/>
-      <c r="D834" s="115"/>
+      <c r="D834" s="113"/>
       <c r="E834" s="57"/>
       <c r="F834" s="57"/>
       <c r="G834" s="57"/>
@@ -30937,7 +30937,7 @@
       <c r="A835" s="57"/>
       <c r="B835" s="57"/>
       <c r="C835" s="58"/>
-      <c r="D835" s="115"/>
+      <c r="D835" s="113"/>
       <c r="E835" s="57"/>
       <c r="F835" s="57"/>
       <c r="G835" s="57"/>
@@ -30968,7 +30968,7 @@
       <c r="A836" s="57"/>
       <c r="B836" s="57"/>
       <c r="C836" s="58"/>
-      <c r="D836" s="115"/>
+      <c r="D836" s="113"/>
       <c r="E836" s="57"/>
       <c r="F836" s="57"/>
       <c r="G836" s="57"/>
@@ -30999,7 +30999,7 @@
       <c r="A837" s="57"/>
       <c r="B837" s="57"/>
       <c r="C837" s="58"/>
-      <c r="D837" s="115"/>
+      <c r="D837" s="113"/>
       <c r="E837" s="57"/>
       <c r="F837" s="57"/>
       <c r="G837" s="57"/>
@@ -31030,7 +31030,7 @@
       <c r="A838" s="57"/>
       <c r="B838" s="57"/>
       <c r="C838" s="58"/>
-      <c r="D838" s="115"/>
+      <c r="D838" s="113"/>
       <c r="E838" s="57"/>
       <c r="F838" s="57"/>
       <c r="G838" s="57"/>
@@ -31061,7 +31061,7 @@
       <c r="A839" s="57"/>
       <c r="B839" s="57"/>
       <c r="C839" s="58"/>
-      <c r="D839" s="115"/>
+      <c r="D839" s="113"/>
       <c r="E839" s="57"/>
       <c r="F839" s="57"/>
       <c r="G839" s="57"/>
@@ -31092,7 +31092,7 @@
       <c r="A840" s="57"/>
       <c r="B840" s="57"/>
       <c r="C840" s="58"/>
-      <c r="D840" s="115"/>
+      <c r="D840" s="113"/>
       <c r="E840" s="57"/>
       <c r="F840" s="57"/>
       <c r="G840" s="57"/>
@@ -31123,7 +31123,7 @@
       <c r="A841" s="57"/>
       <c r="B841" s="57"/>
       <c r="C841" s="58"/>
-      <c r="D841" s="115"/>
+      <c r="D841" s="113"/>
       <c r="E841" s="57"/>
       <c r="F841" s="57"/>
       <c r="G841" s="57"/>
@@ -31154,7 +31154,7 @@
       <c r="A842" s="57"/>
       <c r="B842" s="57"/>
       <c r="C842" s="58"/>
-      <c r="D842" s="115"/>
+      <c r="D842" s="113"/>
       <c r="E842" s="57"/>
       <c r="F842" s="57"/>
       <c r="G842" s="57"/>
@@ -31185,7 +31185,7 @@
       <c r="A843" s="57"/>
       <c r="B843" s="57"/>
       <c r="C843" s="58"/>
-      <c r="D843" s="115"/>
+      <c r="D843" s="113"/>
       <c r="E843" s="57"/>
       <c r="F843" s="57"/>
       <c r="G843" s="57"/>
@@ -31216,7 +31216,7 @@
       <c r="A844" s="57"/>
       <c r="B844" s="57"/>
       <c r="C844" s="58"/>
-      <c r="D844" s="115"/>
+      <c r="D844" s="113"/>
       <c r="E844" s="57"/>
       <c r="F844" s="57"/>
       <c r="G844" s="57"/>
@@ -31247,7 +31247,7 @@
       <c r="A845" s="57"/>
       <c r="B845" s="57"/>
       <c r="C845" s="58"/>
-      <c r="D845" s="115"/>
+      <c r="D845" s="113"/>
       <c r="E845" s="57"/>
       <c r="F845" s="57"/>
       <c r="G845" s="57"/>
@@ -31278,7 +31278,7 @@
       <c r="A846" s="57"/>
       <c r="B846" s="57"/>
       <c r="C846" s="58"/>
-      <c r="D846" s="115"/>
+      <c r="D846" s="113"/>
       <c r="E846" s="57"/>
       <c r="F846" s="57"/>
       <c r="G846" s="57"/>
@@ -31309,7 +31309,7 @@
       <c r="A847" s="57"/>
       <c r="B847" s="57"/>
       <c r="C847" s="58"/>
-      <c r="D847" s="115"/>
+      <c r="D847" s="113"/>
       <c r="E847" s="57"/>
       <c r="F847" s="57"/>
       <c r="G847" s="57"/>
@@ -31340,7 +31340,7 @@
       <c r="A848" s="57"/>
       <c r="B848" s="57"/>
       <c r="C848" s="58"/>
-      <c r="D848" s="115"/>
+      <c r="D848" s="113"/>
       <c r="E848" s="57"/>
       <c r="F848" s="57"/>
       <c r="G848" s="57"/>
@@ -31371,7 +31371,7 @@
       <c r="A849" s="57"/>
       <c r="B849" s="57"/>
       <c r="C849" s="58"/>
-      <c r="D849" s="115"/>
+      <c r="D849" s="113"/>
       <c r="E849" s="57"/>
       <c r="F849" s="57"/>
       <c r="G849" s="57"/>
@@ -31402,7 +31402,7 @@
       <c r="A850" s="57"/>
       <c r="B850" s="57"/>
       <c r="C850" s="58"/>
-      <c r="D850" s="115"/>
+      <c r="D850" s="113"/>
       <c r="E850" s="57"/>
       <c r="F850" s="57"/>
       <c r="G850" s="57"/>
@@ -31433,7 +31433,7 @@
       <c r="A851" s="57"/>
       <c r="B851" s="57"/>
       <c r="C851" s="58"/>
-      <c r="D851" s="115"/>
+      <c r="D851" s="113"/>
       <c r="E851" s="57"/>
       <c r="F851" s="57"/>
       <c r="G851" s="57"/>
@@ -31464,7 +31464,7 @@
       <c r="A852" s="57"/>
       <c r="B852" s="57"/>
       <c r="C852" s="58"/>
-      <c r="D852" s="115"/>
+      <c r="D852" s="113"/>
       <c r="E852" s="57"/>
       <c r="F852" s="57"/>
       <c r="G852" s="57"/>
@@ -31495,7 +31495,7 @@
       <c r="A853" s="57"/>
       <c r="B853" s="57"/>
       <c r="C853" s="58"/>
-      <c r="D853" s="115"/>
+      <c r="D853" s="113"/>
       <c r="E853" s="57"/>
       <c r="F853" s="57"/>
       <c r="G853" s="57"/>
@@ -31526,7 +31526,7 @@
       <c r="A854" s="57"/>
       <c r="B854" s="57"/>
       <c r="C854" s="58"/>
-      <c r="D854" s="115"/>
+      <c r="D854" s="113"/>
       <c r="E854" s="57"/>
       <c r="F854" s="57"/>
       <c r="G854" s="57"/>
@@ -31557,7 +31557,7 @@
       <c r="A855" s="57"/>
       <c r="B855" s="57"/>
       <c r="C855" s="58"/>
-      <c r="D855" s="115"/>
+      <c r="D855" s="113"/>
       <c r="E855" s="57"/>
       <c r="F855" s="57"/>
       <c r="G855" s="57"/>
@@ -31588,7 +31588,7 @@
       <c r="A856" s="57"/>
       <c r="B856" s="57"/>
       <c r="C856" s="58"/>
-      <c r="D856" s="115"/>
+      <c r="D856" s="113"/>
       <c r="E856" s="57"/>
       <c r="F856" s="57"/>
       <c r="G856" s="57"/>
@@ -31619,7 +31619,7 @@
       <c r="A857" s="57"/>
       <c r="B857" s="57"/>
       <c r="C857" s="58"/>
-      <c r="D857" s="115"/>
+      <c r="D857" s="113"/>
       <c r="E857" s="57"/>
       <c r="F857" s="57"/>
       <c r="G857" s="57"/>
@@ -31650,7 +31650,7 @@
       <c r="A858" s="57"/>
       <c r="B858" s="57"/>
       <c r="C858" s="58"/>
-      <c r="D858" s="115"/>
+      <c r="D858" s="113"/>
       <c r="E858" s="57"/>
       <c r="F858" s="57"/>
       <c r="G858" s="57"/>
@@ -31681,7 +31681,7 @@
       <c r="A859" s="57"/>
       <c r="B859" s="57"/>
       <c r="C859" s="58"/>
-      <c r="D859" s="115"/>
+      <c r="D859" s="113"/>
       <c r="E859" s="57"/>
       <c r="F859" s="57"/>
       <c r="G859" s="57"/>
@@ -31712,7 +31712,7 @@
       <c r="A860" s="57"/>
       <c r="B860" s="57"/>
       <c r="C860" s="58"/>
-      <c r="D860" s="115"/>
+      <c r="D860" s="113"/>
       <c r="E860" s="57"/>
       <c r="F860" s="57"/>
       <c r="G860" s="57"/>
@@ -31743,7 +31743,7 @@
       <c r="A861" s="57"/>
       <c r="B861" s="57"/>
       <c r="C861" s="58"/>
-      <c r="D861" s="115"/>
+      <c r="D861" s="113"/>
       <c r="E861" s="57"/>
       <c r="F861" s="57"/>
       <c r="G861" s="57"/>
@@ -31774,7 +31774,7 @@
       <c r="A862" s="57"/>
       <c r="B862" s="57"/>
       <c r="C862" s="58"/>
-      <c r="D862" s="115"/>
+      <c r="D862" s="113"/>
       <c r="E862" s="57"/>
       <c r="F862" s="57"/>
       <c r="G862" s="57"/>
@@ -31805,7 +31805,7 @@
       <c r="A863" s="57"/>
       <c r="B863" s="57"/>
       <c r="C863" s="58"/>
-      <c r="D863" s="115"/>
+      <c r="D863" s="113"/>
       <c r="E863" s="57"/>
       <c r="F863" s="57"/>
       <c r="G863" s="57"/>
@@ -31836,7 +31836,7 @@
       <c r="A864" s="57"/>
       <c r="B864" s="57"/>
       <c r="C864" s="58"/>
-      <c r="D864" s="115"/>
+      <c r="D864" s="113"/>
       <c r="E864" s="57"/>
       <c r="F864" s="57"/>
       <c r="G864" s="57"/>
@@ -31867,7 +31867,7 @@
       <c r="A865" s="57"/>
       <c r="B865" s="57"/>
       <c r="C865" s="58"/>
-      <c r="D865" s="115"/>
+      <c r="D865" s="113"/>
       <c r="E865" s="57"/>
       <c r="F865" s="57"/>
       <c r="G865" s="57"/>
@@ -31898,7 +31898,7 @@
       <c r="A866" s="57"/>
       <c r="B866" s="57"/>
       <c r="C866" s="58"/>
-      <c r="D866" s="115"/>
+      <c r="D866" s="113"/>
       <c r="E866" s="57"/>
       <c r="F866" s="57"/>
       <c r="G866" s="57"/>
@@ -31929,7 +31929,7 @@
       <c r="A867" s="57"/>
       <c r="B867" s="57"/>
       <c r="C867" s="58"/>
-      <c r="D867" s="115"/>
+      <c r="D867" s="113"/>
       <c r="E867" s="57"/>
       <c r="F867" s="57"/>
       <c r="G867" s="57"/>
@@ -31960,7 +31960,7 @@
       <c r="A868" s="57"/>
       <c r="B868" s="57"/>
       <c r="C868" s="58"/>
-      <c r="D868" s="115"/>
+      <c r="D868" s="113"/>
       <c r="E868" s="57"/>
       <c r="F868" s="57"/>
       <c r="G868" s="57"/>
@@ -31991,7 +31991,7 @@
       <c r="A869" s="57"/>
       <c r="B869" s="57"/>
       <c r="C869" s="58"/>
-      <c r="D869" s="115"/>
+      <c r="D869" s="113"/>
       <c r="E869" s="57"/>
       <c r="F869" s="57"/>
       <c r="G869" s="57"/>
@@ -32022,7 +32022,7 @@
       <c r="A870" s="57"/>
       <c r="B870" s="57"/>
       <c r="C870" s="58"/>
-      <c r="D870" s="115"/>
+      <c r="D870" s="113"/>
       <c r="E870" s="57"/>
       <c r="F870" s="57"/>
       <c r="G870" s="57"/>
@@ -32053,7 +32053,7 @@
       <c r="A871" s="57"/>
       <c r="B871" s="57"/>
       <c r="C871" s="58"/>
-      <c r="D871" s="115"/>
+      <c r="D871" s="113"/>
       <c r="E871" s="57"/>
       <c r="F871" s="57"/>
       <c r="G871" s="57"/>
@@ -32084,7 +32084,7 @@
       <c r="A872" s="57"/>
       <c r="B872" s="57"/>
       <c r="C872" s="58"/>
-      <c r="D872" s="115"/>
+      <c r="D872" s="113"/>
       <c r="E872" s="57"/>
       <c r="F872" s="57"/>
       <c r="G872" s="57"/>
@@ -32115,7 +32115,7 @@
       <c r="A873" s="57"/>
       <c r="B873" s="57"/>
       <c r="C873" s="58"/>
-      <c r="D873" s="115"/>
+      <c r="D873" s="113"/>
       <c r="E873" s="57"/>
       <c r="F873" s="57"/>
       <c r="G873" s="57"/>
@@ -32146,7 +32146,7 @@
       <c r="A874" s="57"/>
       <c r="B874" s="57"/>
       <c r="C874" s="58"/>
-      <c r="D874" s="115"/>
+      <c r="D874" s="113"/>
       <c r="E874" s="57"/>
       <c r="F874" s="57"/>
       <c r="G874" s="57"/>
@@ -32177,7 +32177,7 @@
       <c r="A875" s="57"/>
       <c r="B875" s="57"/>
       <c r="C875" s="58"/>
-      <c r="D875" s="115"/>
+      <c r="D875" s="113"/>
       <c r="E875" s="57"/>
       <c r="F875" s="57"/>
       <c r="G875" s="57"/>
@@ -32208,7 +32208,7 @@
       <c r="A876" s="57"/>
       <c r="B876" s="57"/>
       <c r="C876" s="58"/>
-      <c r="D876" s="115"/>
+      <c r="D876" s="113"/>
       <c r="E876" s="57"/>
       <c r="F876" s="57"/>
       <c r="G876" s="57"/>
@@ -32239,7 +32239,7 @@
       <c r="A877" s="57"/>
       <c r="B877" s="57"/>
       <c r="C877" s="58"/>
-      <c r="D877" s="115"/>
+      <c r="D877" s="113"/>
       <c r="E877" s="57"/>
       <c r="F877" s="57"/>
       <c r="G877" s="57"/>
@@ -32270,7 +32270,7 @@
       <c r="A878" s="57"/>
       <c r="B878" s="57"/>
       <c r="C878" s="58"/>
-      <c r="D878" s="115"/>
+      <c r="D878" s="113"/>
       <c r="E878" s="57"/>
       <c r="F878" s="57"/>
       <c r="G878" s="57"/>
@@ -32301,7 +32301,7 @@
       <c r="A879" s="57"/>
       <c r="B879" s="57"/>
       <c r="C879" s="58"/>
-      <c r="D879" s="115"/>
+      <c r="D879" s="113"/>
       <c r="E879" s="57"/>
       <c r="F879" s="57"/>
       <c r="G879" s="57"/>
@@ -32332,7 +32332,7 @@
       <c r="A880" s="57"/>
       <c r="B880" s="57"/>
       <c r="C880" s="58"/>
-      <c r="D880" s="115"/>
+      <c r="D880" s="113"/>
       <c r="E880" s="57"/>
       <c r="F880" s="57"/>
       <c r="G880" s="57"/>
@@ -32363,7 +32363,7 @@
       <c r="A881" s="57"/>
       <c r="B881" s="57"/>
       <c r="C881" s="58"/>
-      <c r="D881" s="115"/>
+      <c r="D881" s="113"/>
       <c r="E881" s="57"/>
       <c r="F881" s="57"/>
       <c r="G881" s="57"/>
@@ -32394,7 +32394,7 @@
       <c r="A882" s="57"/>
       <c r="B882" s="57"/>
       <c r="C882" s="58"/>
-      <c r="D882" s="115"/>
+      <c r="D882" s="113"/>
       <c r="E882" s="57"/>
       <c r="F882" s="57"/>
       <c r="G882" s="57"/>
@@ -32425,7 +32425,7 @@
       <c r="A883" s="57"/>
       <c r="B883" s="57"/>
       <c r="C883" s="58"/>
-      <c r="D883" s="115"/>
+      <c r="D883" s="113"/>
       <c r="E883" s="57"/>
       <c r="F883" s="57"/>
       <c r="G883" s="57"/>
@@ -32456,7 +32456,7 @@
       <c r="A884" s="57"/>
       <c r="B884" s="57"/>
       <c r="C884" s="58"/>
-      <c r="D884" s="115"/>
+      <c r="D884" s="113"/>
       <c r="E884" s="57"/>
       <c r="F884" s="57"/>
       <c r="G884" s="57"/>
@@ -32487,7 +32487,7 @@
       <c r="A885" s="57"/>
       <c r="B885" s="57"/>
       <c r="C885" s="58"/>
-      <c r="D885" s="115"/>
+      <c r="D885" s="113"/>
       <c r="E885" s="57"/>
       <c r="F885" s="57"/>
       <c r="G885" s="57"/>
@@ -32518,7 +32518,7 @@
       <c r="A886" s="57"/>
       <c r="B886" s="57"/>
       <c r="C886" s="58"/>
-      <c r="D886" s="115"/>
+      <c r="D886" s="113"/>
       <c r="E886" s="57"/>
       <c r="F886" s="57"/>
       <c r="G886" s="57"/>
@@ -32549,7 +32549,7 @@
       <c r="A887" s="57"/>
       <c r="B887" s="57"/>
       <c r="C887" s="58"/>
-      <c r="D887" s="115"/>
+      <c r="D887" s="113"/>
       <c r="E887" s="57"/>
       <c r="F887" s="57"/>
       <c r="G887" s="57"/>
@@ -32580,7 +32580,7 @@
       <c r="A888" s="57"/>
       <c r="B888" s="57"/>
       <c r="C888" s="58"/>
-      <c r="D888" s="115"/>
+      <c r="D888" s="113"/>
       <c r="E888" s="57"/>
       <c r="F888" s="57"/>
       <c r="G888" s="57"/>
@@ -32611,7 +32611,7 @@
       <c r="A889" s="57"/>
       <c r="B889" s="57"/>
       <c r="C889" s="58"/>
-      <c r="D889" s="115"/>
+      <c r="D889" s="113"/>
       <c r="E889" s="57"/>
       <c r="F889" s="57"/>
       <c r="G889" s="57"/>
@@ -32642,7 +32642,7 @@
       <c r="A890" s="57"/>
       <c r="B890" s="57"/>
       <c r="C890" s="58"/>
-      <c r="D890" s="115"/>
+      <c r="D890" s="113"/>
       <c r="E890" s="57"/>
       <c r="F890" s="57"/>
       <c r="G890" s="57"/>
@@ -32673,7 +32673,7 @@
       <c r="A891" s="57"/>
       <c r="B891" s="57"/>
       <c r="C891" s="58"/>
-      <c r="D891" s="115"/>
+      <c r="D891" s="113"/>
       <c r="E891" s="57"/>
       <c r="F891" s="57"/>
       <c r="G891" s="57"/>
@@ -32704,7 +32704,7 @@
       <c r="A892" s="57"/>
       <c r="B892" s="57"/>
       <c r="C892" s="58"/>
-      <c r="D892" s="115"/>
+      <c r="D892" s="113"/>
       <c r="E892" s="57"/>
       <c r="F892" s="57"/>
       <c r="G892" s="57"/>
@@ -32735,7 +32735,7 @@
       <c r="A893" s="57"/>
       <c r="B893" s="57"/>
       <c r="C893" s="58"/>
-      <c r="D893" s="115"/>
+      <c r="D893" s="113"/>
       <c r="E893" s="57"/>
       <c r="F893" s="57"/>
       <c r="G893" s="57"/>
@@ -32766,7 +32766,7 @@
       <c r="A894" s="57"/>
       <c r="B894" s="57"/>
       <c r="C894" s="58"/>
-      <c r="D894" s="115"/>
+      <c r="D894" s="113"/>
       <c r="E894" s="57"/>
       <c r="F894" s="57"/>
       <c r="G894" s="57"/>
@@ -32797,7 +32797,7 @@
       <c r="A895" s="57"/>
       <c r="B895" s="57"/>
       <c r="C895" s="58"/>
-      <c r="D895" s="115"/>
+      <c r="D895" s="113"/>
       <c r="E895" s="57"/>
       <c r="F895" s="57"/>
       <c r="G895" s="57"/>
@@ -32828,7 +32828,7 @@
       <c r="A896" s="57"/>
       <c r="B896" s="57"/>
       <c r="C896" s="58"/>
-      <c r="D896" s="115"/>
+      <c r="D896" s="113"/>
       <c r="E896" s="57"/>
       <c r="F896" s="57"/>
       <c r="G896" s="57"/>
@@ -32859,7 +32859,7 @@
       <c r="A897" s="57"/>
       <c r="B897" s="57"/>
       <c r="C897" s="58"/>
-      <c r="D897" s="115"/>
+      <c r="D897" s="113"/>
       <c r="E897" s="57"/>
       <c r="F897" s="57"/>
       <c r="G897" s="57"/>
@@ -32890,7 +32890,7 @@
       <c r="A898" s="57"/>
       <c r="B898" s="57"/>
       <c r="C898" s="58"/>
-      <c r="D898" s="115"/>
+      <c r="D898" s="113"/>
       <c r="E898" s="57"/>
       <c r="F898" s="57"/>
       <c r="G898" s="57"/>
@@ -32921,7 +32921,7 @@
       <c r="A899" s="57"/>
       <c r="B899" s="57"/>
       <c r="C899" s="58"/>
-      <c r="D899" s="115"/>
+      <c r="D899" s="113"/>
       <c r="E899" s="57"/>
       <c r="F899" s="57"/>
       <c r="G899" s="57"/>
@@ -32952,7 +32952,7 @@
       <c r="A900" s="57"/>
       <c r="B900" s="57"/>
       <c r="C900" s="58"/>
-      <c r="D900" s="115"/>
+      <c r="D900" s="113"/>
       <c r="E900" s="57"/>
       <c r="F900" s="57"/>
       <c r="G900" s="57"/>
@@ -32983,7 +32983,7 @@
       <c r="A901" s="57"/>
       <c r="B901" s="57"/>
       <c r="C901" s="58"/>
-      <c r="D901" s="115"/>
+      <c r="D901" s="113"/>
       <c r="E901" s="57"/>
       <c r="F901" s="57"/>
       <c r="G901" s="57"/>
@@ -33014,7 +33014,7 @@
       <c r="A902" s="57"/>
       <c r="B902" s="57"/>
       <c r="C902" s="58"/>
-      <c r="D902" s="115"/>
+      <c r="D902" s="113"/>
       <c r="E902" s="57"/>
       <c r="F902" s="57"/>
       <c r="G902" s="57"/>
@@ -33045,7 +33045,7 @@
       <c r="A903" s="57"/>
       <c r="B903" s="57"/>
       <c r="C903" s="58"/>
-      <c r="D903" s="115"/>
+      <c r="D903" s="113"/>
       <c r="E903" s="57"/>
       <c r="F903" s="57"/>
       <c r="G903" s="57"/>
@@ -33076,7 +33076,7 @@
       <c r="A904" s="57"/>
       <c r="B904" s="57"/>
       <c r="C904" s="58"/>
-      <c r="D904" s="115"/>
+      <c r="D904" s="113"/>
       <c r="E904" s="57"/>
       <c r="F904" s="57"/>
       <c r="G904" s="57"/>
@@ -33107,7 +33107,7 @@
       <c r="A905" s="57"/>
       <c r="B905" s="57"/>
       <c r="C905" s="58"/>
-      <c r="D905" s="115"/>
+      <c r="D905" s="113"/>
       <c r="E905" s="57"/>
       <c r="F905" s="57"/>
       <c r="G905" s="57"/>
@@ -33138,7 +33138,7 @@
       <c r="A906" s="57"/>
       <c r="B906" s="57"/>
       <c r="C906" s="58"/>
-      <c r="D906" s="115"/>
+      <c r="D906" s="113"/>
       <c r="E906" s="57"/>
       <c r="F906" s="57"/>
       <c r="G906" s="57"/>
@@ -33169,7 +33169,7 @@
       <c r="A907" s="57"/>
       <c r="B907" s="57"/>
       <c r="C907" s="58"/>
-      <c r="D907" s="115"/>
+      <c r="D907" s="113"/>
       <c r="E907" s="57"/>
       <c r="F907" s="57"/>
       <c r="G907" s="57"/>
@@ -33200,7 +33200,7 @@
       <c r="A908" s="57"/>
       <c r="B908" s="57"/>
       <c r="C908" s="58"/>
-      <c r="D908" s="115"/>
+      <c r="D908" s="113"/>
       <c r="E908" s="57"/>
       <c r="F908" s="57"/>
       <c r="G908" s="57"/>
@@ -33231,7 +33231,7 @@
       <c r="A909" s="57"/>
       <c r="B909" s="57"/>
       <c r="C909" s="58"/>
-      <c r="D909" s="115"/>
+      <c r="D909" s="113"/>
       <c r="E909" s="57"/>
       <c r="F909" s="57"/>
       <c r="G909" s="57"/>
@@ -33262,7 +33262,7 @@
       <c r="A910" s="57"/>
       <c r="B910" s="57"/>
       <c r="C910" s="58"/>
-      <c r="D910" s="115"/>
+      <c r="D910" s="113"/>
       <c r="E910" s="57"/>
       <c r="F910" s="57"/>
       <c r="G910" s="57"/>
@@ -33293,7 +33293,7 @@
       <c r="A911" s="57"/>
       <c r="B911" s="57"/>
       <c r="C911" s="58"/>
-      <c r="D911" s="115"/>
+      <c r="D911" s="113"/>
       <c r="E911" s="57"/>
       <c r="F911" s="57"/>
       <c r="G911" s="57"/>
@@ -33324,7 +33324,7 @@
       <c r="A912" s="57"/>
       <c r="B912" s="57"/>
       <c r="C912" s="58"/>
-      <c r="D912" s="115"/>
+      <c r="D912" s="113"/>
       <c r="E912" s="57"/>
       <c r="F912" s="57"/>
       <c r="G912" s="57"/>
@@ -33355,7 +33355,7 @@
       <c r="A913" s="57"/>
       <c r="B913" s="57"/>
       <c r="C913" s="58"/>
-      <c r="D913" s="115"/>
+      <c r="D913" s="113"/>
       <c r="E913" s="57"/>
       <c r="F913" s="57"/>
       <c r="G913" s="57"/>
@@ -33386,7 +33386,7 @@
       <c r="A914" s="57"/>
       <c r="B914" s="57"/>
       <c r="C914" s="58"/>
-      <c r="D914" s="115"/>
+      <c r="D914" s="113"/>
       <c r="E914" s="57"/>
       <c r="F914" s="57"/>
       <c r="G914" s="57"/>
@@ -33417,7 +33417,7 @@
       <c r="A915" s="57"/>
       <c r="B915" s="57"/>
       <c r="C915" s="58"/>
-      <c r="D915" s="115"/>
+      <c r="D915" s="113"/>
       <c r="E915" s="57"/>
       <c r="F915" s="57"/>
       <c r="G915" s="57"/>
@@ -33448,7 +33448,7 @@
       <c r="A916" s="57"/>
       <c r="B916" s="57"/>
       <c r="C916" s="58"/>
-      <c r="D916" s="115"/>
+      <c r="D916" s="113"/>
       <c r="E916" s="57"/>
       <c r="F916" s="57"/>
       <c r="G916" s="57"/>
@@ -33479,7 +33479,7 @@
       <c r="A917" s="57"/>
       <c r="B917" s="57"/>
       <c r="C917" s="58"/>
-      <c r="D917" s="115"/>
+      <c r="D917" s="113"/>
       <c r="E917" s="57"/>
       <c r="F917" s="57"/>
       <c r="G917" s="57"/>
@@ -33510,7 +33510,7 @@
       <c r="A918" s="57"/>
       <c r="B918" s="57"/>
       <c r="C918" s="58"/>
-      <c r="D918" s="115"/>
+      <c r="D918" s="113"/>
       <c r="E918" s="57"/>
       <c r="F918" s="57"/>
       <c r="G918" s="57"/>
@@ -33541,7 +33541,7 @@
       <c r="A919" s="57"/>
       <c r="B919" s="57"/>
       <c r="C919" s="58"/>
-      <c r="D919" s="115"/>
+      <c r="D919" s="113"/>
       <c r="E919" s="57"/>
       <c r="F919" s="57"/>
       <c r="G919" s="57"/>
@@ -33572,7 +33572,7 @@
       <c r="A920" s="57"/>
       <c r="B920" s="57"/>
       <c r="C920" s="58"/>
-      <c r="D920" s="115"/>
+      <c r="D920" s="113"/>
       <c r="E920" s="57"/>
       <c r="F920" s="57"/>
       <c r="G920" s="57"/>
@@ -33603,7 +33603,7 @@
       <c r="A921" s="57"/>
       <c r="B921" s="57"/>
       <c r="C921" s="58"/>
-      <c r="D921" s="115"/>
+      <c r="D921" s="113"/>
       <c r="E921" s="57"/>
       <c r="F921" s="57"/>
       <c r="G921" s="57"/>
@@ -33634,7 +33634,7 @@
       <c r="A922" s="57"/>
       <c r="B922" s="57"/>
       <c r="C922" s="58"/>
-      <c r="D922" s="115"/>
+      <c r="D922" s="113"/>
       <c r="E922" s="57"/>
       <c r="F922" s="57"/>
       <c r="G922" s="57"/>
@@ -33665,7 +33665,7 @@
       <c r="A923" s="57"/>
       <c r="B923" s="57"/>
       <c r="C923" s="58"/>
-      <c r="D923" s="115"/>
+      <c r="D923" s="113"/>
       <c r="E923" s="57"/>
       <c r="F923" s="57"/>
       <c r="G923" s="57"/>
@@ -33696,7 +33696,7 @@
       <c r="A924" s="57"/>
       <c r="B924" s="57"/>
       <c r="C924" s="58"/>
-      <c r="D924" s="115"/>
+      <c r="D924" s="113"/>
       <c r="E924" s="57"/>
       <c r="F924" s="57"/>
       <c r="G924" s="57"/>
@@ -33727,7 +33727,7 @@
       <c r="A925" s="57"/>
       <c r="B925" s="57"/>
       <c r="C925" s="58"/>
-      <c r="D925" s="115"/>
+      <c r="D925" s="113"/>
       <c r="E925" s="57"/>
       <c r="F925" s="57"/>
       <c r="G925" s="57"/>
@@ -33758,7 +33758,7 @@
       <c r="A926" s="57"/>
       <c r="B926" s="57"/>
       <c r="C926" s="58"/>
-      <c r="D926" s="115"/>
+      <c r="D926" s="113"/>
       <c r="E926" s="57"/>
       <c r="F926" s="57"/>
       <c r="G926" s="57"/>
@@ -33789,7 +33789,7 @@
       <c r="A927" s="57"/>
       <c r="B927" s="57"/>
       <c r="C927" s="58"/>
-      <c r="D927" s="115"/>
+      <c r="D927" s="113"/>
       <c r="E927" s="57"/>
       <c r="F927" s="57"/>
       <c r="G927" s="57"/>
@@ -33820,7 +33820,7 @@
       <c r="A928" s="57"/>
       <c r="B928" s="57"/>
       <c r="C928" s="58"/>
-      <c r="D928" s="115"/>
+      <c r="D928" s="113"/>
       <c r="E928" s="57"/>
       <c r="F928" s="57"/>
       <c r="G928" s="57"/>
@@ -33851,7 +33851,7 @@
       <c r="A929" s="57"/>
       <c r="B929" s="57"/>
       <c r="C929" s="58"/>
-      <c r="D929" s="115"/>
+      <c r="D929" s="113"/>
       <c r="E929" s="57"/>
       <c r="F929" s="57"/>
       <c r="G929" s="57"/>
@@ -33882,7 +33882,7 @@
       <c r="A930" s="57"/>
       <c r="B930" s="57"/>
       <c r="C930" s="58"/>
-      <c r="D930" s="115"/>
+      <c r="D930" s="113"/>
       <c r="E930" s="57"/>
       <c r="F930" s="57"/>
       <c r="G930" s="57"/>
@@ -33913,7 +33913,7 @@
       <c r="A931" s="57"/>
       <c r="B931" s="57"/>
       <c r="C931" s="58"/>
-      <c r="D931" s="115"/>
+      <c r="D931" s="113"/>
       <c r="E931" s="57"/>
       <c r="F931" s="57"/>
       <c r="G931" s="57"/>
@@ -33944,7 +33944,7 @@
       <c r="A932" s="57"/>
       <c r="B932" s="57"/>
       <c r="C932" s="58"/>
-      <c r="D932" s="115"/>
+      <c r="D932" s="113"/>
       <c r="E932" s="57"/>
       <c r="F932" s="57"/>
       <c r="G932" s="57"/>
@@ -33975,7 +33975,7 @@
       <c r="A933" s="57"/>
       <c r="B933" s="57"/>
       <c r="C933" s="58"/>
-      <c r="D933" s="115"/>
+      <c r="D933" s="113"/>
       <c r="E933" s="57"/>
       <c r="F933" s="57"/>
       <c r="G933" s="57"/>
@@ -34006,7 +34006,7 @@
       <c r="A934" s="57"/>
       <c r="B934" s="57"/>
       <c r="C934" s="58"/>
-      <c r="D934" s="115"/>
+      <c r="D934" s="113"/>
       <c r="E934" s="57"/>
       <c r="F934" s="57"/>
       <c r="G934" s="57"/>
@@ -34037,7 +34037,7 @@
       <c r="A935" s="57"/>
       <c r="B935" s="57"/>
       <c r="C935" s="58"/>
-      <c r="D935" s="115"/>
+      <c r="D935" s="113"/>
       <c r="E935" s="57"/>
       <c r="F935" s="57"/>
       <c r="G935" s="57"/>
@@ -34068,7 +34068,7 @@
       <c r="A936" s="57"/>
       <c r="B936" s="57"/>
       <c r="C936" s="58"/>
-      <c r="D936" s="115"/>
+      <c r="D936" s="113"/>
       <c r="E936" s="57"/>
       <c r="F936" s="57"/>
       <c r="G936" s="57"/>
@@ -34099,7 +34099,7 @@
       <c r="A937" s="57"/>
       <c r="B937" s="57"/>
       <c r="C937" s="58"/>
-      <c r="D937" s="115"/>
+      <c r="D937" s="113"/>
       <c r="E937" s="57"/>
       <c r="F937" s="57"/>
       <c r="G937" s="57"/>
@@ -34130,7 +34130,7 @@
       <c r="A938" s="57"/>
       <c r="B938" s="57"/>
       <c r="C938" s="58"/>
-      <c r="D938" s="115"/>
+      <c r="D938" s="113"/>
       <c r="E938" s="57"/>
       <c r="F938" s="57"/>
       <c r="G938" s="57"/>
@@ -34161,7 +34161,7 @@
       <c r="A939" s="57"/>
       <c r="B939" s="57"/>
       <c r="C939" s="58"/>
-      <c r="D939" s="115"/>
+      <c r="D939" s="113"/>
       <c r="E939" s="57"/>
       <c r="F939" s="57"/>
       <c r="G939" s="57"/>
@@ -34192,7 +34192,7 @@
       <c r="A940" s="57"/>
       <c r="B940" s="57"/>
       <c r="C940" s="58"/>
-      <c r="D940" s="115"/>
+      <c r="D940" s="113"/>
       <c r="E940" s="57"/>
       <c r="F940" s="57"/>
       <c r="G940" s="57"/>
@@ -34223,7 +34223,7 @@
       <c r="A941" s="57"/>
       <c r="B941" s="57"/>
       <c r="C941" s="58"/>
-      <c r="D941" s="115"/>
+      <c r="D941" s="113"/>
       <c r="E941" s="57"/>
       <c r="F941" s="57"/>
       <c r="G941" s="57"/>
@@ -34254,7 +34254,7 @@
       <c r="A942" s="57"/>
       <c r="B942" s="57"/>
       <c r="C942" s="58"/>
-      <c r="D942" s="115"/>
+      <c r="D942" s="113"/>
       <c r="E942" s="57"/>
       <c r="F942" s="57"/>
       <c r="G942" s="57"/>
@@ -34285,7 +34285,7 @@
       <c r="A943" s="57"/>
       <c r="B943" s="57"/>
       <c r="C943" s="58"/>
-      <c r="D943" s="115"/>
+      <c r="D943" s="113"/>
       <c r="E943" s="57"/>
       <c r="F943" s="57"/>
       <c r="G943" s="57"/>
@@ -34316,7 +34316,7 @@
       <c r="A944" s="57"/>
       <c r="B944" s="57"/>
       <c r="C944" s="58"/>
-      <c r="D944" s="115"/>
+      <c r="D944" s="113"/>
       <c r="E944" s="57"/>
       <c r="F944" s="57"/>
       <c r="G944" s="57"/>
@@ -34347,7 +34347,7 @@
       <c r="A945" s="57"/>
       <c r="B945" s="57"/>
       <c r="C945" s="58"/>
-      <c r="D945" s="115"/>
+      <c r="D945" s="113"/>
       <c r="E945" s="57"/>
       <c r="F945" s="57"/>
       <c r="G945" s="57"/>
@@ -34378,7 +34378,7 @@
       <c r="A946" s="57"/>
       <c r="B946" s="57"/>
       <c r="C946" s="58"/>
-      <c r="D946" s="115"/>
+      <c r="D946" s="113"/>
       <c r="E946" s="57"/>
       <c r="F946" s="57"/>
       <c r="G946" s="57"/>
@@ -34409,7 +34409,7 @@
       <c r="A947" s="57"/>
       <c r="B947" s="57"/>
       <c r="C947" s="58"/>
-      <c r="D947" s="115"/>
+      <c r="D947" s="113"/>
       <c r="E947" s="57"/>
       <c r="F947" s="57"/>
       <c r="G947" s="57"/>
@@ -34440,7 +34440,7 @@
       <c r="A948" s="57"/>
       <c r="B948" s="57"/>
       <c r="C948" s="58"/>
-      <c r="D948" s="115"/>
+      <c r="D948" s="113"/>
       <c r="E948" s="57"/>
       <c r="F948" s="57"/>
       <c r="G948" s="57"/>
@@ -34471,7 +34471,7 @@
       <c r="A949" s="57"/>
       <c r="B949" s="57"/>
       <c r="C949" s="58"/>
-      <c r="D949" s="115"/>
+      <c r="D949" s="113"/>
       <c r="E949" s="57"/>
       <c r="F949" s="57"/>
       <c r="G949" s="57"/>
@@ -34502,7 +34502,7 @@
       <c r="A950" s="57"/>
       <c r="B950" s="57"/>
       <c r="C950" s="58"/>
-      <c r="D950" s="115"/>
+      <c r="D950" s="113"/>
       <c r="E950" s="57"/>
       <c r="F950" s="57"/>
       <c r="G950" s="57"/>
@@ -34533,7 +34533,7 @@
       <c r="A951" s="57"/>
       <c r="B951" s="57"/>
       <c r="C951" s="58"/>
-      <c r="D951" s="115"/>
+      <c r="D951" s="113"/>
       <c r="E951" s="57"/>
       <c r="F951" s="57"/>
       <c r="G951" s="57"/>
@@ -34564,7 +34564,7 @@
       <c r="A952" s="57"/>
       <c r="B952" s="57"/>
       <c r="C952" s="58"/>
-      <c r="D952" s="115"/>
+      <c r="D952" s="113"/>
       <c r="E952" s="57"/>
       <c r="F952" s="57"/>
       <c r="G952" s="57"/>
@@ -34595,7 +34595,7 @@
       <c r="A953" s="57"/>
       <c r="B953" s="57"/>
       <c r="C953" s="58"/>
-      <c r="D953" s="115"/>
+      <c r="D953" s="113"/>
       <c r="E953" s="57"/>
       <c r="F953" s="57"/>
       <c r="G953" s="57"/>
@@ -34626,7 +34626,7 @@
       <c r="A954" s="57"/>
       <c r="B954" s="57"/>
       <c r="C954" s="58"/>
-      <c r="D954" s="115"/>
+      <c r="D954" s="113"/>
       <c r="E954" s="57"/>
       <c r="F954" s="57"/>
       <c r="G954" s="57"/>
@@ -34657,7 +34657,7 @@
       <c r="A955" s="57"/>
       <c r="B955" s="57"/>
       <c r="C955" s="58"/>
-      <c r="D955" s="115"/>
+      <c r="D955" s="113"/>
       <c r="E955" s="57"/>
       <c r="F955" s="57"/>
       <c r="G955" s="57"/>
@@ -34688,7 +34688,7 @@
       <c r="A956" s="57"/>
       <c r="B956" s="57"/>
       <c r="C956" s="58"/>
-      <c r="D956" s="115"/>
+      <c r="D956" s="113"/>
       <c r="E956" s="57"/>
       <c r="F956" s="57"/>
       <c r="G956" s="57"/>
@@ -34719,7 +34719,7 @@
       <c r="A957" s="57"/>
       <c r="B957" s="57"/>
       <c r="C957" s="58"/>
-      <c r="D957" s="115"/>
+      <c r="D957" s="113"/>
       <c r="E957" s="57"/>
       <c r="F957" s="57"/>
       <c r="G957" s="57"/>
@@ -34750,7 +34750,7 @@
       <c r="A958" s="57"/>
       <c r="B958" s="57"/>
       <c r="C958" s="58"/>
-      <c r="D958" s="115"/>
+      <c r="D958" s="113"/>
       <c r="E958" s="57"/>
       <c r="F958" s="57"/>
       <c r="G958" s="57"/>
@@ -34781,7 +34781,7 @@
       <c r="A959" s="57"/>
       <c r="B959" s="57"/>
       <c r="C959" s="58"/>
-      <c r="D959" s="115"/>
+      <c r="D959" s="113"/>
       <c r="E959" s="57"/>
       <c r="F959" s="57"/>
       <c r="G959" s="57"/>
@@ -34812,7 +34812,7 @@
       <c r="A960" s="57"/>
       <c r="B960" s="57"/>
       <c r="C960" s="58"/>
-      <c r="D960" s="115"/>
+      <c r="D960" s="113"/>
       <c r="E960" s="57"/>
       <c r="F960" s="57"/>
       <c r="G960" s="57"/>
@@ -34843,7 +34843,7 @@
       <c r="A961" s="57"/>
       <c r="B961" s="57"/>
       <c r="C961" s="58"/>
-      <c r="D961" s="115"/>
+      <c r="D961" s="113"/>
       <c r="E961" s="57"/>
       <c r="F961" s="57"/>
       <c r="G961" s="57"/>
@@ -34874,7 +34874,7 @@
       <c r="A962" s="57"/>
       <c r="B962" s="57"/>
       <c r="C962" s="58"/>
-      <c r="D962" s="115"/>
+      <c r="D962" s="113"/>
       <c r="E962" s="57"/>
       <c r="F962" s="57"/>
       <c r="G962" s="57"/>
@@ -34905,7 +34905,7 @@
       <c r="A963" s="57"/>
       <c r="B963" s="57"/>
       <c r="C963" s="58"/>
-      <c r="D963" s="115"/>
+      <c r="D963" s="113"/>
       <c r="E963" s="57"/>
       <c r="F963" s="57"/>
       <c r="G963" s="57"/>
@@ -34936,7 +34936,7 @@
       <c r="A964" s="57"/>
       <c r="B964" s="57"/>
       <c r="C964" s="58"/>
-      <c r="D964" s="115"/>
+      <c r="D964" s="113"/>
       <c r="E964" s="57"/>
       <c r="F964" s="57"/>
       <c r="G964" s="57"/>
@@ -34967,7 +34967,7 @@
       <c r="A965" s="57"/>
       <c r="B965" s="57"/>
       <c r="C965" s="58"/>
-      <c r="D965" s="115"/>
+      <c r="D965" s="113"/>
       <c r="E965" s="57"/>
       <c r="F965" s="57"/>
       <c r="G965" s="57"/>
@@ -34998,7 +34998,7 @@
       <c r="A966" s="57"/>
       <c r="B966" s="57"/>
       <c r="C966" s="58"/>
-      <c r="D966" s="115"/>
+      <c r="D966" s="113"/>
       <c r="E966" s="57"/>
       <c r="F966" s="57"/>
       <c r="G966" s="57"/>
@@ -35029,7 +35029,7 @@
       <c r="A967" s="57"/>
       <c r="B967" s="57"/>
       <c r="C967" s="58"/>
-      <c r="D967" s="115"/>
+      <c r="D967" s="113"/>
       <c r="E967" s="57"/>
       <c r="F967" s="57"/>
       <c r="G967" s="57"/>
@@ -35060,7 +35060,7 @@
       <c r="A968" s="57"/>
       <c r="B968" s="57"/>
       <c r="C968" s="58"/>
-      <c r="D968" s="115"/>
+      <c r="D968" s="113"/>
       <c r="E968" s="57"/>
       <c r="F968" s="57"/>
       <c r="G968" s="57"/>
@@ -35091,7 +35091,7 @@
       <c r="A969" s="57"/>
       <c r="B969" s="57"/>
       <c r="C969" s="58"/>
-      <c r="D969" s="115"/>
+      <c r="D969" s="113"/>
       <c r="E969" s="57"/>
       <c r="F969" s="57"/>
       <c r="G969" s="57"/>
@@ -35122,7 +35122,7 @@
       <c r="A970" s="57"/>
       <c r="B970" s="57"/>
       <c r="C970" s="58"/>
-      <c r="D970" s="115"/>
+      <c r="D970" s="113"/>
       <c r="E970" s="57"/>
       <c r="F970" s="57"/>
       <c r="G970" s="57"/>
@@ -35153,7 +35153,7 @@
       <c r="A971" s="57"/>
       <c r="B971" s="57"/>
       <c r="C971" s="58"/>
-      <c r="D971" s="115"/>
+      <c r="D971" s="113"/>
       <c r="E971" s="57"/>
       <c r="F971" s="57"/>
       <c r="G971" s="57"/>
@@ -35184,7 +35184,7 @@
       <c r="A972" s="57"/>
       <c r="B972" s="57"/>
       <c r="C972" s="58"/>
-      <c r="D972" s="115"/>
+      <c r="D972" s="113"/>
       <c r="E972" s="57"/>
       <c r="F972" s="57"/>
       <c r="G972" s="57"/>
@@ -35215,7 +35215,7 @@
       <c r="A973" s="57"/>
       <c r="B973" s="57"/>
       <c r="C973" s="58"/>
-      <c r="D973" s="115"/>
+      <c r="D973" s="113"/>
       <c r="E973" s="57"/>
       <c r="F973" s="57"/>
       <c r="G973" s="57"/>
@@ -35246,7 +35246,7 @@
       <c r="A974" s="57"/>
       <c r="B974" s="57"/>
       <c r="C974" s="58"/>
-      <c r="D974" s="115"/>
+      <c r="D974" s="113"/>
       <c r="E974" s="57"/>
       <c r="F974" s="57"/>
       <c r="G974" s="57"/>
@@ -35277,7 +35277,7 @@
       <c r="A975" s="57"/>
       <c r="B975" s="57"/>
       <c r="C975" s="58"/>
-      <c r="D975" s="115"/>
+      <c r="D975" s="113"/>
       <c r="E975" s="57"/>
       <c r="F975" s="57"/>
       <c r="G975" s="57"/>
@@ -35308,7 +35308,7 @@
       <c r="A976" s="57"/>
       <c r="B976" s="57"/>
       <c r="C976" s="58"/>
-      <c r="D976" s="115"/>
+      <c r="D976" s="113"/>
       <c r="E976" s="57"/>
       <c r="F976" s="57"/>
       <c r="G976" s="57"/>
@@ -35339,7 +35339,7 @@
       <c r="A977" s="57"/>
       <c r="B977" s="57"/>
       <c r="C977" s="58"/>
-      <c r="D977" s="115"/>
+      <c r="D977" s="113"/>
       <c r="E977" s="57"/>
       <c r="F977" s="57"/>
       <c r="G977" s="57"/>
@@ -35370,7 +35370,7 @@
       <c r="A978" s="57"/>
       <c r="B978" s="57"/>
       <c r="C978" s="58"/>
-      <c r="D978" s="115"/>
+      <c r="D978" s="113"/>
       <c r="E978" s="57"/>
       <c r="F978" s="57"/>
       <c r="G978" s="57"/>
@@ -35401,7 +35401,7 @@
       <c r="A979" s="57"/>
       <c r="B979" s="57"/>
       <c r="C979" s="58"/>
-      <c r="D979" s="115"/>
+      <c r="D979" s="113"/>
       <c r="E979" s="57"/>
       <c r="F979" s="57"/>
       <c r="G979" s="57"/>
@@ -35432,7 +35432,7 @@
       <c r="A980" s="57"/>
       <c r="B980" s="57"/>
       <c r="C980" s="58"/>
-      <c r="D980" s="115"/>
+      <c r="D980" s="113"/>
       <c r="E980" s="57"/>
       <c r="F980" s="57"/>
       <c r="G980" s="57"/>
@@ -35463,7 +35463,7 @@
       <c r="A981" s="57"/>
       <c r="B981" s="57"/>
       <c r="C981" s="58"/>
-      <c r="D981" s="115"/>
+      <c r="D981" s="113"/>
       <c r="E981" s="57"/>
       <c r="F981" s="57"/>
       <c r="G981" s="57"/>
@@ -35494,7 +35494,7 @@
       <c r="A982" s="57"/>
       <c r="B982" s="57"/>
       <c r="C982" s="58"/>
-      <c r="D982" s="115"/>
+      <c r="D982" s="113"/>
       <c r="E982" s="57"/>
       <c r="F982" s="57"/>
       <c r="G982" s="57"/>
@@ -35525,7 +35525,7 @@
       <c r="A983" s="57"/>
       <c r="B983" s="57"/>
       <c r="C983" s="58"/>
-      <c r="D983" s="115"/>
+      <c r="D983" s="113"/>
       <c r="E983" s="57"/>
       <c r="F983" s="57"/>
       <c r="G983" s="57"/>
@@ -35556,7 +35556,7 @@
       <c r="A984" s="57"/>
       <c r="B984" s="57"/>
       <c r="C984" s="58"/>
-      <c r="D984" s="115"/>
+      <c r="D984" s="113"/>
       <c r="E984" s="57"/>
       <c r="F984" s="57"/>
       <c r="G984" s="57"/>
@@ -35587,7 +35587,7 @@
       <c r="A985" s="57"/>
       <c r="B985" s="57"/>
       <c r="C985" s="58"/>
-      <c r="D985" s="115"/>
+      <c r="D985" s="113"/>
       <c r="E985" s="57"/>
       <c r="F985" s="57"/>
       <c r="G985" s="57"/>
@@ -35618,7 +35618,7 @@
       <c r="A986" s="57"/>
       <c r="B986" s="57"/>
       <c r="C986" s="58"/>
-      <c r="D986" s="115"/>
+      <c r="D986" s="113"/>
       <c r="E986" s="57"/>
       <c r="F986" s="57"/>
       <c r="G986" s="57"/>
@@ -35649,7 +35649,7 @@
       <c r="A987" s="57"/>
       <c r="B987" s="57"/>
       <c r="C987" s="58"/>
-      <c r="D987" s="115"/>
+      <c r="D987" s="113"/>
       <c r="E987" s="57"/>
       <c r="F987" s="57"/>
       <c r="G987" s="57"/>
@@ -35680,7 +35680,7 @@
       <c r="A988" s="57"/>
       <c r="B988" s="57"/>
       <c r="C988" s="58"/>
-      <c r="D988" s="115"/>
+      <c r="D988" s="113"/>
       <c r="E988" s="57"/>
       <c r="F988" s="57"/>
       <c r="G988" s="57"/>
@@ -35711,7 +35711,7 @@
       <c r="A989" s="57"/>
       <c r="B989" s="57"/>
       <c r="C989" s="58"/>
-      <c r="D989" s="115"/>
+      <c r="D989" s="113"/>
       <c r="E989" s="57"/>
       <c r="F989" s="57"/>
       <c r="G989" s="57"/>
@@ -35742,7 +35742,7 @@
       <c r="A990" s="57"/>
       <c r="B990" s="57"/>
       <c r="C990" s="58"/>
-      <c r="D990" s="115"/>
+      <c r="D990" s="113"/>
       <c r="E990" s="57"/>
       <c r="F990" s="57"/>
       <c r="G990" s="57"/>
@@ -35773,7 +35773,7 @@
       <c r="A991" s="57"/>
       <c r="B991" s="57"/>
       <c r="C991" s="58"/>
-      <c r="D991" s="115"/>
+      <c r="D991" s="113"/>
       <c r="E991" s="57"/>
       <c r="F991" s="57"/>
       <c r="G991" s="57"/>
@@ -35804,7 +35804,7 @@
       <c r="A992" s="57"/>
       <c r="B992" s="57"/>
       <c r="C992" s="58"/>
-      <c r="D992" s="115"/>
+      <c r="D992" s="113"/>
       <c r="E992" s="57"/>
       <c r="F992" s="57"/>
       <c r="G992" s="57"/>
@@ -35835,7 +35835,7 @@
       <c r="A993" s="57"/>
       <c r="B993" s="57"/>
       <c r="C993" s="58"/>
-      <c r="D993" s="115"/>
+      <c r="D993" s="113"/>
       <c r="E993" s="57"/>
       <c r="F993" s="57"/>
       <c r="G993" s="57"/>
@@ -35866,7 +35866,7 @@
       <c r="A994" s="57"/>
       <c r="B994" s="57"/>
       <c r="C994" s="58"/>
-      <c r="D994" s="115"/>
+      <c r="D994" s="113"/>
       <c r="E994" s="57"/>
       <c r="F994" s="57"/>
       <c r="G994" s="57"/>
@@ -35897,7 +35897,7 @@
       <c r="A995" s="57"/>
       <c r="B995" s="57"/>
       <c r="C995" s="58"/>
-      <c r="D995" s="115"/>
+      <c r="D995" s="113"/>
       <c r="E995" s="57"/>
       <c r="F995" s="57"/>
       <c r="G995" s="57"/>
@@ -35928,7 +35928,7 @@
       <c r="A996" s="57"/>
       <c r="B996" s="57"/>
       <c r="C996" s="58"/>
-      <c r="D996" s="115"/>
+      <c r="D996" s="113"/>
       <c r="E996" s="57"/>
       <c r="F996" s="57"/>
       <c r="G996" s="57"/>
@@ -35959,7 +35959,7 @@
       <c r="A997" s="57"/>
       <c r="B997" s="57"/>
       <c r="C997" s="58"/>
-      <c r="D997" s="115"/>
+      <c r="D997" s="113"/>
       <c r="E997" s="57"/>
       <c r="F997" s="57"/>
       <c r="G997" s="57"/>
@@ -35990,7 +35990,7 @@
       <c r="A998" s="57"/>
       <c r="B998" s="57"/>
       <c r="C998" s="58"/>
-      <c r="D998" s="115"/>
+      <c r="D998" s="113"/>
       <c r="E998" s="57"/>
       <c r="F998" s="57"/>
       <c r="G998" s="57"/>
@@ -36021,7 +36021,7 @@
       <c r="A999" s="57"/>
       <c r="B999" s="57"/>
       <c r="C999" s="58"/>
-      <c r="D999" s="115"/>
+      <c r="D999" s="113"/>
       <c r="E999" s="57"/>
       <c r="F999" s="57"/>
       <c r="G999" s="57"/>
@@ -36052,7 +36052,7 @@
       <c r="A1000" s="57"/>
       <c r="B1000" s="57"/>
       <c r="C1000" s="58"/>
-      <c r="D1000" s="115"/>
+      <c r="D1000" s="113"/>
       <c r="E1000" s="57"/>
       <c r="F1000" s="57"/>
       <c r="G1000" s="57"/>
@@ -36083,7 +36083,7 @@
       <c r="A1001" s="57"/>
       <c r="B1001" s="57"/>
       <c r="C1001" s="58"/>
-      <c r="D1001" s="115"/>
+      <c r="D1001" s="113"/>
       <c r="E1001" s="57"/>
       <c r="F1001" s="57"/>
       <c r="G1001" s="57"/>
@@ -36114,7 +36114,7 @@
       <c r="A1002" s="57"/>
       <c r="B1002" s="57"/>
       <c r="C1002" s="58"/>
-      <c r="D1002" s="115"/>
+      <c r="D1002" s="113"/>
       <c r="E1002" s="57"/>
       <c r="F1002" s="57"/>
       <c r="G1002" s="57"/>
@@ -36145,7 +36145,7 @@
       <c r="A1003" s="57"/>
       <c r="B1003" s="57"/>
       <c r="C1003" s="58"/>
-      <c r="D1003" s="115"/>
+      <c r="D1003" s="113"/>
       <c r="E1003" s="57"/>
       <c r="F1003" s="57"/>
       <c r="G1003" s="57"/>
@@ -36176,7 +36176,7 @@
       <c r="A1004" s="57"/>
       <c r="B1004" s="57"/>
       <c r="C1004" s="58"/>
-      <c r="D1004" s="115"/>
+      <c r="D1004" s="113"/>
       <c r="E1004" s="57"/>
       <c r="F1004" s="57"/>
       <c r="G1004" s="57"/>
@@ -36207,7 +36207,7 @@
       <c r="A1005" s="57"/>
       <c r="B1005" s="57"/>
       <c r="C1005" s="58"/>
-      <c r="D1005" s="115"/>
+      <c r="D1005" s="113"/>
       <c r="E1005" s="57"/>
       <c r="F1005" s="57"/>
       <c r="G1005" s="57"/>
@@ -36238,7 +36238,7 @@
       <c r="A1006" s="57"/>
       <c r="B1006" s="57"/>
       <c r="C1006" s="58"/>
-      <c r="D1006" s="115"/>
+      <c r="D1006" s="113"/>
       <c r="E1006" s="57"/>
       <c r="F1006" s="57"/>
       <c r="G1006" s="57"/>
@@ -36269,7 +36269,7 @@
       <c r="A1007" s="57"/>
       <c r="B1007" s="57"/>
       <c r="C1007" s="58"/>
-      <c r="D1007" s="115"/>
+      <c r="D1007" s="113"/>
       <c r="E1007" s="57"/>
       <c r="F1007" s="57"/>
       <c r="G1007" s="57"/>
@@ -36300,7 +36300,7 @@
       <c r="A1008" s="57"/>
       <c r="B1008" s="57"/>
       <c r="C1008" s="58"/>
-      <c r="D1008" s="115"/>
+      <c r="D1008" s="113"/>
       <c r="E1008" s="57"/>
       <c r="F1008" s="57"/>
       <c r="G1008" s="57"/>
@@ -36331,7 +36331,7 @@
       <c r="A1009" s="57"/>
       <c r="B1009" s="57"/>
       <c r="C1009" s="58"/>
-      <c r="D1009" s="115"/>
+      <c r="D1009" s="113"/>
       <c r="E1009" s="57"/>
       <c r="F1009" s="57"/>
       <c r="G1009" s="57"/>
@@ -36362,7 +36362,7 @@
       <c r="A1010" s="57"/>
       <c r="B1010" s="57"/>
       <c r="C1010" s="58"/>
-      <c r="D1010" s="115"/>
+      <c r="D1010" s="113"/>
       <c r="E1010" s="57"/>
       <c r="F1010" s="57"/>
       <c r="G1010" s="57"/>
@@ -36393,7 +36393,7 @@
       <c r="A1011" s="57"/>
       <c r="B1011" s="57"/>
       <c r="C1011" s="58"/>
-      <c r="D1011" s="115"/>
+      <c r="D1011" s="113"/>
       <c r="E1011" s="57"/>
       <c r="F1011" s="57"/>
       <c r="G1011" s="57"/>
@@ -36424,7 +36424,7 @@
       <c r="A1012" s="57"/>
       <c r="B1012" s="57"/>
       <c r="C1012" s="58"/>
-      <c r="D1012" s="115"/>
+      <c r="D1012" s="113"/>
       <c r="E1012" s="57"/>
       <c r="F1012" s="57"/>
       <c r="G1012" s="57"/>
@@ -36455,7 +36455,7 @@
       <c r="A1013" s="57"/>
       <c r="B1013" s="57"/>
       <c r="C1013" s="58"/>
-      <c r="D1013" s="115"/>
+      <c r="D1013" s="113"/>
       <c r="E1013" s="57"/>
       <c r="F1013" s="57"/>
       <c r="G1013" s="57"/>
@@ -36486,7 +36486,7 @@
       <c r="A1014" s="57"/>
       <c r="B1014" s="57"/>
       <c r="C1014" s="58"/>
-      <c r="D1014" s="115"/>
+      <c r="D1014" s="113"/>
       <c r="E1014" s="57"/>
       <c r="F1014" s="57"/>
       <c r="G1014" s="57"/>
@@ -36517,7 +36517,7 @@
       <c r="A1015" s="57"/>
       <c r="B1015" s="57"/>
       <c r="C1015" s="58"/>
-      <c r="D1015" s="115"/>
+      <c r="D1015" s="113"/>
       <c r="E1015" s="57"/>
       <c r="F1015" s="57"/>
       <c r="G1015" s="57"/>
@@ -36548,7 +36548,7 @@
       <c r="A1016" s="57"/>
       <c r="B1016" s="57"/>
       <c r="C1016" s="58"/>
-      <c r="D1016" s="115"/>
+      <c r="D1016" s="113"/>
       <c r="E1016" s="57"/>
       <c r="F1016" s="57"/>
       <c r="G1016" s="57"/>
@@ -36579,7 +36579,7 @@
       <c r="A1017" s="57"/>
       <c r="B1017" s="57"/>
       <c r="C1017" s="58"/>
-      <c r="D1017" s="115"/>
+      <c r="D1017" s="113"/>
       <c r="E1017" s="57"/>
       <c r="F1017" s="57"/>
       <c r="G1017" s="57"/>
@@ -36610,7 +36610,7 @@
       <c r="A1018" s="57"/>
       <c r="B1018" s="57"/>
       <c r="C1018" s="58"/>
-      <c r="D1018" s="115"/>
+      <c r="D1018" s="113"/>
       <c r="E1018" s="57"/>
       <c r="F1018" s="57"/>
       <c r="G1018" s="57"/>
@@ -36641,7 +36641,7 @@
       <c r="A1019" s="57"/>
       <c r="B1019" s="57"/>
       <c r="C1019" s="58"/>
-      <c r="D1019" s="115"/>
+      <c r="D1019" s="113"/>
       <c r="E1019" s="57"/>
       <c r="F1019" s="57"/>
       <c r="G1019" s="57"/>
@@ -36672,7 +36672,7 @@
       <c r="A1020" s="57"/>
       <c r="B1020" s="57"/>
       <c r="C1020" s="58"/>
-      <c r="D1020" s="115"/>
+      <c r="D1020" s="113"/>
       <c r="E1020" s="57"/>
       <c r="F1020" s="57"/>
       <c r="G1020" s="57"/>
@@ -36703,7 +36703,7 @@
       <c r="A1021" s="57"/>
       <c r="B1021" s="57"/>
       <c r="C1021" s="58"/>
-      <c r="D1021" s="115"/>
+      <c r="D1021" s="113"/>
       <c r="E1021" s="57"/>
       <c r="F1021" s="57"/>
       <c r="G1021" s="57"/>
@@ -36734,7 +36734,7 @@
       <c r="A1022" s="57"/>
       <c r="B1022" s="57"/>
       <c r="C1022" s="58"/>
-      <c r="D1022" s="115"/>
+      <c r="D1022" s="113"/>
       <c r="E1022" s="57"/>
       <c r="F1022" s="57"/>
       <c r="G1022" s="57"/>
@@ -36765,7 +36765,7 @@
       <c r="A1023" s="57"/>
       <c r="B1023" s="57"/>
       <c r="C1023" s="58"/>
-      <c r="D1023" s="115"/>
+      <c r="D1023" s="113"/>
       <c r="E1023" s="57"/>
       <c r="F1023" s="57"/>
       <c r="G1023" s="57"/>
@@ -36796,7 +36796,7 @@
       <c r="A1024" s="57"/>
       <c r="B1024" s="57"/>
       <c r="C1024" s="58"/>
-      <c r="D1024" s="115"/>
+      <c r="D1024" s="113"/>
       <c r="E1024" s="57"/>
       <c r="F1024" s="57"/>
       <c r="G1024" s="57"/>
@@ -36827,7 +36827,7 @@
       <c r="A1025" s="57"/>
       <c r="B1025" s="57"/>
       <c r="C1025" s="58"/>
-      <c r="D1025" s="115"/>
+      <c r="D1025" s="113"/>
       <c r="E1025" s="57"/>
       <c r="F1025" s="57"/>
       <c r="G1025" s="57"/>
@@ -36858,7 +36858,7 @@
       <c r="A1026" s="57"/>
       <c r="B1026" s="57"/>
       <c r="C1026" s="58"/>
-      <c r="D1026" s="115"/>
+      <c r="D1026" s="113"/>
       <c r="E1026" s="57"/>
       <c r="F1026" s="57"/>
       <c r="G1026" s="57"/>
@@ -36889,7 +36889,7 @@
       <c r="A1027" s="57"/>
       <c r="B1027" s="57"/>
       <c r="C1027" s="58"/>
-      <c r="D1027" s="115"/>
+      <c r="D1027" s="113"/>
       <c r="E1027" s="57"/>
       <c r="F1027" s="57"/>
       <c r="G1027" s="57"/>
@@ -36920,7 +36920,7 @@
       <c r="A1028" s="57"/>
       <c r="B1028" s="57"/>
       <c r="C1028" s="58"/>
-      <c r="D1028" s="115"/>
+      <c r="D1028" s="113"/>
       <c r="E1028" s="57"/>
       <c r="F1028" s="57"/>
       <c r="G1028" s="57"/>
@@ -36951,7 +36951,7 @@
       <c r="A1029" s="57"/>
       <c r="B1029" s="57"/>
       <c r="C1029" s="58"/>
-      <c r="D1029" s="115"/>
+      <c r="D1029" s="113"/>
       <c r="E1029" s="57"/>
       <c r="F1029" s="57"/>
       <c r="G1029" s="57"/>
@@ -36982,7 +36982,7 @@
       <c r="A1030" s="57"/>
       <c r="B1030" s="57"/>
       <c r="C1030" s="58"/>
-      <c r="D1030" s="115"/>
+      <c r="D1030" s="113"/>
       <c r="E1030" s="57"/>
       <c r="F1030" s="57"/>
       <c r="G1030" s="57"/>
@@ -37013,7 +37013,7 @@
       <c r="A1031" s="57"/>
       <c r="B1031" s="57"/>
       <c r="C1031" s="58"/>
-      <c r="D1031" s="115"/>
+      <c r="D1031" s="113"/>
       <c r="E1031" s="57"/>
       <c r="F1031" s="57"/>
       <c r="G1031" s="57"/>
@@ -37044,7 +37044,7 @@
       <c r="A1032" s="57"/>
       <c r="B1032" s="57"/>
       <c r="C1032" s="58"/>
-      <c r="D1032" s="115"/>
+      <c r="D1032" s="113"/>
       <c r="E1032" s="57"/>
       <c r="F1032" s="57"/>
       <c r="G1032" s="57"/>
@@ -37075,7 +37075,7 @@
       <c r="A1033" s="57"/>
       <c r="B1033" s="57"/>
       <c r="C1033" s="58"/>
-      <c r="D1033" s="115"/>
+      <c r="D1033" s="113"/>
       <c r="E1033" s="57"/>
       <c r="F1033" s="57"/>
       <c r="G1033" s="57"/>
@@ -37106,7 +37106,7 @@
       <c r="A1034" s="57"/>
       <c r="B1034" s="57"/>
       <c r="C1034" s="58"/>
-      <c r="D1034" s="115"/>
+      <c r="D1034" s="113"/>
       <c r="E1034" s="57"/>
       <c r="F1034" s="57"/>
       <c r="G1034" s="57"/>
@@ -37137,7 +37137,7 @@
       <c r="A1035" s="57"/>
       <c r="B1035" s="57"/>
       <c r="C1035" s="58"/>
-      <c r="D1035" s="115"/>
+      <c r="D1035" s="113"/>
       <c r="E1035" s="57"/>
       <c r="F1035" s="57"/>
       <c r="G1035" s="57"/>
@@ -37168,7 +37168,7 @@
       <c r="A1036" s="57"/>
       <c r="B1036" s="57"/>
       <c r="C1036" s="58"/>
-      <c r="D1036" s="115"/>
+      <c r="D1036" s="113"/>
       <c r="E1036" s="57"/>
       <c r="F1036" s="57"/>
       <c r="G1036" s="57"/>
@@ -37199,7 +37199,7 @@
       <c r="A1037" s="57"/>
       <c r="B1037" s="57"/>
       <c r="C1037" s="58"/>
-      <c r="D1037" s="115"/>
+      <c r="D1037" s="113"/>
       <c r="E1037" s="57"/>
       <c r="F1037" s="57"/>
       <c r="G1037" s="57"/>
@@ -37230,7 +37230,7 @@
       <c r="A1038" s="57"/>
       <c r="B1038" s="57"/>
       <c r="C1038" s="58"/>
-      <c r="D1038" s="115"/>
+      <c r="D1038" s="113"/>
       <c r="E1038" s="57"/>
       <c r="F1038" s="57"/>
       <c r="G1038" s="57"/>
@@ -37261,7 +37261,7 @@
       <c r="A1039" s="57"/>
       <c r="B1039" s="57"/>
       <c r="C1039" s="58"/>
-      <c r="D1039" s="115"/>
+      <c r="D1039" s="113"/>
       <c r="E1039" s="57"/>
       <c r="F1039" s="57"/>
       <c r="G1039" s="57"/>
@@ -37292,7 +37292,7 @@
       <c r="A1040" s="57"/>
       <c r="B1040" s="57"/>
       <c r="C1040" s="58"/>
-      <c r="D1040" s="115"/>
+      <c r="D1040" s="113"/>
       <c r="E1040" s="57"/>
       <c r="F1040" s="57"/>
       <c r="G1040" s="57"/>
@@ -37323,7 +37323,7 @@
       <c r="A1041" s="57"/>
       <c r="B1041" s="57"/>
       <c r="C1041" s="58"/>
-      <c r="D1041" s="115"/>
+      <c r="D1041" s="113"/>
       <c r="E1041" s="57"/>
       <c r="F1041" s="57"/>
       <c r="G1041" s="57"/>
@@ -37354,7 +37354,7 @@
       <c r="A1042" s="57"/>
       <c r="B1042" s="57"/>
       <c r="C1042" s="58"/>
-      <c r="D1042" s="115"/>
+      <c r="D1042" s="113"/>
       <c r="E1042" s="57"/>
       <c r="F1042" s="57"/>
       <c r="G1042" s="57"/>
@@ -37385,7 +37385,7 @@
       <c r="A1043" s="57"/>
       <c r="B1043" s="57"/>
       <c r="C1043" s="58"/>
-      <c r="D1043" s="115"/>
+      <c r="D1043" s="113"/>
       <c r="E1043" s="57"/>
       <c r="F1043" s="57"/>
       <c r="G1043" s="57"/>
@@ -37416,7 +37416,7 @@
       <c r="A1044" s="57"/>
       <c r="B1044" s="57"/>
       <c r="C1044" s="58"/>
-      <c r="D1044" s="115"/>
+      <c r="D1044" s="113"/>
       <c r="E1044" s="57"/>
       <c r="F1044" s="57"/>
       <c r="G1044" s="57"/>
@@ -37447,7 +37447,7 @@
       <c r="A1045" s="57"/>
       <c r="B1045" s="57"/>
       <c r="C1045" s="58"/>
-      <c r="D1045" s="115"/>
+      <c r="D1045" s="113"/>
       <c r="E1045" s="57"/>
       <c r="F1045" s="57"/>
       <c r="G1045" s="57"/>
@@ -37478,7 +37478,7 @@
       <c r="A1046" s="57"/>
       <c r="B1046" s="57"/>
       <c r="C1046" s="58"/>
-      <c r="D1046" s="115"/>
+      <c r="D1046" s="113"/>
       <c r="E1046" s="57"/>
       <c r="F1046" s="57"/>
       <c r="G1046" s="57"/>
@@ -37509,7 +37509,7 @@
       <c r="A1047" s="57"/>
       <c r="B1047" s="57"/>
       <c r="C1047" s="58"/>
-      <c r="D1047" s="115"/>
+      <c r="D1047" s="113"/>
       <c r="E1047" s="57"/>
       <c r="F1047" s="57"/>
       <c r="G1047" s="57"/>
@@ -37540,7 +37540,7 @@
       <c r="A1048" s="57"/>
       <c r="B1048" s="57"/>
       <c r="C1048" s="58"/>
-      <c r="D1048" s="115"/>
+      <c r="D1048" s="113"/>
       <c r="E1048" s="57"/>
       <c r="F1048" s="57"/>
       <c r="G1048" s="57"/>
@@ -37571,7 +37571,7 @@
       <c r="A1049" s="57"/>
       <c r="B1049" s="57"/>
       <c r="C1049" s="58"/>
-      <c r="D1049" s="115"/>
+      <c r="D1049" s="113"/>
       <c r="E1049" s="57"/>
       <c r="F1049" s="57"/>
       <c r="G1049" s="57"/>
@@ -37602,7 +37602,7 @@
       <c r="A1050" s="57"/>
       <c r="B1050" s="57"/>
       <c r="C1050" s="58"/>
-      <c r="D1050" s="115"/>
+      <c r="D1050" s="113"/>
       <c r="E1050" s="57"/>
       <c r="F1050" s="57"/>
       <c r="G1050" s="57"/>
@@ -37633,7 +37633,7 @@
       <c r="A1051" s="57"/>
       <c r="B1051" s="57"/>
       <c r="C1051" s="58"/>
-      <c r="D1051" s="115"/>
+      <c r="D1051" s="113"/>
       <c r="E1051" s="57"/>
       <c r="F1051" s="57"/>
       <c r="G1051" s="57"/>
@@ -37664,7 +37664,7 @@
       <c r="A1052" s="57"/>
       <c r="B1052" s="57"/>
       <c r="C1052" s="58"/>
-      <c r="D1052" s="115"/>
+      <c r="D1052" s="113"/>
       <c r="E1052" s="57"/>
       <c r="F1052" s="57"/>
       <c r="G1052" s="57"/>
@@ -37695,7 +37695,7 @@
       <c r="A1053" s="57"/>
       <c r="B1053" s="57"/>
       <c r="C1053" s="58"/>
-      <c r="D1053" s="115"/>
+      <c r="D1053" s="113"/>
       <c r="E1053" s="57"/>
       <c r="F1053" s="57"/>
       <c r="G1053" s="57"/>
@@ -37726,7 +37726,7 @@
       <c r="A1054" s="57"/>
       <c r="B1054" s="57"/>
       <c r="C1054" s="58"/>
-      <c r="D1054" s="115"/>
+      <c r="D1054" s="113"/>
       <c r="E1054" s="57"/>
       <c r="F1054" s="57"/>
       <c r="G1054" s="57"/>
@@ -37757,7 +37757,7 @@
       <c r="A1055" s="57"/>
       <c r="B1055" s="57"/>
       <c r="C1055" s="58"/>
-      <c r="D1055" s="115"/>
+      <c r="D1055" s="113"/>
       <c r="E1055" s="57"/>
       <c r="F1055" s="57"/>
       <c r="G1055" s="57"/>
@@ -37788,7 +37788,7 @@
       <c r="A1056" s="57"/>
       <c r="B1056" s="57"/>
       <c r="C1056" s="58"/>
-      <c r="D1056" s="115"/>
+      <c r="D1056" s="113"/>
       <c r="E1056" s="57"/>
       <c r="F1056" s="57"/>
       <c r="G1056" s="57"/>
@@ -37832,7 +37832,7 @@
   </sheetPr>
   <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
